--- a/result/chenting_20151124_noon_2.mat1.xlsx
+++ b/result/chenting_20151124_noon_2.mat1.xlsx
@@ -415,16 +415,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>0.654687742392222</v>
+        <v>23.20000203450521</v>
       </c>
       <c r="C2" t="n">
-        <v>158102.8072916667</v>
+        <v>13700.40885416667</v>
       </c>
       <c r="D2" t="n">
-        <v>0.2982503554473321</v>
+        <v>21.30511013666789</v>
       </c>
       <c r="E2" t="n">
-        <v>158102.4557291667</v>
+        <v>13698.51424153646</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -432,16 +432,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>0.360377828280131</v>
+        <v>13.05813439687093</v>
       </c>
       <c r="C3" t="n">
-        <v>154581.0833333333</v>
+        <v>13430.36588541667</v>
       </c>
       <c r="D3" t="n">
-        <v>0.2274424682060877</v>
+        <v>13.42944494883219</v>
       </c>
       <c r="E3" t="n">
-        <v>154580.9453125</v>
+        <v>13430.73681640625</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -449,16 +449,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>0.2936596274375916</v>
+        <v>6.097341378529866</v>
       </c>
       <c r="C4" t="n">
-        <v>151136.203125</v>
+        <v>13166.58854166667</v>
       </c>
       <c r="D4" t="n">
-        <v>0.1809809401941796</v>
+        <v>6.021153171857198</v>
       </c>
       <c r="E4" t="n">
-        <v>151136.0859375</v>
+        <v>13166.51236979167</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -466,16 +466,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>0.4355408052603404</v>
+        <v>1.906685034434001</v>
       </c>
       <c r="C5" t="n">
-        <v>147770.3229166667</v>
+        <v>12910.21809895833</v>
       </c>
       <c r="D5" t="n">
-        <v>0.2687535000344117</v>
+        <v>2.044517288605372</v>
       </c>
       <c r="E5" t="n">
-        <v>147770.1575520833</v>
+        <v>12910.35611979167</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -483,16 +483,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>0.3956113855044047</v>
+        <v>3.771061023076375</v>
       </c>
       <c r="C6" t="n">
-        <v>144482.5833333333</v>
+        <v>12664.52701822917</v>
       </c>
       <c r="D6" t="n">
-        <v>0.2699817083775997</v>
+        <v>3.508713205655416</v>
       </c>
       <c r="E6" t="n">
-        <v>144482.45703125</v>
+        <v>12664.26456705729</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -500,16 +500,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>0.2502413044373195</v>
+        <v>5.346120675404866</v>
       </c>
       <c r="C7" t="n">
-        <v>141271.296875</v>
+        <v>12423.09993489583</v>
       </c>
       <c r="D7" t="n">
-        <v>0.1920022759586573</v>
+        <v>4.508886456489563</v>
       </c>
       <c r="E7" t="n">
-        <v>141271.23828125</v>
+        <v>12422.26277669271</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -517,16 +517,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>0.2089762936035792</v>
+        <v>9.038399378458658</v>
       </c>
       <c r="C8" t="n">
-        <v>138134.5364583333</v>
+        <v>12188.37825520833</v>
       </c>
       <c r="D8" t="n">
-        <v>0.1640092482169469</v>
+        <v>6.383465687433879</v>
       </c>
       <c r="E8" t="n">
-        <v>138134.4934895833</v>
+        <v>12185.72330729167</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -534,16 +534,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>0.2082509696483612</v>
+        <v>6.691290537516276</v>
       </c>
       <c r="C9" t="n">
-        <v>135070.0885416667</v>
+        <v>11952.46484375</v>
       </c>
       <c r="D9" t="n">
-        <v>0.150925158833464</v>
+        <v>8.318682670593262</v>
       </c>
       <c r="E9" t="n">
-        <v>135070.0260416667</v>
+        <v>11954.09204101562</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -551,16 +551,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>0.2359821101029714</v>
+        <v>10.34176445007324</v>
       </c>
       <c r="C10" t="n">
-        <v>132075.765625</v>
+        <v>11727.2880859375</v>
       </c>
       <c r="D10" t="n">
-        <v>0.1540855991964539</v>
+        <v>9.223190307617188</v>
       </c>
       <c r="E10" t="n">
-        <v>132075.6848958333</v>
+        <v>11726.16967773438</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -568,16 +568,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>0.3047217080990474</v>
+        <v>1.763714909553528</v>
       </c>
       <c r="C11" t="n">
-        <v>129149.6171875</v>
+        <v>11494.54296875</v>
       </c>
       <c r="D11" t="n">
-        <v>0.219660439218084</v>
+        <v>2.842809160550436</v>
       </c>
       <c r="E11" t="n">
-        <v>129149.53125</v>
+        <v>11495.6220703125</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -585,16 +585,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>0.2833612412214279</v>
+        <v>0.9827207724253336</v>
       </c>
       <c r="C12" t="n">
-        <v>126289.5104166667</v>
+        <v>11274.13997395833</v>
       </c>
       <c r="D12" t="n">
-        <v>0.2421170311669509</v>
+        <v>1.050205166141192</v>
       </c>
       <c r="E12" t="n">
-        <v>126289.4694010417</v>
+        <v>11274.20751953125</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -602,16 +602,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>0.3196190496285756</v>
+        <v>2.859217087427775</v>
       </c>
       <c r="C13" t="n">
-        <v>123493.8723958333</v>
+        <v>11060.54654947917</v>
       </c>
       <c r="D13" t="n">
-        <v>0.2469864642868439</v>
+        <v>3.155522445837657</v>
       </c>
       <c r="E13" t="n">
-        <v>123493.802734375</v>
+        <v>11060.84309895833</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -619,16 +619,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>0.2221060196558634</v>
+        <v>2.472072760264079</v>
       </c>
       <c r="C14" t="n">
-        <v>120760.6822916667</v>
+        <v>10848.89615885417</v>
       </c>
       <c r="D14" t="n">
-        <v>0.1607452432314555</v>
+        <v>2.231081287066142</v>
       </c>
       <c r="E14" t="n">
-        <v>120760.6217447917</v>
+        <v>10848.65494791667</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -636,16 +636,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>0.1766536831855774</v>
+        <v>0.698187788327535</v>
       </c>
       <c r="C15" t="n">
-        <v>118088.4895833333</v>
+        <v>10639.80598958333</v>
       </c>
       <c r="D15" t="n">
-        <v>0.1455681814501683</v>
+        <v>0.8226518283287684</v>
       </c>
       <c r="E15" t="n">
-        <v>118088.4563802083</v>
+        <v>10639.93001302083</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -653,16 +653,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>0.1879032850265503</v>
+        <v>0.5513258079687754</v>
       </c>
       <c r="C16" t="n">
-        <v>115475.6875</v>
+        <v>10436.19791666667</v>
       </c>
       <c r="D16" t="n">
-        <v>0.1260324654479822</v>
+        <v>0.9591441849867502</v>
       </c>
       <c r="E16" t="n">
-        <v>115475.626953125</v>
+        <v>10436.60571289062</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -670,16 +670,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>0.1814385205507278</v>
+        <v>0.8381769259770712</v>
       </c>
       <c r="C17" t="n">
-        <v>112920.6796875</v>
+        <v>10236.81087239583</v>
       </c>
       <c r="D17" t="n">
-        <v>0.1329950024373829</v>
+        <v>0.6492172578970591</v>
       </c>
       <c r="E17" t="n">
-        <v>112920.6341145833</v>
+        <v>10236.62198893229</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -687,16 +687,16 @@
         <v>17</v>
       </c>
       <c r="B18" t="n">
-        <v>0.1946030954519908</v>
+        <v>0.4924214382966359</v>
       </c>
       <c r="C18" t="n">
-        <v>110422.0234375</v>
+        <v>10040.48079427083</v>
       </c>
       <c r="D18" t="n">
-        <v>0.1421603169292212</v>
+        <v>0.3228566087782383</v>
       </c>
       <c r="E18" t="n">
-        <v>110421.9694010417</v>
+        <v>10040.31119791667</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -704,16 +704,16 @@
         <v>18</v>
       </c>
       <c r="B19" t="n">
-        <v>0.2835314124822617</v>
+        <v>0.2666308134794235</v>
       </c>
       <c r="C19" t="n">
-        <v>107978.3854166667</v>
+        <v>9847.902669270834</v>
       </c>
       <c r="D19" t="n">
-        <v>0.2242684072504441</v>
+        <v>0.3509597231944402</v>
       </c>
       <c r="E19" t="n">
-        <v>107978.326171875</v>
+        <v>9847.986572265625</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -721,16 +721,16 @@
         <v>19</v>
       </c>
       <c r="B20" t="n">
-        <v>0.2765465428431829</v>
+        <v>0.1916386236747106</v>
       </c>
       <c r="C20" t="n">
-        <v>105588.1901041667</v>
+        <v>9659.0146484375</v>
       </c>
       <c r="D20" t="n">
-        <v>0.2055303007364273</v>
+        <v>0.1925547967354456</v>
       </c>
       <c r="E20" t="n">
-        <v>105588.1184895833</v>
+        <v>9659.015869140625</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -738,16 +738,16 @@
         <v>20</v>
       </c>
       <c r="B21" t="n">
-        <v>0.2890734473864238</v>
+        <v>0.323022445042928</v>
       </c>
       <c r="C21" t="n">
-        <v>103250.265625</v>
+        <v>9473.80078125</v>
       </c>
       <c r="D21" t="n">
-        <v>0.2260871703426043</v>
+        <v>0.345431533952554</v>
       </c>
       <c r="E21" t="n">
-        <v>103250.2018229167</v>
+        <v>9473.822998046875</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -755,16 +755,16 @@
         <v>21</v>
       </c>
       <c r="B22" t="n">
-        <v>0.3216344763835271</v>
+        <v>0.146269179880619</v>
       </c>
       <c r="C22" t="n">
-        <v>100963.3541666667</v>
+        <v>9291.703450520834</v>
       </c>
       <c r="D22" t="n">
-        <v>0.2352121577908595</v>
+        <v>0.106200593834122</v>
       </c>
       <c r="E22" t="n">
-        <v>100963.2669270833</v>
+        <v>9291.663818359375</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -772,16 +772,16 @@
         <v>22</v>
       </c>
       <c r="B23" t="n">
-        <v>0.1758475750684738</v>
+        <v>0.2886220514774323</v>
       </c>
       <c r="C23" t="n">
-        <v>98725.97916666667</v>
+        <v>9113.263997395834</v>
       </c>
       <c r="D23" t="n">
-        <v>0.1253742094462117</v>
+        <v>0.2325821655491988</v>
       </c>
       <c r="E23" t="n">
-        <v>98725.92903645833</v>
+        <v>9113.208170572916</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -789,16 +789,16 @@
         <v>23</v>
       </c>
       <c r="B24" t="n">
-        <v>0.1569729596376419</v>
+        <v>0.1329769591490428</v>
       </c>
       <c r="C24" t="n">
-        <v>96537.31510416667</v>
+        <v>8937.820638020834</v>
       </c>
       <c r="D24" t="n">
-        <v>0.1224176557734609</v>
+        <v>0.1564308765033881</v>
       </c>
       <c r="E24" t="n">
-        <v>96537.27734375</v>
+        <v>8937.843994140625</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -806,16 +806,16 @@
         <v>24</v>
       </c>
       <c r="B25" t="n">
-        <v>0.1090701719125112</v>
+        <v>0.1569749464591344</v>
       </c>
       <c r="C25" t="n">
-        <v>94396.0390625</v>
+        <v>8765.777994791666</v>
       </c>
       <c r="D25" t="n">
-        <v>0.1065869921197494</v>
+        <v>0.1139896536866824</v>
       </c>
       <c r="E25" t="n">
-        <v>94396.03515625</v>
+        <v>8765.735107421875</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -823,16 +823,16 @@
         <v>25</v>
       </c>
       <c r="B26" t="n">
-        <v>0.1174388527870178</v>
+        <v>0.2547546327114105</v>
       </c>
       <c r="C26" t="n">
-        <v>92301.08072916667</v>
+        <v>8596.9775390625</v>
       </c>
       <c r="D26" t="n">
-        <v>0.1015462577342987</v>
+        <v>0.139800775796175</v>
       </c>
       <c r="E26" t="n">
-        <v>92301.0625</v>
+        <v>8596.8623046875</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -840,16 +840,16 @@
         <v>26</v>
       </c>
       <c r="B27" t="n">
-        <v>0.1213594526052475</v>
+        <v>0.109199287990729</v>
       </c>
       <c r="C27" t="n">
-        <v>90251.33072916667</v>
+        <v>8431.044596354166</v>
       </c>
       <c r="D27" t="n">
-        <v>0.1088390493144592</v>
+        <v>0.09407348868747552</v>
       </c>
       <c r="E27" t="n">
-        <v>90251.318359375</v>
+        <v>8431.029541015625</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -857,16 +857,16 @@
         <v>27</v>
       </c>
       <c r="B28" t="n">
-        <v>0.1265539477268855</v>
+        <v>0.1254302288095156</v>
       </c>
       <c r="C28" t="n">
-        <v>88245.7734375</v>
+        <v>8268.335286458334</v>
       </c>
       <c r="D28" t="n">
-        <v>0.0988580291159451</v>
+        <v>0.102303924659888</v>
       </c>
       <c r="E28" t="n">
-        <v>88245.74674479167</v>
+        <v>8268.312255859375</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -874,16 +874,16 @@
         <v>28</v>
       </c>
       <c r="B29" t="n">
-        <v>0.1125550766785939</v>
+        <v>0.1343936721483866</v>
       </c>
       <c r="C29" t="n">
-        <v>86283.31510416667</v>
+        <v>8108.629069010417</v>
       </c>
       <c r="D29" t="n">
-        <v>0.09895724275459845</v>
+        <v>0.09973483501623075</v>
       </c>
       <c r="E29" t="n">
-        <v>86283.30208333333</v>
+        <v>8108.594360351562</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -891,16 +891,16 @@
         <v>29</v>
       </c>
       <c r="B30" t="n">
-        <v>0.1253971482316653</v>
+        <v>0.09917321925361951</v>
       </c>
       <c r="C30" t="n">
-        <v>84363.0625</v>
+        <v>7951.825358072917</v>
       </c>
       <c r="D30" t="n">
-        <v>0.09800895714821915</v>
+        <v>0.1137919034808874</v>
       </c>
       <c r="E30" t="n">
-        <v>84363.03515625</v>
+        <v>7951.83984375</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -908,16 +908,16 @@
         <v>30</v>
       </c>
       <c r="B31" t="n">
-        <v>0.1025789951284726</v>
+        <v>0.1281336297591527</v>
       </c>
       <c r="C31" t="n">
-        <v>82484</v>
+        <v>7797.989908854167</v>
       </c>
       <c r="D31" t="n">
-        <v>0.1154287724445264</v>
+        <v>0.1097187465056777</v>
       </c>
       <c r="E31" t="n">
-        <v>82484.01432291667</v>
+        <v>7797.971598307292</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -925,16 +925,16 @@
         <v>31</v>
       </c>
       <c r="B32" t="n">
-        <v>0.1658041204015414</v>
+        <v>0.1152364015579224</v>
       </c>
       <c r="C32" t="n">
-        <v>80645.27604166667</v>
+        <v>7646.9599609375</v>
       </c>
       <c r="D32" t="n">
-        <v>0.118791478065153</v>
+        <v>0.09028964955359697</v>
       </c>
       <c r="E32" t="n">
-        <v>80645.22786458333</v>
+        <v>7646.935017903646</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -942,16 +942,16 @@
         <v>32</v>
       </c>
       <c r="B33" t="n">
-        <v>0.1472857842842738</v>
+        <v>0.2109727015097936</v>
       </c>
       <c r="C33" t="n">
-        <v>78845.859375</v>
+        <v>7498.83935546875</v>
       </c>
       <c r="D33" t="n">
-        <v>0.1137649437102179</v>
+        <v>0.1311482371141513</v>
       </c>
       <c r="E33" t="n">
-        <v>78845.82421875</v>
+        <v>7498.759602864583</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -959,16 +959,16 @@
         <v>33</v>
       </c>
       <c r="B34" t="n">
-        <v>0.1816425820191701</v>
+        <v>0.144713560740153</v>
       </c>
       <c r="C34" t="n">
-        <v>77084.98697916667</v>
+        <v>7353.313639322917</v>
       </c>
       <c r="D34" t="n">
-        <v>0.1456726243098577</v>
+        <v>0.1003003818914294</v>
       </c>
       <c r="E34" t="n">
-        <v>77084.951171875</v>
+        <v>7353.269287109375</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -976,16 +976,16 @@
         <v>34</v>
       </c>
       <c r="B35" t="n">
-        <v>0.1121745382746061</v>
+        <v>0.1701250821352005</v>
       </c>
       <c r="C35" t="n">
-        <v>75361.62239583333</v>
+        <v>7210.577962239583</v>
       </c>
       <c r="D35" t="n">
-        <v>0.1113035300125678</v>
+        <v>0.1295312313983838</v>
       </c>
       <c r="E35" t="n">
-        <v>75361.619140625</v>
+        <v>7210.537231445312</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -993,16 +993,16 @@
         <v>35</v>
       </c>
       <c r="B36" t="n">
-        <v>0.09968265766898791</v>
+        <v>0.1187744041283925</v>
       </c>
       <c r="C36" t="n">
-        <v>73675.14583333333</v>
+        <v>7070.424479166667</v>
       </c>
       <c r="D36" t="n">
-        <v>0.09240363258868456</v>
+        <v>0.1256109084933996</v>
       </c>
       <c r="E36" t="n">
-        <v>73675.13997395833</v>
+        <v>7070.431274414062</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1010,16 +1010,16 @@
         <v>36</v>
       </c>
       <c r="B37" t="n">
-        <v>0.09820457175374031</v>
+        <v>0.1572794194022814</v>
       </c>
       <c r="C37" t="n">
-        <v>72024.65364583333</v>
+        <v>6932.961263020833</v>
       </c>
       <c r="D37" t="n">
-        <v>0.09028634033165872</v>
+        <v>0.1335680267463128</v>
       </c>
       <c r="E37" t="n">
-        <v>72024.64453125</v>
+        <v>6932.937784830729</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1027,16 +1027,16 @@
         <v>37</v>
       </c>
       <c r="B38" t="n">
-        <v>0.09650321801503499</v>
+        <v>0.1126330668727557</v>
       </c>
       <c r="C38" t="n">
-        <v>70409.38541666667</v>
+        <v>6797.973958333333</v>
       </c>
       <c r="D38" t="n">
-        <v>0.08680376107804477</v>
+        <v>0.1062990830590328</v>
       </c>
       <c r="E38" t="n">
-        <v>70409.37630208333</v>
+        <v>6797.967692057292</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1044,16 +1044,16 @@
         <v>38</v>
       </c>
       <c r="B39" t="n">
-        <v>0.1125089352329572</v>
+        <v>0.2538187007109324</v>
       </c>
       <c r="C39" t="n">
-        <v>68828.55989583333</v>
+        <v>6665.694173177083</v>
       </c>
       <c r="D39" t="n">
-        <v>0.09535406723928948</v>
+        <v>0.1522593547900518</v>
       </c>
       <c r="E39" t="n">
-        <v>68828.54036458333</v>
+        <v>6665.592692057292</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1061,16 +1061,16 @@
         <v>39</v>
       </c>
       <c r="B40" t="n">
-        <v>0.09496958677967389</v>
+        <v>0.165789802869161</v>
       </c>
       <c r="C40" t="n">
-        <v>67281.38541666667</v>
+        <v>6535.645345052083</v>
       </c>
       <c r="D40" t="n">
-        <v>0.08978287689387798</v>
+        <v>0.1198631065587203</v>
       </c>
       <c r="E40" t="n">
-        <v>67281.38020833333</v>
+        <v>6535.599324544271</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1078,16 +1078,16 @@
         <v>40</v>
       </c>
       <c r="B41" t="n">
-        <v>0.1046284611026446</v>
+        <v>0.157083143790563</v>
       </c>
       <c r="C41" t="n">
-        <v>65767.18229166667</v>
+        <v>6408.095052083333</v>
       </c>
       <c r="D41" t="n">
-        <v>0.108311473702391</v>
+        <v>0.1171391460423668</v>
       </c>
       <c r="E41" t="n">
-        <v>65767.185546875</v>
+        <v>6408.055053710938</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1095,16 +1095,16 @@
         <v>41</v>
       </c>
       <c r="B42" t="n">
-        <v>0.1259950970609983</v>
+        <v>0.1367857456207275</v>
       </c>
       <c r="C42" t="n">
-        <v>64285.2578125</v>
+        <v>6282.90771484375</v>
       </c>
       <c r="D42" t="n">
-        <v>0.09717348640939842</v>
+        <v>0.1520504411309958</v>
       </c>
       <c r="E42" t="n">
-        <v>64285.22981770834</v>
+        <v>6282.923095703125</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1112,16 +1112,16 @@
         <v>42</v>
       </c>
       <c r="B43" t="n">
-        <v>0.1099756807088852</v>
+        <v>0.1514774039387703</v>
       </c>
       <c r="C43" t="n">
-        <v>62834.83984375</v>
+        <v>6160.094401041667</v>
       </c>
       <c r="D43" t="n">
-        <v>0.09215389250312001</v>
+        <v>0.1604613189895948</v>
       </c>
       <c r="E43" t="n">
-        <v>62834.82259114584</v>
+        <v>6160.103352864583</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1129,16 +1129,16 @@
         <v>43</v>
       </c>
       <c r="B44" t="n">
-        <v>0.09839308137694995</v>
+        <v>0.1267424275477727</v>
       </c>
       <c r="C44" t="n">
-        <v>61415.2890625</v>
+        <v>6039.547688802083</v>
       </c>
       <c r="D44" t="n">
-        <v>0.09059579918781917</v>
+        <v>0.1765893424550692</v>
       </c>
       <c r="E44" t="n">
-        <v>61415.28190104166</v>
+        <v>6039.597452799479</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -1146,16 +1146,16 @@
         <v>44</v>
       </c>
       <c r="B45" t="n">
-        <v>0.0971853422621886</v>
+        <v>0.1032835841178894</v>
       </c>
       <c r="C45" t="n">
-        <v>60025.96484375</v>
+        <v>5921.255533854167</v>
       </c>
       <c r="D45" t="n">
-        <v>0.09410350335141023</v>
+        <v>0.109479995444417</v>
       </c>
       <c r="E45" t="n">
-        <v>60025.9609375</v>
+        <v>5921.261881510417</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1163,16 +1163,16 @@
         <v>45</v>
       </c>
       <c r="B46" t="n">
-        <v>0.1224797368049622</v>
+        <v>0.1786176065603892</v>
       </c>
       <c r="C46" t="n">
-        <v>58666.23697916666</v>
+        <v>5805.2744140625</v>
       </c>
       <c r="D46" t="n">
-        <v>0.09748082553657393</v>
+        <v>0.139996288344264</v>
       </c>
       <c r="E46" t="n">
-        <v>58666.2109375</v>
+        <v>5805.235677083333</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -1180,16 +1180,16 @@
         <v>46</v>
       </c>
       <c r="B47" t="n">
-        <v>0.09189857790867488</v>
+        <v>0.1402658745646477</v>
       </c>
       <c r="C47" t="n">
-        <v>57335.38802083334</v>
+        <v>5691.354166666667</v>
       </c>
       <c r="D47" t="n">
-        <v>0.1000333009287715</v>
+        <v>0.1107250954955816</v>
       </c>
       <c r="E47" t="n">
-        <v>57335.396484375</v>
+        <v>5691.324584960938</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -1197,16 +1197,16 @@
         <v>47</v>
       </c>
       <c r="B48" t="n">
-        <v>0.08956801394621532</v>
+        <v>0.1605646113554637</v>
       </c>
       <c r="C48" t="n">
-        <v>56032.90104166666</v>
+        <v>5579.62451171875</v>
       </c>
       <c r="D48" t="n">
-        <v>0.0914979341129462</v>
+        <v>0.1173926337311665</v>
       </c>
       <c r="E48" t="n">
-        <v>56032.90397135416</v>
+        <v>5579.581258138021</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -1214,16 +1214,16 @@
         <v>48</v>
       </c>
       <c r="B49" t="n">
-        <v>0.08952558164795239</v>
+        <v>0.1667268623908361</v>
       </c>
       <c r="C49" t="n">
-        <v>54758.12890625</v>
+        <v>5469.974283854167</v>
       </c>
       <c r="D49" t="n">
-        <v>0.08828430576249957</v>
+        <v>0.1287795193493366</v>
       </c>
       <c r="E49" t="n">
-        <v>54758.12727864584</v>
+        <v>5469.936360677083</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -1231,16 +1231,16 @@
         <v>49</v>
       </c>
       <c r="B50" t="n">
-        <v>0.1080628633499146</v>
+        <v>0.12108363956213</v>
       </c>
       <c r="C50" t="n">
-        <v>53510.52994791666</v>
+        <v>5362.32861328125</v>
       </c>
       <c r="D50" t="n">
-        <v>0.09389395033940673</v>
+        <v>0.1044849020739396</v>
       </c>
       <c r="E50" t="n">
-        <v>53510.51595052084</v>
+        <v>5362.31201171875</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -1248,16 +1248,16 @@
         <v>50</v>
       </c>
       <c r="B51" t="n">
-        <v>0.09721495832006137</v>
+        <v>0.1400252903501193</v>
       </c>
       <c r="C51" t="n">
-        <v>52289.46484375</v>
+        <v>5256.77001953125</v>
       </c>
       <c r="D51" t="n">
-        <v>0.09096201679979761</v>
+        <v>0.1315371834983428</v>
       </c>
       <c r="E51" t="n">
-        <v>52289.45833333334</v>
+        <v>5256.761474609375</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -1265,16 +1265,16 @@
         <v>51</v>
       </c>
       <c r="B52" t="n">
-        <v>0.1014441711207231</v>
+        <v>0.2380000054836273</v>
       </c>
       <c r="C52" t="n">
-        <v>51094.42057291666</v>
+        <v>5153.269368489583</v>
       </c>
       <c r="D52" t="n">
-        <v>0.1047432878986001</v>
+        <v>0.1154300936808189</v>
       </c>
       <c r="E52" t="n">
-        <v>51094.42513020834</v>
+        <v>5153.146769205729</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -1282,16 +1282,16 @@
         <v>52</v>
       </c>
       <c r="B53" t="n">
-        <v>0.1057167624433835</v>
+        <v>0.124336654941241</v>
       </c>
       <c r="C53" t="n">
-        <v>49924.85677083334</v>
+        <v>5051.501302083333</v>
       </c>
       <c r="D53" t="n">
-        <v>0.09182265199099977</v>
+        <v>0.1088462558885415</v>
       </c>
       <c r="E53" t="n">
-        <v>49924.841796875</v>
+        <v>5051.485799153646</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -1299,16 +1299,16 @@
         <v>53</v>
       </c>
       <c r="B54" t="n">
-        <v>0.0893113116423289</v>
+        <v>0.1272170717517535</v>
       </c>
       <c r="C54" t="n">
-        <v>48780.19401041666</v>
+        <v>4951.757975260417</v>
       </c>
       <c r="D54" t="n">
-        <v>0.09826887678354979</v>
+        <v>0.1754403170198202</v>
       </c>
       <c r="E54" t="n">
-        <v>48780.20377604166</v>
+        <v>4951.806274414062</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -1316,16 +1316,16 @@
         <v>54</v>
       </c>
       <c r="B55" t="n">
-        <v>0.08760813126961391</v>
+        <v>0.1351999541123708</v>
       </c>
       <c r="C55" t="n">
-        <v>47659.96875</v>
+        <v>4853.90087890625</v>
       </c>
       <c r="D55" t="n">
-        <v>0.08800115638102095</v>
+        <v>0.1090545412153006</v>
       </c>
       <c r="E55" t="n">
-        <v>47659.970703125</v>
+        <v>4853.874755859375</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -1333,16 +1333,16 @@
         <v>55</v>
       </c>
       <c r="B56" t="n">
-        <v>0.08680498972535133</v>
+        <v>0.1915611525376638</v>
       </c>
       <c r="C56" t="n">
-        <v>46563.64583333334</v>
+        <v>4757.934244791667</v>
       </c>
       <c r="D56" t="n">
-        <v>0.09254510545482238</v>
+        <v>0.1437744926661253</v>
       </c>
       <c r="E56" t="n">
-        <v>46563.65169270834</v>
+        <v>4757.886474609375</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -1350,16 +1350,16 @@
         <v>56</v>
       </c>
       <c r="B57" t="n">
-        <v>0.08692852780222893</v>
+        <v>0.136852224667867</v>
       </c>
       <c r="C57" t="n">
-        <v>45490.72786458334</v>
+        <v>4663.664225260417</v>
       </c>
       <c r="D57" t="n">
-        <v>0.09234442127247651</v>
+        <v>0.1167467528333267</v>
       </c>
       <c r="E57" t="n">
-        <v>45490.73274739584</v>
+        <v>4663.64404296875</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -1367,16 +1367,16 @@
         <v>57</v>
       </c>
       <c r="B58" t="n">
-        <v>0.09648864964644115</v>
+        <v>0.09877095619837443</v>
       </c>
       <c r="C58" t="n">
-        <v>44440.75260416666</v>
+        <v>4571.188639322917</v>
       </c>
       <c r="D58" t="n">
-        <v>0.09211171371862292</v>
+        <v>0.08953890608002742</v>
       </c>
       <c r="E58" t="n">
-        <v>44440.74837239584</v>
+        <v>4571.179402669271</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -1384,16 +1384,16 @@
         <v>58</v>
       </c>
       <c r="B59" t="n">
-        <v>0.09035920227567355</v>
+        <v>0.1577177370587985</v>
       </c>
       <c r="C59" t="n">
-        <v>43413.19921875</v>
+        <v>4480.55712890625</v>
       </c>
       <c r="D59" t="n">
-        <v>0.09211394377052784</v>
+        <v>0.1274755758543809</v>
       </c>
       <c r="E59" t="n">
-        <v>43413.201171875</v>
+        <v>4480.526896158854</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -1401,16 +1401,16 @@
         <v>59</v>
       </c>
       <c r="B60" t="n">
-        <v>0.08646842340628307</v>
+        <v>0.1342688004175822</v>
       </c>
       <c r="C60" t="n">
-        <v>42407.62890625</v>
+        <v>4391.5556640625</v>
       </c>
       <c r="D60" t="n">
-        <v>0.09518848638981581</v>
+        <v>0.09323482339580853</v>
       </c>
       <c r="E60" t="n">
-        <v>42407.63834635416</v>
+        <v>4391.514567057292</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -1418,16 +1418,16 @@
         <v>60</v>
       </c>
       <c r="B61" t="n">
-        <v>0.09758805359403293</v>
+        <v>0.1413722634315491</v>
       </c>
       <c r="C61" t="n">
-        <v>41423.59765625</v>
+        <v>4304.266276041667</v>
       </c>
       <c r="D61" t="n">
-        <v>0.09289336732278268</v>
+        <v>0.09655394839743774</v>
       </c>
       <c r="E61" t="n">
-        <v>41423.5927734375</v>
+        <v>4304.221557617188</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -1435,16 +1435,16 @@
         <v>61</v>
       </c>
       <c r="B62" t="n">
-        <v>0.08962295825282733</v>
+        <v>0.1927936971187592</v>
       </c>
       <c r="C62" t="n">
-        <v>40460.640625</v>
+        <v>4218.67138671875</v>
       </c>
       <c r="D62" t="n">
-        <v>0.09642644164462884</v>
+        <v>0.1129280347377062</v>
       </c>
       <c r="E62" t="n">
-        <v>40460.64713541666</v>
+        <v>4218.591389973958</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -1452,16 +1452,16 @@
         <v>62</v>
       </c>
       <c r="B63" t="n">
-        <v>0.09148454541961352</v>
+        <v>0.08471943438053131</v>
       </c>
       <c r="C63" t="n">
-        <v>39518.33333333334</v>
+        <v>4134.536783854167</v>
       </c>
       <c r="D63" t="n">
-        <v>0.09454060066491365</v>
+        <v>0.1025370229035616</v>
       </c>
       <c r="E63" t="n">
-        <v>39518.3369140625</v>
+        <v>4134.554606119792</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -1469,16 +1469,16 @@
         <v>63</v>
       </c>
       <c r="B64" t="n">
-        <v>0.09388523673017819</v>
+        <v>0.1090225155154864</v>
       </c>
       <c r="C64" t="n">
-        <v>38596.25</v>
+        <v>4052.126627604167</v>
       </c>
       <c r="D64" t="n">
-        <v>0.09733577755590279</v>
+        <v>0.1003789609918992</v>
       </c>
       <c r="E64" t="n">
-        <v>38596.25390625</v>
+        <v>4052.117940266927</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -1486,16 +1486,16 @@
         <v>64</v>
       </c>
       <c r="B65" t="n">
-        <v>0.09694782023628552</v>
+        <v>0.1277210960785548</v>
       </c>
       <c r="C65" t="n">
-        <v>37693.97135416666</v>
+        <v>3971.27587890625</v>
       </c>
       <c r="D65" t="n">
-        <v>0.09579882491379976</v>
+        <v>0.1689874405662219</v>
       </c>
       <c r="E65" t="n">
-        <v>37693.970703125</v>
+        <v>3971.317179361979</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -1503,16 +1503,16 @@
         <v>65</v>
       </c>
       <c r="B66" t="n">
-        <v>0.08809654290477435</v>
+        <v>0.1187540839115779</v>
       </c>
       <c r="C66" t="n">
-        <v>36811.08463541666</v>
+        <v>3891.936442057292</v>
       </c>
       <c r="D66" t="n">
-        <v>0.09846323293944199</v>
+        <v>0.1770301423966885</v>
       </c>
       <c r="E66" t="n">
-        <v>36811.09440104166</v>
+        <v>3891.99462890625</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -1520,16 +1520,16 @@
         <v>66</v>
       </c>
       <c r="B67" t="n">
-        <v>0.08876057217518489</v>
+        <v>0.117133554071188</v>
       </c>
       <c r="C67" t="n">
-        <v>35947.20572916666</v>
+        <v>3814.115152994792</v>
       </c>
       <c r="D67" t="n">
-        <v>0.09740179497748613</v>
+        <v>0.1531914075215658</v>
       </c>
       <c r="E67" t="n">
-        <v>35947.21419270834</v>
+        <v>3814.15126546224</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -1537,16 +1537,16 @@
         <v>67</v>
       </c>
       <c r="B68" t="n">
-        <v>0.09842982018987338</v>
+        <v>0.1417101969321569</v>
       </c>
       <c r="C68" t="n">
-        <v>35101.94661458334</v>
+        <v>3737.805501302083</v>
       </c>
       <c r="D68" t="n">
-        <v>0.0995566255102555</v>
+        <v>0.1042976826429367</v>
       </c>
       <c r="E68" t="n">
-        <v>35101.947265625</v>
+        <v>3737.768107096354</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -1554,16 +1554,16 @@
         <v>68</v>
       </c>
       <c r="B69" t="n">
-        <v>0.08908856411774953</v>
+        <v>0.09897858152786891</v>
       </c>
       <c r="C69" t="n">
-        <v>34274.90625</v>
+        <v>3662.881917317708</v>
       </c>
       <c r="D69" t="n">
-        <v>0.104438121120135</v>
+        <v>0.09786671648422877</v>
       </c>
       <c r="E69" t="n">
-        <v>34274.9208984375</v>
+        <v>3662.880839029948</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -1571,16 +1571,16 @@
         <v>69</v>
       </c>
       <c r="B70" t="n">
-        <v>0.1062670374910037</v>
+        <v>0.09820271655917168</v>
       </c>
       <c r="C70" t="n">
-        <v>33465.73828125</v>
+        <v>3589.426106770833</v>
       </c>
       <c r="D70" t="n">
-        <v>0.1012829414879282</v>
+        <v>0.1325947654743989</v>
       </c>
       <c r="E70" t="n">
-        <v>33465.73404947916</v>
+        <v>3589.46044921875</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -1588,16 +1588,16 @@
         <v>70</v>
       </c>
       <c r="B71" t="n">
-        <v>0.09406743571162224</v>
+        <v>0.2152558366457621</v>
       </c>
       <c r="C71" t="n">
-        <v>32674.03776041667</v>
+        <v>3517.491129557292</v>
       </c>
       <c r="D71" t="n">
-        <v>0.1010404281939069</v>
+        <v>0.1386843727280696</v>
       </c>
       <c r="E71" t="n">
-        <v>32674.04443359375</v>
+        <v>3517.414571126302</v>
       </c>
     </row>
     <row r="72" spans="1:5">
@@ -1605,16 +1605,16 @@
         <v>71</v>
       </c>
       <c r="B72" t="n">
-        <v>0.09685960287849109</v>
+        <v>0.1404079049825668</v>
       </c>
       <c r="C72" t="n">
-        <v>31899.48177083333</v>
+        <v>3446.747802734375</v>
       </c>
       <c r="D72" t="n">
-        <v>0.1007778554533919</v>
+        <v>0.1048250241825978</v>
       </c>
       <c r="E72" t="n">
-        <v>31899.4853515625</v>
+        <v>3446.712219238281</v>
       </c>
     </row>
     <row r="73" spans="1:5">
@@ -1622,16 +1622,16 @@
         <v>72</v>
       </c>
       <c r="B73" t="n">
-        <v>0.09506548941135406</v>
+        <v>0.2602969259023666</v>
       </c>
       <c r="C73" t="n">
-        <v>31141.70703125</v>
+        <v>3377.548421223958</v>
       </c>
       <c r="D73" t="n">
-        <v>0.1007505621140202</v>
+        <v>0.1702822173635165</v>
       </c>
       <c r="E73" t="n">
-        <v>31141.71207682292</v>
+        <v>3377.458414713542</v>
       </c>
     </row>
     <row r="74" spans="1:5">
@@ -1639,16 +1639,16 @@
         <v>73</v>
       </c>
       <c r="B74" t="n">
-        <v>0.09453972429037094</v>
+        <v>0.1053500448664029</v>
       </c>
       <c r="C74" t="n">
-        <v>30400.37369791667</v>
+        <v>3309.404622395833</v>
       </c>
       <c r="D74" t="n">
-        <v>0.1010294665272037</v>
+        <v>0.09437977336347103</v>
       </c>
       <c r="E74" t="n">
-        <v>30400.38020833333</v>
+        <v>3309.393676757812</v>
       </c>
     </row>
     <row r="75" spans="1:5">
@@ -1656,16 +1656,16 @@
         <v>74</v>
       </c>
       <c r="B75" t="n">
-        <v>0.09564852466185887</v>
+        <v>0.1074800975620747</v>
       </c>
       <c r="C75" t="n">
-        <v>29675.142578125</v>
+        <v>3242.718343098958</v>
       </c>
       <c r="D75" t="n">
-        <v>0.1014670471971234</v>
+        <v>0.1335415324817101</v>
       </c>
       <c r="E75" t="n">
-        <v>29675.14811197917</v>
+        <v>3242.744405110677</v>
       </c>
     </row>
     <row r="76" spans="1:5">
@@ -1673,16 +1673,16 @@
         <v>75</v>
       </c>
       <c r="B76" t="n">
-        <v>0.09858931849400203</v>
+        <v>0.1225675716996193</v>
       </c>
       <c r="C76" t="n">
-        <v>28965.68619791667</v>
+        <v>3177.32568359375</v>
       </c>
       <c r="D76" t="n">
-        <v>0.101747858338058</v>
+        <v>0.1280139610171318</v>
       </c>
       <c r="E76" t="n">
-        <v>28965.689453125</v>
+        <v>3177.331136067708</v>
       </c>
     </row>
     <row r="77" spans="1:5">
@@ -1690,16 +1690,16 @@
         <v>76</v>
       </c>
       <c r="B77" t="n">
-        <v>0.09270666415492694</v>
+        <v>0.1595973819494247</v>
       </c>
       <c r="C77" t="n">
-        <v>28271.67643229167</v>
+        <v>3113.21484375</v>
       </c>
       <c r="D77" t="n">
-        <v>0.1046571818490823</v>
+        <v>0.1136753695706526</v>
       </c>
       <c r="E77" t="n">
-        <v>28271.68863932292</v>
+        <v>3113.168863932292</v>
       </c>
     </row>
     <row r="78" spans="1:5">
@@ -1707,16 +1707,16 @@
         <v>77</v>
       </c>
       <c r="B78" t="n">
-        <v>0.09923455367485683</v>
+        <v>0.1699473907550176</v>
       </c>
       <c r="C78" t="n">
-        <v>27592.81770833333</v>
+        <v>3050.312744140625</v>
       </c>
       <c r="D78" t="n">
-        <v>0.1044393895814816</v>
+        <v>0.1200896718849738</v>
       </c>
       <c r="E78" t="n">
-        <v>27592.82307942708</v>
+        <v>3050.262919108073</v>
       </c>
     </row>
     <row r="79" spans="1:5">
@@ -1724,16 +1724,16 @@
         <v>78</v>
       </c>
       <c r="B79" t="n">
-        <v>0.1065101027488708</v>
+        <v>0.2122562030951182</v>
       </c>
       <c r="C79" t="n">
-        <v>26928.78776041667</v>
+        <v>2988.654459635417</v>
       </c>
       <c r="D79" t="n">
-        <v>0.1024510199204087</v>
+        <v>0.1728116224209467</v>
       </c>
       <c r="E79" t="n">
-        <v>26928.78434244792</v>
+        <v>2988.614949544271</v>
       </c>
     </row>
     <row r="80" spans="1:5">
@@ -1741,16 +1741,16 @@
         <v>79</v>
       </c>
       <c r="B80" t="n">
-        <v>0.09306649242838223</v>
+        <v>0.1474500844875971</v>
       </c>
       <c r="C80" t="n">
-        <v>26279.26106770833</v>
+        <v>2928.0830078125</v>
       </c>
       <c r="D80" t="n">
-        <v>0.1061436211069425</v>
+        <v>0.1474208037058512</v>
       </c>
       <c r="E80" t="n">
-        <v>26279.27408854167</v>
+        <v>2928.082967122396</v>
       </c>
     </row>
     <row r="81" spans="1:5">
@@ -1758,16 +1758,16 @@
         <v>80</v>
       </c>
       <c r="B81" t="n">
-        <v>0.09977948293089867</v>
+        <v>0.1407740140954653</v>
       </c>
       <c r="C81" t="n">
-        <v>25643.984375</v>
+        <v>2868.738444010417</v>
       </c>
       <c r="D81" t="n">
-        <v>0.1055545670290788</v>
+        <v>0.1066480316221714</v>
       </c>
       <c r="E81" t="n">
-        <v>25643.99039713542</v>
+        <v>2868.704284667969</v>
       </c>
     </row>
     <row r="82" spans="1:5">
@@ -1775,16 +1775,16 @@
         <v>81</v>
       </c>
       <c r="B82" t="n">
-        <v>0.1037799914677938</v>
+        <v>0.1151366730531057</v>
       </c>
       <c r="C82" t="n">
-        <v>25022.64453125</v>
+        <v>2810.521647135417</v>
       </c>
       <c r="D82" t="n">
-        <v>0.1057807958374421</v>
+        <v>0.1256132591515779</v>
       </c>
       <c r="E82" t="n">
-        <v>25022.64680989583</v>
+        <v>2810.532104492188</v>
       </c>
     </row>
     <row r="83" spans="1:5">
@@ -1792,16 +1792,16 @@
         <v>82</v>
       </c>
       <c r="B83" t="n">
-        <v>0.0951217773060004</v>
+        <v>0.1347944289445877</v>
       </c>
       <c r="C83" t="n">
-        <v>24414.94661458333</v>
+        <v>2753.478271484375</v>
       </c>
       <c r="D83" t="n">
-        <v>0.1088224730143944</v>
+        <v>0.09845609838763873</v>
       </c>
       <c r="E83" t="n">
-        <v>24414.96044921875</v>
+        <v>2753.441975911458</v>
       </c>
     </row>
     <row r="84" spans="1:5">
@@ -1809,16 +1809,16 @@
         <v>83</v>
       </c>
       <c r="B84" t="n">
-        <v>0.1073041458924611</v>
+        <v>0.4350025653839111</v>
       </c>
       <c r="C84" t="n">
-        <v>23820.64453125</v>
+        <v>2697.825439453125</v>
       </c>
       <c r="D84" t="n">
-        <v>0.1083241812884808</v>
+        <v>0.3836649234096209</v>
       </c>
       <c r="E84" t="n">
-        <v>23820.6455078125</v>
+        <v>2697.774047851562</v>
       </c>
     </row>
     <row r="85" spans="1:5">
@@ -1826,16 +1826,16 @@
         <v>84</v>
       </c>
       <c r="B85" t="n">
-        <v>0.1059262578686078</v>
+        <v>0.242572953303655</v>
       </c>
       <c r="C85" t="n">
-        <v>23239.43424479167</v>
+        <v>2642.771891276042</v>
       </c>
       <c r="D85" t="n">
-        <v>0.1107234340161085</v>
+        <v>0.1840975259741147</v>
       </c>
       <c r="E85" t="n">
-        <v>23239.43880208333</v>
+        <v>2642.713399251302</v>
       </c>
     </row>
     <row r="86" spans="1:5">
@@ -1843,16 +1843,16 @@
         <v>85</v>
       </c>
       <c r="B86" t="n">
-        <v>0.09870834027727445</v>
+        <v>0.1110558783014615</v>
       </c>
       <c r="C86" t="n">
-        <v>22671.05013020833</v>
+        <v>2588.849365234375</v>
       </c>
       <c r="D86" t="n">
-        <v>0.1150853329648574</v>
+        <v>0.1102405805140734</v>
       </c>
       <c r="E86" t="n">
-        <v>22671.06624348958</v>
+        <v>2588.84853108724</v>
       </c>
     </row>
     <row r="87" spans="1:5">
@@ -1860,16 +1860,16 @@
         <v>86</v>
       </c>
       <c r="B87" t="n">
-        <v>0.1145499845345815</v>
+        <v>0.1144447202483813</v>
       </c>
       <c r="C87" t="n">
-        <v>22115.26106770833</v>
+        <v>2536.104410807292</v>
       </c>
       <c r="D87" t="n">
-        <v>0.111482746899128</v>
+        <v>0.1452676194409529</v>
       </c>
       <c r="E87" t="n">
-        <v>22115.25797526042</v>
+        <v>2536.135274251302</v>
       </c>
     </row>
     <row r="88" spans="1:5">
@@ -1877,16 +1877,16 @@
         <v>87</v>
       </c>
       <c r="B88" t="n">
-        <v>0.1053368896245956</v>
+        <v>0.1156663633882999</v>
       </c>
       <c r="C88" t="n">
-        <v>21571.77083333333</v>
+        <v>2484.385009765625</v>
       </c>
       <c r="D88" t="n">
-        <v>0.1136485251287619</v>
+        <v>0.1290706271926562</v>
       </c>
       <c r="E88" t="n">
-        <v>21571.77945963542</v>
+        <v>2484.398356119792</v>
       </c>
     </row>
     <row r="89" spans="1:5">
@@ -1894,16 +1894,16 @@
         <v>88</v>
       </c>
       <c r="B89" t="n">
-        <v>0.1074202507734299</v>
+        <v>0.1891373892625173</v>
       </c>
       <c r="C89" t="n">
-        <v>21040.3515625</v>
+        <v>2433.747233072917</v>
       </c>
       <c r="D89" t="n">
-        <v>0.1140272412449121</v>
+        <v>0.1214341828599572</v>
       </c>
       <c r="E89" t="n">
-        <v>21040.35823567708</v>
+        <v>2433.679545084635</v>
       </c>
     </row>
     <row r="90" spans="1:5">
@@ -1911,16 +1911,16 @@
         <v>89</v>
       </c>
       <c r="B90" t="n">
-        <v>0.1176455815633138</v>
+        <v>0.1707107524077097</v>
       </c>
       <c r="C90" t="n">
-        <v>20520.759765625</v>
+        <v>2384.005696614583</v>
       </c>
       <c r="D90" t="n">
-        <v>0.1134398166711132</v>
+        <v>0.1108192193011443</v>
       </c>
       <c r="E90" t="n">
-        <v>20520.755859375</v>
+        <v>2383.94580078125</v>
       </c>
     </row>
     <row r="91" spans="1:5">
@@ -1928,16 +1928,16 @@
         <v>90</v>
       </c>
       <c r="B91" t="n">
-        <v>0.1109178513288498</v>
+        <v>0.1285184149940809</v>
       </c>
       <c r="C91" t="n">
-        <v>20012.724609375</v>
+        <v>2335.211995442708</v>
       </c>
       <c r="D91" t="n">
-        <v>0.1156193520873785</v>
+        <v>0.1588334441184998</v>
       </c>
       <c r="E91" t="n">
-        <v>20012.72884114583</v>
+        <v>2335.24228922526</v>
       </c>
     </row>
     <row r="92" spans="1:5">
@@ -1945,16 +1945,16 @@
         <v>91</v>
       </c>
       <c r="B92" t="n">
-        <v>0.1173907046516736</v>
+        <v>0.1185475488503774</v>
       </c>
       <c r="C92" t="n">
-        <v>19516.04296875</v>
+        <v>2287.408284505208</v>
       </c>
       <c r="D92" t="n">
-        <v>0.115736090267698</v>
+        <v>0.09170062219103177</v>
       </c>
       <c r="E92" t="n">
-        <v>19516.04182942708</v>
+        <v>2287.381490071615</v>
       </c>
     </row>
     <row r="93" spans="1:5">
@@ -1962,16 +1962,16 @@
         <v>92</v>
       </c>
       <c r="B93" t="n">
-        <v>0.1126426036159198</v>
+        <v>0.2155022273461024</v>
       </c>
       <c r="C93" t="n">
-        <v>19030.46223958333</v>
+        <v>2240.647867838542</v>
       </c>
       <c r="D93" t="n">
-        <v>0.1171597999831041</v>
+        <v>0.1690668438871702</v>
       </c>
       <c r="E93" t="n">
-        <v>19030.46712239583</v>
+        <v>2240.601440429688</v>
       </c>
     </row>
     <row r="94" spans="1:5">
@@ -1979,16 +1979,16 @@
         <v>93</v>
       </c>
       <c r="B94" t="n">
-        <v>0.1150951460003853</v>
+        <v>0.1216014176607132</v>
       </c>
       <c r="C94" t="n">
-        <v>18555.76497395833</v>
+        <v>2194.618977864583</v>
       </c>
       <c r="D94" t="n">
-        <v>0.1174721488108238</v>
+        <v>0.09906443022191525</v>
       </c>
       <c r="E94" t="n">
-        <v>18555.76790364583</v>
+        <v>2194.596354166667</v>
       </c>
     </row>
     <row r="95" spans="1:5">
@@ -1996,16 +1996,16 @@
         <v>94</v>
       </c>
       <c r="B95" t="n">
-        <v>0.1140676885843277</v>
+        <v>0.1327352126439413</v>
       </c>
       <c r="C95" t="n">
-        <v>18091.71744791667</v>
+        <v>2149.600504557292</v>
       </c>
       <c r="D95" t="n">
-        <v>0.1188101371129354</v>
+        <v>0.1708969374497732</v>
       </c>
       <c r="E95" t="n">
-        <v>18091.72216796875</v>
+        <v>2149.638671875</v>
       </c>
     </row>
     <row r="96" spans="1:5">
@@ -2013,16 +2013,16 @@
         <v>95</v>
       </c>
       <c r="B96" t="n">
-        <v>0.1164239471157392</v>
+        <v>0.158534973859787</v>
       </c>
       <c r="C96" t="n">
-        <v>17638.11848958333</v>
+        <v>2105.482259114583</v>
       </c>
       <c r="D96" t="n">
-        <v>0.1198739546040694</v>
+        <v>0.2131829187273979</v>
       </c>
       <c r="E96" t="n">
-        <v>17638.12174479167</v>
+        <v>2105.536966959635</v>
       </c>
     </row>
     <row r="97" spans="1:5">
@@ -2030,16 +2030,16 @@
         <v>96</v>
       </c>
       <c r="B97" t="n">
-        <v>0.1285662700732549</v>
+        <v>0.1751695921023687</v>
       </c>
       <c r="C97" t="n">
-        <v>17194.751953125</v>
+        <v>2062.229329427083</v>
       </c>
       <c r="D97" t="n">
-        <v>0.1193839255720377</v>
+        <v>0.1144255169977744</v>
       </c>
       <c r="E97" t="n">
-        <v>17194.74235026042</v>
+        <v>2062.168599446615</v>
       </c>
     </row>
     <row r="98" spans="1:5">
@@ -2047,16 +2047,16 @@
         <v>97</v>
       </c>
       <c r="B98" t="n">
-        <v>0.1202246050039927</v>
+        <v>0.1110347509384155</v>
       </c>
       <c r="C98" t="n">
-        <v>16761.37239583333</v>
+        <v>2019.749064127604</v>
       </c>
       <c r="D98" t="n">
-        <v>0.1223339755088091</v>
+        <v>0.1187404685964187</v>
       </c>
       <c r="E98" t="n">
-        <v>16761.37434895833</v>
+        <v>2019.75678507487</v>
       </c>
     </row>
     <row r="99" spans="1:5">
@@ -2064,16 +2064,16 @@
         <v>98</v>
       </c>
       <c r="B99" t="n">
-        <v>0.1191405579447746</v>
+        <v>0.09937490274508794</v>
       </c>
       <c r="C99" t="n">
-        <v>16337.8134765625</v>
+        <v>1978.160034179688</v>
       </c>
       <c r="D99" t="n">
-        <v>0.1244575896610816</v>
+        <v>0.1129577063644926</v>
       </c>
       <c r="E99" t="n">
-        <v>16337.81876627604</v>
+        <v>1978.173624674479</v>
       </c>
     </row>
     <row r="100" spans="1:5">
@@ -2081,16 +2081,16 @@
         <v>99</v>
       </c>
       <c r="B100" t="n">
-        <v>0.1243659133712451</v>
+        <v>0.1299635047713915</v>
       </c>
       <c r="C100" t="n">
-        <v>15923.86555989583</v>
+        <v>1937.437703450521</v>
       </c>
       <c r="D100" t="n">
-        <v>0.1248206446568171</v>
+        <v>0.1662378646433353</v>
       </c>
       <c r="E100" t="n">
-        <v>15923.86604817708</v>
+        <v>1937.473968505859</v>
       </c>
     </row>
     <row r="101" spans="1:5">
@@ -2098,16 +2098,16 @@
         <v>100</v>
       </c>
       <c r="B101" t="n">
-        <v>0.1236962825059891</v>
+        <v>0.1375433926781019</v>
       </c>
       <c r="C101" t="n">
-        <v>15519.32096354167</v>
+        <v>1897.502807617188</v>
       </c>
       <c r="D101" t="n">
-        <v>0.1262092341979345</v>
+        <v>0.184360266973575</v>
       </c>
       <c r="E101" t="n">
-        <v>15519.32348632812</v>
+        <v>1897.549591064453</v>
       </c>
     </row>
     <row r="102" spans="1:5">
@@ -2115,16 +2115,16 @@
         <v>101</v>
       </c>
       <c r="B102" t="n">
-        <v>0.120244137942791</v>
+        <v>0.1539869581659635</v>
       </c>
       <c r="C102" t="n">
-        <v>15123.9853515625</v>
+        <v>1858.375325520833</v>
       </c>
       <c r="D102" t="n">
-        <v>0.1283084098249674</v>
+        <v>0.101739713922143</v>
       </c>
       <c r="E102" t="n">
-        <v>15123.99348958333</v>
+        <v>1858.323048909505</v>
       </c>
     </row>
     <row r="103" spans="1:5">
@@ -2132,16 +2132,16 @@
         <v>102</v>
       </c>
       <c r="B103" t="n">
-        <v>0.1281323929627737</v>
+        <v>0.09727811440825462</v>
       </c>
       <c r="C103" t="n">
-        <v>14737.68587239583</v>
+        <v>1819.951049804688</v>
       </c>
       <c r="D103" t="n">
-        <v>0.1279359851032495</v>
+        <v>0.1032888923461239</v>
       </c>
       <c r="E103" t="n">
-        <v>14737.68546549479</v>
+        <v>1819.957041422526</v>
       </c>
     </row>
     <row r="104" spans="1:5">
@@ -2149,16 +2149,16 @@
         <v>103</v>
       </c>
       <c r="B104" t="n">
-        <v>0.1277213195959727</v>
+        <v>0.1127622990558545</v>
       </c>
       <c r="C104" t="n">
-        <v>14360.21744791667</v>
+        <v>1782.362060546875</v>
       </c>
       <c r="D104" t="n">
-        <v>0.1294945813715458</v>
+        <v>0.1699540838599205</v>
       </c>
       <c r="E104" t="n">
-        <v>14360.21931966146</v>
+        <v>1782.419209798177</v>
       </c>
     </row>
     <row r="105" spans="1:5">
@@ -2166,16 +2166,16 @@
         <v>104</v>
       </c>
       <c r="B105" t="n">
-        <v>0.1331104959050814</v>
+        <v>0.1145253777503967</v>
       </c>
       <c r="C105" t="n">
-        <v>13991.40950520833</v>
+        <v>1745.510620117188</v>
       </c>
       <c r="D105" t="n">
-        <v>0.1300094754745563</v>
+        <v>0.1051368912061055</v>
       </c>
       <c r="E105" t="n">
-        <v>13991.40625</v>
+        <v>1745.501261393229</v>
       </c>
     </row>
     <row r="106" spans="1:5">
@@ -2183,16 +2183,16 @@
         <v>105</v>
       </c>
       <c r="B106" t="n">
-        <v>0.1289069727063179</v>
+        <v>0.1097024728854497</v>
       </c>
       <c r="C106" t="n">
-        <v>13631.064453125</v>
+        <v>1709.391438802083</v>
       </c>
       <c r="D106" t="n">
-        <v>0.1326087030271689</v>
+        <v>0.1627816061178843</v>
       </c>
       <c r="E106" t="n">
-        <v>13631.06811523438</v>
+        <v>1709.444539388021</v>
       </c>
     </row>
     <row r="107" spans="1:5">
@@ -2200,16 +2200,16 @@
         <v>106</v>
       </c>
       <c r="B107" t="n">
-        <v>0.1368896986047427</v>
+        <v>0.2593885163466136</v>
       </c>
       <c r="C107" t="n">
-        <v>13279.03450520833</v>
+        <v>1674.1494140625</v>
       </c>
       <c r="D107" t="n">
-        <v>0.1326431532700857</v>
+        <v>0.2065019967655341</v>
       </c>
       <c r="E107" t="n">
-        <v>13279.03011067708</v>
+        <v>1674.096506754557</v>
       </c>
     </row>
     <row r="108" spans="1:5">
@@ -2217,16 +2217,16 @@
         <v>107</v>
       </c>
       <c r="B108" t="n">
-        <v>0.1390827546517054</v>
+        <v>0.1817932923634847</v>
       </c>
       <c r="C108" t="n">
-        <v>12935.12532552083</v>
+        <v>1639.390014648438</v>
       </c>
       <c r="D108" t="n">
-        <v>0.1335316809515158</v>
+        <v>0.1610871348530054</v>
       </c>
       <c r="E108" t="n">
-        <v>12935.11987304688</v>
+        <v>1639.369344075521</v>
       </c>
     </row>
     <row r="109" spans="1:5">
@@ -2234,16 +2234,16 @@
         <v>108</v>
       </c>
       <c r="B109" t="n">
-        <v>0.1311027879516284</v>
+        <v>0.21684264143308</v>
       </c>
       <c r="C109" t="n">
-        <v>12599.16341145833</v>
+        <v>1605.440714518229</v>
       </c>
       <c r="D109" t="n">
-        <v>0.1367507396886746</v>
+        <v>0.1531906711558501</v>
       </c>
       <c r="E109" t="n">
-        <v>12599.16902669271</v>
+        <v>1605.377065022786</v>
       </c>
     </row>
     <row r="110" spans="1:5">
@@ -2251,16 +2251,16 @@
         <v>109</v>
       </c>
       <c r="B110" t="n">
-        <v>0.1440441658099492</v>
+        <v>0.1371175994475683</v>
       </c>
       <c r="C110" t="n">
-        <v>12271.01822916667</v>
+        <v>1572.058837890625</v>
       </c>
       <c r="D110" t="n">
-        <v>0.1359438622991244</v>
+        <v>0.20315021276474</v>
       </c>
       <c r="E110" t="n">
-        <v>12271.00992838542</v>
+        <v>1572.12489827474</v>
       </c>
     </row>
     <row r="111" spans="1:5">
@@ -2268,16 +2268,16 @@
         <v>110</v>
       </c>
       <c r="B111" t="n">
-        <v>0.1398138279716174</v>
+        <v>0.09388939912120502</v>
       </c>
       <c r="C111" t="n">
-        <v>11950.482421875</v>
+        <v>1539.389322916667</v>
       </c>
       <c r="D111" t="n">
-        <v>0.1381890239814917</v>
+        <v>0.1563051647196213</v>
       </c>
       <c r="E111" t="n">
-        <v>11950.48095703125</v>
+        <v>1539.451721191406</v>
       </c>
     </row>
     <row r="112" spans="1:5">
@@ -2285,16 +2285,16 @@
         <v>111</v>
       </c>
       <c r="B112" t="n">
-        <v>0.135212354362011</v>
+        <v>0.2062905182441076</v>
       </c>
       <c r="C112" t="n">
-        <v>11637.41764322917</v>
+        <v>1507.533935546875</v>
       </c>
       <c r="D112" t="n">
-        <v>0.1407676699260871</v>
+        <v>0.1629015430808067</v>
       </c>
       <c r="E112" t="n">
-        <v>11637.42293294271</v>
+        <v>1507.490549723307</v>
       </c>
     </row>
     <row r="113" spans="1:5">
@@ -2302,16 +2302,16 @@
         <v>112</v>
       </c>
       <c r="B113" t="n">
-        <v>0.1493405252695084</v>
+        <v>0.1132412999868393</v>
       </c>
       <c r="C113" t="n">
-        <v>11331.689453125</v>
+        <v>1476.1201171875</v>
       </c>
       <c r="D113" t="n">
-        <v>0.1394821163266897</v>
+        <v>0.1104395302633445</v>
       </c>
       <c r="E113" t="n">
-        <v>11331.67928059896</v>
+        <v>1476.117268880208</v>
       </c>
     </row>
     <row r="114" spans="1:5">
@@ -2319,16 +2319,16 @@
         <v>113</v>
       </c>
       <c r="B114" t="n">
-        <v>0.1435835858186086</v>
+        <v>0.2092794130245844</v>
       </c>
       <c r="C114" t="n">
-        <v>11033.10188802083</v>
+        <v>1445.529256184896</v>
       </c>
       <c r="D114" t="n">
-        <v>0.1418552858134111</v>
+        <v>0.1757983304560184</v>
       </c>
       <c r="E114" t="n">
-        <v>11033.09985351562</v>
+        <v>1445.495747884115</v>
       </c>
     </row>
     <row r="115" spans="1:5">
@@ -2336,16 +2336,16 @@
         <v>114</v>
       </c>
       <c r="B115" t="n">
-        <v>0.1468054602543513</v>
+        <v>0.1046872586011887</v>
       </c>
       <c r="C115" t="n">
-        <v>10741.53548177083</v>
+        <v>1415.359212239583</v>
       </c>
       <c r="D115" t="n">
-        <v>0.1430928458770116</v>
+        <v>0.1441192446897427</v>
       </c>
       <c r="E115" t="n">
-        <v>10741.53173828125</v>
+        <v>1415.398640950521</v>
       </c>
     </row>
     <row r="116" spans="1:5">
@@ -2353,16 +2353,16 @@
         <v>115</v>
       </c>
       <c r="B116" t="n">
-        <v>0.1521375775337219</v>
+        <v>0.1552534103393555</v>
       </c>
       <c r="C116" t="n">
-        <v>10456.83463541667</v>
+        <v>1385.955444335938</v>
       </c>
       <c r="D116" t="n">
-        <v>0.1437627356499434</v>
+        <v>0.1034922848145167</v>
       </c>
       <c r="E116" t="n">
-        <v>10456.82625325521</v>
+        <v>1385.903676350911</v>
       </c>
     </row>
     <row r="117" spans="1:5">
@@ -2370,16 +2370,16 @@
         <v>116</v>
       </c>
       <c r="B117" t="n">
-        <v>0.1489532838265101</v>
+        <v>0.1154101404050986</v>
       </c>
       <c r="C117" t="n">
-        <v>10178.84830729167</v>
+        <v>1357.062052408854</v>
       </c>
       <c r="D117" t="n">
-        <v>0.1457714972396692</v>
+        <v>0.1740947750707467</v>
       </c>
       <c r="E117" t="n">
-        <v>10178.84488932292</v>
+        <v>1357.120747884115</v>
       </c>
     </row>
     <row r="118" spans="1:5">
@@ -2387,16 +2387,16 @@
         <v>117</v>
       </c>
       <c r="B118" t="n">
-        <v>0.1519157737493515</v>
+        <v>0.07331490082045396</v>
       </c>
       <c r="C118" t="n">
-        <v>9907.444661458334</v>
+        <v>1328.754638671875</v>
       </c>
       <c r="D118" t="n">
-        <v>0.1475030562529961</v>
+        <v>0.12553094762067</v>
       </c>
       <c r="E118" t="n">
-        <v>9907.4404296875</v>
+        <v>1328.806803385417</v>
       </c>
     </row>
     <row r="119" spans="1:5">
@@ -2404,16 +2404,16 @@
         <v>118</v>
       </c>
       <c r="B119" t="n">
-        <v>0.1528993497292201</v>
+        <v>0.1011728892723719</v>
       </c>
       <c r="C119" t="n">
-        <v>9642.478841145834</v>
+        <v>1301.093709309896</v>
       </c>
       <c r="D119" t="n">
-        <v>0.1488127006838719</v>
+        <v>0.1933967260022958</v>
       </c>
       <c r="E119" t="n">
-        <v>9642.475016276041</v>
+        <v>1301.18593343099</v>
       </c>
     </row>
     <row r="120" spans="1:5">
@@ -2421,16 +2421,16 @@
         <v>119</v>
       </c>
       <c r="B120" t="n">
-        <v>0.1563493112723033</v>
+        <v>0.09328163166840871</v>
       </c>
       <c r="C120" t="n">
-        <v>9383.820638020834</v>
+        <v>1273.962931315104</v>
       </c>
       <c r="D120" t="n">
-        <v>0.1496227215975523</v>
+        <v>0.1075247892489036</v>
       </c>
       <c r="E120" t="n">
-        <v>9383.813639322916</v>
+        <v>1273.977162679036</v>
       </c>
     </row>
     <row r="121" spans="1:5">
@@ -2438,16 +2438,16 @@
         <v>120</v>
       </c>
       <c r="B121" t="n">
-        <v>0.1576951742172241</v>
+        <v>0.2123034844795863</v>
       </c>
       <c r="C121" t="n">
-        <v>9131.328776041666</v>
+        <v>1247.513834635417</v>
       </c>
       <c r="D121" t="n">
-        <v>0.1510362681001425</v>
+        <v>0.150747386738658</v>
       </c>
       <c r="E121" t="n">
-        <v>9131.321940104166</v>
+        <v>1247.452260335286</v>
       </c>
     </row>
     <row r="122" spans="1:5">
@@ -2455,16 +2455,16 @@
         <v>121</v>
       </c>
       <c r="B122" t="n">
-        <v>0.1544217765331268</v>
+        <v>0.09958155204852422</v>
       </c>
       <c r="C122" t="n">
-        <v>8884.870442708334</v>
+        <v>1221.379679361979</v>
       </c>
       <c r="D122" t="n">
-        <v>0.1537774652242661</v>
+        <v>0.1511192151034872</v>
       </c>
       <c r="E122" t="n">
-        <v>8884.86962890625</v>
+        <v>1221.431274414062</v>
       </c>
     </row>
     <row r="123" spans="1:5">
@@ -2472,16 +2472,16 @@
         <v>122</v>
       </c>
       <c r="B123" t="n">
-        <v>0.1589510540167491</v>
+        <v>0.1247920021414757</v>
       </c>
       <c r="C123" t="n">
-        <v>8644.333984375</v>
+        <v>1195.91943359375</v>
       </c>
       <c r="D123" t="n">
-        <v>0.1554021382083496</v>
+        <v>0.1428903217116992</v>
       </c>
       <c r="E123" t="n">
-        <v>8644.330322265625</v>
+        <v>1195.937571207682</v>
       </c>
     </row>
     <row r="124" spans="1:5">
@@ -2489,16 +2489,16 @@
         <v>123</v>
       </c>
       <c r="B124" t="n">
-        <v>0.1585839837789536</v>
+        <v>0.08846596255898476</v>
       </c>
       <c r="C124" t="n">
-        <v>8409.575520833334</v>
+        <v>1170.922932942708</v>
       </c>
       <c r="D124" t="n">
-        <v>0.1573483180254698</v>
+        <v>0.1100733261555433</v>
       </c>
       <c r="E124" t="n">
-        <v>8409.574462890625</v>
+        <v>1170.944539388021</v>
       </c>
     </row>
     <row r="125" spans="1:5">
@@ -2506,16 +2506,16 @@
         <v>124</v>
       </c>
       <c r="B125" t="n">
-        <v>0.1643856018781662</v>
+        <v>0.1062950392564138</v>
       </c>
       <c r="C125" t="n">
-        <v>8180.487630208333</v>
+        <v>1146.492431640625</v>
       </c>
       <c r="D125" t="n">
-        <v>0.1579884092013041</v>
+        <v>0.09529246824483077</v>
       </c>
       <c r="E125" t="n">
-        <v>8180.481241861979</v>
+        <v>1146.48139444987</v>
       </c>
     </row>
     <row r="126" spans="1:5">
@@ -2523,16 +2523,16 @@
         <v>125</v>
       </c>
       <c r="B126" t="n">
-        <v>0.1643787125746409</v>
+        <v>0.09977373356620471</v>
       </c>
       <c r="C126" t="n">
-        <v>7956.932942708333</v>
+        <v>1122.544311523438</v>
       </c>
       <c r="D126" t="n">
-        <v>0.1600889104108016</v>
+        <v>0.1374504299213489</v>
       </c>
       <c r="E126" t="n">
-        <v>7956.928629557292</v>
+        <v>1122.582021077474</v>
       </c>
     </row>
     <row r="127" spans="1:5">
@@ -2540,16 +2540,16 @@
         <v>126</v>
       </c>
       <c r="B127" t="n">
-        <v>0.1629467755556107</v>
+        <v>0.1462878162662188</v>
       </c>
       <c r="C127" t="n">
-        <v>7738.79931640625</v>
+        <v>1099.144327799479</v>
       </c>
       <c r="D127" t="n">
-        <v>0.1621623629083236</v>
+        <v>0.2250662340472142</v>
       </c>
       <c r="E127" t="n">
-        <v>7738.798421223958</v>
+        <v>1099.223103841146</v>
       </c>
     </row>
     <row r="128" spans="1:5">
@@ -2557,16 +2557,16 @@
         <v>127</v>
       </c>
       <c r="B128" t="n">
-        <v>0.1655106047789256</v>
+        <v>0.143444187939167</v>
       </c>
       <c r="C128" t="n">
-        <v>7525.974446614583</v>
+        <v>1076.183024088542</v>
       </c>
       <c r="D128" t="n">
-        <v>0.1635578827311595</v>
+        <v>0.1222277395427227</v>
       </c>
       <c r="E128" t="n">
-        <v>7525.972615559896</v>
+        <v>1076.161783854167</v>
       </c>
     </row>
     <row r="129" spans="1:5">
@@ -2574,16 +2574,16 @@
         <v>128</v>
       </c>
       <c r="B129" t="n">
-        <v>0.1704394568999608</v>
+        <v>0.1414012163877487</v>
       </c>
       <c r="C129" t="n">
-        <v>7318.3447265625</v>
+        <v>1053.697672526042</v>
       </c>
       <c r="D129" t="n">
-        <v>0.1642741349836191</v>
+        <v>0.1755153778940439</v>
       </c>
       <c r="E129" t="n">
-        <v>7318.338541666667</v>
+        <v>1053.731791178385</v>
       </c>
     </row>
     <row r="130" spans="1:5">
@@ -2591,16 +2591,16 @@
         <v>129</v>
       </c>
       <c r="B130" t="n">
-        <v>0.1673156172037125</v>
+        <v>0.1164979164799054</v>
       </c>
       <c r="C130" t="n">
-        <v>7115.785481770833</v>
+        <v>1031.661295572917</v>
       </c>
       <c r="D130" t="n">
-        <v>0.1665409108002981</v>
+        <v>0.114547826970617</v>
       </c>
       <c r="E130" t="n">
-        <v>7115.784749348958</v>
+        <v>1031.659342447917</v>
       </c>
     </row>
     <row r="131" spans="1:5">
@@ -2608,16 +2608,16 @@
         <v>130</v>
       </c>
       <c r="B131" t="n">
-        <v>0.1716773808002472</v>
+        <v>0.09358199437459309</v>
       </c>
       <c r="C131" t="n">
-        <v>6918.205729166667</v>
+        <v>1010.08437093099</v>
       </c>
       <c r="D131" t="n">
-        <v>0.167624789600571</v>
+        <v>0.1133861225098372</v>
       </c>
       <c r="E131" t="n">
-        <v>6918.201822916667</v>
+        <v>1010.10417175293</v>
       </c>
     </row>
     <row r="132" spans="1:5">
@@ -2625,16 +2625,16 @@
         <v>131</v>
       </c>
       <c r="B132" t="n">
-        <v>0.1763081252574921</v>
+        <v>0.1076239769657453</v>
       </c>
       <c r="C132" t="n">
-        <v>6725.48828125</v>
+        <v>988.9929402669271</v>
       </c>
       <c r="D132" t="n">
-        <v>0.1685636254648367</v>
+        <v>0.09546022675931454</v>
       </c>
       <c r="E132" t="n">
-        <v>6725.480590820312</v>
+        <v>988.9807790120443</v>
       </c>
     </row>
     <row r="133" spans="1:5">
@@ -2642,16 +2642,16 @@
         <v>132</v>
       </c>
       <c r="B133" t="n">
-        <v>0.1752286603053411</v>
+        <v>0.1640094965696335</v>
       </c>
       <c r="C133" t="n">
-        <v>6537.5205078125</v>
+        <v>968.3840535481771</v>
       </c>
       <c r="D133" t="n">
-        <v>0.1702303271740675</v>
+        <v>0.1235191517819961</v>
       </c>
       <c r="E133" t="n">
-        <v>6537.515421549479</v>
+        <v>968.3435414632162</v>
       </c>
     </row>
     <row r="134" spans="1:5">
@@ -2659,16 +2659,16 @@
         <v>133</v>
       </c>
       <c r="B134" t="n">
-        <v>0.176613782842954</v>
+        <v>0.1950363864501317</v>
       </c>
       <c r="C134" t="n">
-        <v>6354.209309895833</v>
+        <v>948.1832478841146</v>
       </c>
       <c r="D134" t="n">
-        <v>0.1718251953522364</v>
+        <v>0.2555286188920339</v>
       </c>
       <c r="E134" t="n">
-        <v>6354.204630533854</v>
+        <v>948.2437438964844</v>
       </c>
     </row>
     <row r="135" spans="1:5">
@@ -2676,16 +2676,16 @@
         <v>134</v>
       </c>
       <c r="B135" t="n">
-        <v>0.1756561348835627</v>
+        <v>0.1411026592055956</v>
       </c>
       <c r="C135" t="n">
-        <v>6175.448567708333</v>
+        <v>928.3262736002604</v>
       </c>
       <c r="D135" t="n">
-        <v>0.173746711264054</v>
+        <v>0.1241238377988338</v>
       </c>
       <c r="E135" t="n">
-        <v>6175.446736653646</v>
+        <v>928.3092956542969</v>
       </c>
     </row>
     <row r="136" spans="1:5">
@@ -2693,16 +2693,16 @@
         <v>135</v>
       </c>
       <c r="B136" t="n">
-        <v>0.1800734202067057</v>
+        <v>0.08135632798075676</v>
       </c>
       <c r="C136" t="n">
-        <v>6001.14599609375</v>
+        <v>908.8770751953125</v>
       </c>
       <c r="D136" t="n">
-        <v>0.1747397761791945</v>
+        <v>0.1089915962268909</v>
       </c>
       <c r="E136" t="n">
-        <v>6001.140665690104</v>
+        <v>908.9047037760416</v>
       </c>
     </row>
     <row r="137" spans="1:5">
@@ -2710,16 +2710,16 @@
         <v>136</v>
       </c>
       <c r="B137" t="n">
-        <v>0.1779424945513407</v>
+        <v>0.2072759519020716</v>
       </c>
       <c r="C137" t="n">
-        <v>5831.190592447917</v>
+        <v>890.0200805664062</v>
       </c>
       <c r="D137" t="n">
-        <v>0.1766365468502045</v>
+        <v>0.1633345223963261</v>
       </c>
       <c r="E137" t="n">
-        <v>5831.189371744792</v>
+        <v>889.9761505126953</v>
       </c>
     </row>
     <row r="138" spans="1:5">
@@ -2727,16 +2727,16 @@
         <v>137</v>
       </c>
       <c r="B138" t="n">
-        <v>0.1823430111010869</v>
+        <v>0.1091802020867666</v>
       </c>
       <c r="C138" t="n">
-        <v>5665.503092447917</v>
+        <v>871.3414713541666</v>
       </c>
       <c r="D138" t="n">
-        <v>0.1779629625380039</v>
+        <v>0.1396063802142938</v>
       </c>
       <c r="E138" t="n">
-        <v>5665.498738606771</v>
+        <v>871.3719126383463</v>
       </c>
     </row>
     <row r="139" spans="1:5">
@@ -2744,16 +2744,16 @@
         <v>138</v>
       </c>
       <c r="B139" t="n">
-        <v>0.1844885448614756</v>
+        <v>0.1078822476168474</v>
       </c>
       <c r="C139" t="n">
-        <v>5503.978352864583</v>
+        <v>853.1514689127604</v>
       </c>
       <c r="D139" t="n">
-        <v>0.1789331808686256</v>
+        <v>0.1602817019447684</v>
       </c>
       <c r="E139" t="n">
-        <v>5503.972900390625</v>
+        <v>853.2038625081381</v>
       </c>
     </row>
     <row r="140" spans="1:5">
@@ -2761,16 +2761,16 @@
         <v>139</v>
       </c>
       <c r="B140" t="n">
-        <v>0.187229851881663</v>
+        <v>0.08494353294372559</v>
       </c>
       <c r="C140" t="n">
-        <v>5346.528971354167</v>
+        <v>835.3249308268229</v>
       </c>
       <c r="D140" t="n">
-        <v>0.1803227340181669</v>
+        <v>0.147409042964379</v>
       </c>
       <c r="E140" t="n">
-        <v>5346.522135416667</v>
+        <v>835.3874003092448</v>
       </c>
     </row>
     <row r="141" spans="1:5">
@@ -2778,16 +2778,16 @@
         <v>140</v>
       </c>
       <c r="B141" t="n">
-        <v>0.1846392949422201</v>
+        <v>0.1346478462219238</v>
       </c>
       <c r="C141" t="n">
-        <v>5193.056315104167</v>
+        <v>817.9486897786459</v>
       </c>
       <c r="D141" t="n">
-        <v>0.1825831731160482</v>
+        <v>0.1116686171541611</v>
       </c>
       <c r="E141" t="n">
-        <v>5193.054239908854</v>
+        <v>817.9256998697916</v>
       </c>
     </row>
     <row r="142" spans="1:5">
@@ -2795,16 +2795,16 @@
         <v>141</v>
       </c>
       <c r="B142" t="n">
-        <v>0.185639500617981</v>
+        <v>0.2376495550076167</v>
       </c>
       <c r="C142" t="n">
-        <v>5043.482421875</v>
+        <v>800.9952392578125</v>
       </c>
       <c r="D142" t="n">
-        <v>0.1842731609940529</v>
+        <v>0.166733726238211</v>
       </c>
       <c r="E142" t="n">
-        <v>5043.481119791667</v>
+        <v>800.9243113199869</v>
       </c>
     </row>
     <row r="143" spans="1:5">
@@ -2812,16 +2812,16 @@
         <v>142</v>
       </c>
       <c r="B143" t="n">
-        <v>0.1860125760237376</v>
+        <v>0.097893671443065</v>
       </c>
       <c r="C143" t="n">
-        <v>4897.71826171875</v>
+        <v>784.1616617838541</v>
       </c>
       <c r="D143" t="n">
-        <v>0.1857125212748846</v>
+        <v>0.1198331750929356</v>
       </c>
       <c r="E143" t="n">
-        <v>4897.717936197917</v>
+        <v>784.1836090087891</v>
       </c>
     </row>
     <row r="144" spans="1:5">
@@ -2829,16 +2829,16 @@
         <v>143</v>
       </c>
       <c r="B144" t="n">
-        <v>0.190859799583753</v>
+        <v>0.1409470587968826</v>
       </c>
       <c r="C144" t="n">
-        <v>4755.68359375</v>
+        <v>767.8665974934896</v>
       </c>
       <c r="D144" t="n">
-        <v>0.1865931854893764</v>
+        <v>0.1185699248065551</v>
       </c>
       <c r="E144" t="n">
-        <v>4755.679280598958</v>
+        <v>767.8442128499349</v>
       </c>
     </row>
     <row r="145" spans="1:5">
@@ -2846,16 +2846,16 @@
         <v>144</v>
       </c>
       <c r="B145" t="n">
-        <v>0.1924611330032349</v>
+        <v>0.1921062966187795</v>
       </c>
       <c r="C145" t="n">
-        <v>4617.28564453125</v>
+        <v>751.9273885091146</v>
       </c>
       <c r="D145" t="n">
-        <v>0.187893188248078</v>
+        <v>0.1281685642898083</v>
       </c>
       <c r="E145" t="n">
-        <v>4617.281127929688</v>
+        <v>751.8634592692057</v>
       </c>
     </row>
     <row r="146" spans="1:5">
@@ -2863,16 +2863,16 @@
         <v>145</v>
       </c>
       <c r="B146" t="n">
-        <v>0.1930997471014659</v>
+        <v>0.2213017543156942</v>
       </c>
       <c r="C146" t="n">
-        <v>4482.445475260417</v>
+        <v>736.3082682291666</v>
       </c>
       <c r="D146" t="n">
-        <v>0.1891041441510121</v>
+        <v>0.1651532848676046</v>
       </c>
       <c r="E146" t="n">
-        <v>4482.441650390625</v>
+        <v>736.2521260579427</v>
       </c>
     </row>
     <row r="147" spans="1:5">
@@ -2880,16 +2880,16 @@
         <v>146</v>
       </c>
       <c r="B147" t="n">
-        <v>0.1930390596389771</v>
+        <v>0.1295203976333141</v>
       </c>
       <c r="C147" t="n">
-        <v>4351.084147135417</v>
+        <v>720.9041341145834</v>
       </c>
       <c r="D147" t="n">
-        <v>0.190773277853926</v>
+        <v>0.2079464644193649</v>
       </c>
       <c r="E147" t="n">
-        <v>4351.081909179688</v>
+        <v>720.9825439453125</v>
       </c>
     </row>
     <row r="148" spans="1:5">
@@ -2897,16 +2897,16 @@
         <v>147</v>
       </c>
       <c r="B148" t="n">
-        <v>0.1950176209211349</v>
+        <v>0.1948297669490179</v>
       </c>
       <c r="C148" t="n">
-        <v>4223.125651041667</v>
+        <v>705.9856160481771</v>
       </c>
       <c r="D148" t="n">
-        <v>0.1921851634979248</v>
+        <v>0.1388057364771763</v>
       </c>
       <c r="E148" t="n">
-        <v>4223.122884114583</v>
+        <v>705.9295756022135</v>
       </c>
     </row>
     <row r="149" spans="1:5">
@@ -2914,16 +2914,16 @@
         <v>148</v>
       </c>
       <c r="B149" t="n">
-        <v>0.1943029562632243</v>
+        <v>0.1173925374945005</v>
       </c>
       <c r="C149" t="n">
-        <v>4098.48876953125</v>
+        <v>691.2456258138021</v>
       </c>
       <c r="D149" t="n">
-        <v>0.1935881289343039</v>
+        <v>0.1426987803230683</v>
       </c>
       <c r="E149" t="n">
-        <v>4098.487996419271</v>
+        <v>691.2709401448568</v>
       </c>
     </row>
     <row r="150" spans="1:5">
@@ -2931,16 +2931,16 @@
         <v>149</v>
       </c>
       <c r="B150" t="n">
-        <v>0.1976391325394312</v>
+        <v>0.1177482704321543</v>
       </c>
       <c r="C150" t="n">
-        <v>3977.104654947917</v>
+        <v>676.8991088867188</v>
       </c>
       <c r="D150" t="n">
-        <v>0.1945782011995713</v>
+        <v>0.2454929587741693</v>
       </c>
       <c r="E150" t="n">
-        <v>3977.1015625</v>
+        <v>677.0268605550131</v>
       </c>
     </row>
     <row r="151" spans="1:5">
@@ -2948,16 +2948,16 @@
         <v>150</v>
       </c>
       <c r="B151" t="n">
-        <v>0.1969402035077413</v>
+        <v>0.1291107597450415</v>
       </c>
       <c r="C151" t="n">
-        <v>3858.890625</v>
+        <v>662.8738810221354</v>
       </c>
       <c r="D151" t="n">
-        <v>0.1961217547456423</v>
+        <v>0.2228136273721854</v>
       </c>
       <c r="E151" t="n">
-        <v>3858.889729817708</v>
+        <v>662.9675598144531</v>
       </c>
     </row>
     <row r="152" spans="1:5">
@@ -2965,16 +2965,16 @@
         <v>151</v>
       </c>
       <c r="B152" t="n">
-        <v>0.1971945812304815</v>
+        <v>0.124126876393954</v>
       </c>
       <c r="C152" t="n">
-        <v>3743.780436197917</v>
+        <v>649.1358032226562</v>
       </c>
       <c r="D152" t="n">
-        <v>0.1980230615784725</v>
+        <v>0.1316839711119731</v>
       </c>
       <c r="E152" t="n">
-        <v>3743.781290690104</v>
+        <v>649.1433410644531</v>
       </c>
     </row>
     <row r="153" spans="1:5">
@@ -2982,16 +2982,16 @@
         <v>152</v>
       </c>
       <c r="B153" t="n">
-        <v>0.2005116740862528</v>
+        <v>0.1380082964897156</v>
       </c>
       <c r="C153" t="n">
-        <v>3631.705647786458</v>
+        <v>635.7108764648438</v>
       </c>
       <c r="D153" t="n">
-        <v>0.1987618332107862</v>
+        <v>0.1433047633618116</v>
       </c>
       <c r="E153" t="n">
-        <v>3631.703877766927</v>
+        <v>635.7161763509115</v>
       </c>
     </row>
     <row r="154" spans="1:5">
@@ -2999,16 +2999,16 @@
         <v>153</v>
       </c>
       <c r="B154" t="n">
-        <v>0.1998992462952932</v>
+        <v>0.1695469270149867</v>
       </c>
       <c r="C154" t="n">
-        <v>3522.587565104167</v>
+        <v>622.5931803385416</v>
       </c>
       <c r="D154" t="n">
-        <v>0.2005015773077806</v>
+        <v>0.1477087338765462</v>
       </c>
       <c r="E154" t="n">
-        <v>3522.588195800781</v>
+        <v>622.5713399251302</v>
       </c>
     </row>
     <row r="155" spans="1:5">
@@ -3016,16 +3016,16 @@
         <v>154</v>
       </c>
       <c r="B155" t="n">
-        <v>0.1988742649555206</v>
+        <v>0.1050861515104771</v>
       </c>
       <c r="C155" t="n">
-        <v>3416.363688151042</v>
+        <v>609.6656901041666</v>
       </c>
       <c r="D155" t="n">
-        <v>0.2023091310014327</v>
+        <v>0.1423649843782187</v>
       </c>
       <c r="E155" t="n">
-        <v>3416.367065429688</v>
+        <v>609.7029825846354</v>
       </c>
     </row>
     <row r="156" spans="1:5">
@@ -3033,16 +3033,16 @@
         <v>155</v>
       </c>
       <c r="B156" t="n">
-        <v>0.2015338987112045</v>
+        <v>0.1464394852519035</v>
       </c>
       <c r="C156" t="n">
-        <v>3312.970540364583</v>
+        <v>597.1232503255209</v>
       </c>
       <c r="D156" t="n">
-        <v>0.2031391033281883</v>
+        <v>0.2184017300605774</v>
       </c>
       <c r="E156" t="n">
-        <v>3312.972208658854</v>
+        <v>597.1952107747396</v>
       </c>
     </row>
     <row r="157" spans="1:5">
@@ -3050,16 +3050,16 @@
         <v>156</v>
       </c>
       <c r="B157" t="n">
-        <v>0.2046564916769663</v>
+        <v>0.1638239746292432</v>
       </c>
       <c r="C157" t="n">
-        <v>3212.340657552083</v>
+        <v>584.8322347005209</v>
       </c>
       <c r="D157" t="n">
-        <v>0.2040694355964661</v>
+        <v>0.2409068035582701</v>
       </c>
       <c r="E157" t="n">
-        <v>3212.340047200521</v>
+        <v>584.9093017578125</v>
       </c>
     </row>
     <row r="158" spans="1:5">
@@ -3067,16 +3067,16 @@
         <v>157</v>
       </c>
       <c r="B158" t="n">
-        <v>0.2044892609119415</v>
+        <v>0.1470626269777616</v>
       </c>
       <c r="C158" t="n">
-        <v>3114.403238932292</v>
+        <v>572.7762044270834</v>
       </c>
       <c r="D158" t="n">
-        <v>0.2055633546163639</v>
+        <v>0.1351458219190439</v>
       </c>
       <c r="E158" t="n">
-        <v>3114.404276529948</v>
+        <v>572.7642974853516</v>
       </c>
     </row>
     <row r="159" spans="1:5">
@@ -3084,16 +3084,16 @@
         <v>158</v>
       </c>
       <c r="B159" t="n">
-        <v>0.2051149109999339</v>
+        <v>0.1997836182514826</v>
       </c>
       <c r="C159" t="n">
-        <v>3019.1025390625</v>
+        <v>561.0504964192709</v>
       </c>
       <c r="D159" t="n">
-        <v>0.2068819291889668</v>
+        <v>0.1414510974039634</v>
       </c>
       <c r="E159" t="n">
-        <v>3019.104288736979</v>
+        <v>560.9921569824219</v>
       </c>
     </row>
     <row r="160" spans="1:5">
@@ -3101,16 +3101,16 @@
         <v>159</v>
       </c>
       <c r="B160" t="n">
-        <v>0.2058286716540655</v>
+        <v>0.2295461098353068</v>
       </c>
       <c r="C160" t="n">
-        <v>2926.37451171875</v>
+        <v>549.5578409830729</v>
       </c>
       <c r="D160" t="n">
-        <v>0.2081058459977309</v>
+        <v>0.1580467304835717</v>
       </c>
       <c r="E160" t="n">
-        <v>2926.376810709635</v>
+        <v>549.4863586425781</v>
       </c>
     </row>
     <row r="161" spans="1:5">
@@ -3118,16 +3118,16 @@
         <v>160</v>
       </c>
       <c r="B161" t="n">
-        <v>0.2050236960252126</v>
+        <v>0.2267067929108938</v>
       </c>
       <c r="C161" t="n">
-        <v>2836.157877604167</v>
+        <v>538.2854817708334</v>
       </c>
       <c r="D161" t="n">
-        <v>0.2096536594132582</v>
+        <v>0.1582127871612708</v>
       </c>
       <c r="E161" t="n">
-        <v>2836.162556966146</v>
+        <v>538.2169850667318</v>
       </c>
     </row>
     <row r="162" spans="1:5">
@@ -3135,16 +3135,16 @@
         <v>161</v>
       </c>
       <c r="B162" t="n">
-        <v>0.2069268623987834</v>
+        <v>0.1272784645358721</v>
       </c>
       <c r="C162" t="n">
-        <v>2748.398844401042</v>
+        <v>527.1631876627604</v>
       </c>
       <c r="D162" t="n">
-        <v>0.2107241433113813</v>
+        <v>0.11340883312126</v>
       </c>
       <c r="E162" t="n">
-        <v>2748.402608235677</v>
+        <v>527.1492970784506</v>
       </c>
     </row>
     <row r="163" spans="1:5">
@@ -3152,16 +3152,16 @@
         <v>162</v>
       </c>
       <c r="B163" t="n">
-        <v>0.2076463749011358</v>
+        <v>0.1214418709278107</v>
       </c>
       <c r="C163" t="n">
-        <v>2663.033121744792</v>
+        <v>516.3763834635416</v>
       </c>
       <c r="D163" t="n">
-        <v>0.2119788825511932</v>
+        <v>0.1042484690745672</v>
       </c>
       <c r="E163" t="n">
-        <v>2663.037394205729</v>
+        <v>516.3591918945312</v>
       </c>
     </row>
     <row r="164" spans="1:5">
@@ -3169,16 +3169,16 @@
         <v>163</v>
       </c>
       <c r="B164" t="n">
-        <v>0.2080906877915064</v>
+        <v>0.1044423182805379</v>
       </c>
       <c r="C164" t="n">
-        <v>2580.007161458333</v>
+        <v>505.8147379557292</v>
       </c>
       <c r="D164" t="n">
-        <v>0.2130865858246883</v>
+        <v>0.1208579111844301</v>
       </c>
       <c r="E164" t="n">
-        <v>2580.012166341146</v>
+        <v>505.8311589558919</v>
       </c>
     </row>
     <row r="165" spans="1:5">
@@ -3186,16 +3186,16 @@
         <v>164</v>
       </c>
       <c r="B165" t="n">
-        <v>0.2089866201082865</v>
+        <v>0.1225860963265101</v>
       </c>
       <c r="C165" t="n">
-        <v>2499.265380859375</v>
+        <v>495.5196431477864</v>
       </c>
       <c r="D165" t="n">
-        <v>0.2140077464282513</v>
+        <v>0.1466673625012239</v>
       </c>
       <c r="E165" t="n">
-        <v>2499.27040608724</v>
+        <v>495.5437367757161</v>
       </c>
     </row>
     <row r="166" spans="1:5">
@@ -3203,16 +3203,16 @@
         <v>165</v>
       </c>
       <c r="B166" t="n">
-        <v>0.2095659871896108</v>
+        <v>0.2619517644246419</v>
       </c>
       <c r="C166" t="n">
-        <v>2420.751790364583</v>
+        <v>485.5742085774739</v>
       </c>
       <c r="D166" t="n">
-        <v>0.215221032500267</v>
+        <v>0.196455688526233</v>
       </c>
       <c r="E166" t="n">
-        <v>2420.757486979167</v>
+        <v>485.5087102254232</v>
       </c>
     </row>
     <row r="167" spans="1:5">
@@ -3220,16 +3220,16 @@
         <v>166</v>
       </c>
       <c r="B167" t="n">
-        <v>0.2124285896619161</v>
+        <v>0.1357788306971391</v>
       </c>
       <c r="C167" t="n">
-        <v>2344.417317708333</v>
+        <v>475.5854187011719</v>
       </c>
       <c r="D167" t="n">
-        <v>0.2159313385685285</v>
+        <v>0.2586430410544078</v>
       </c>
       <c r="E167" t="n">
-        <v>2344.420776367188</v>
+        <v>475.7082875569661</v>
       </c>
     </row>
     <row r="168" spans="1:5">
@@ -3237,16 +3237,16 @@
         <v>167</v>
       </c>
       <c r="B168" t="n">
-        <v>0.2126855701208115</v>
+        <v>0.1982585986455282</v>
       </c>
       <c r="C168" t="n">
-        <v>2270.202880859375</v>
+        <v>466.0055643717448</v>
       </c>
       <c r="D168" t="n">
-        <v>0.2170015914986531</v>
+        <v>0.1529409270733595</v>
       </c>
       <c r="E168" t="n">
-        <v>2270.207234700521</v>
+        <v>465.9602559407552</v>
       </c>
     </row>
     <row r="169" spans="1:5">
@@ -3254,16 +3254,16 @@
         <v>168</v>
       </c>
       <c r="B169" t="n">
-        <v>0.2106078962484995</v>
+        <v>0.1375094677011172</v>
       </c>
       <c r="C169" t="n">
-        <v>2198.058268229167</v>
+        <v>456.5146179199219</v>
       </c>
       <c r="D169" t="n">
-        <v>0.2188715686400731</v>
+        <v>0.147635060052077</v>
       </c>
       <c r="E169" t="n">
-        <v>2198.066569010417</v>
+        <v>456.5247421264648</v>
       </c>
     </row>
     <row r="170" spans="1:5">
@@ -3271,16 +3271,16 @@
         <v>169</v>
       </c>
       <c r="B170" t="n">
-        <v>0.2104534904162089</v>
+        <v>0.1645323683818181</v>
       </c>
       <c r="C170" t="n">
-        <v>2127.938069661458</v>
+        <v>447.3202311197917</v>
       </c>
       <c r="D170" t="n">
-        <v>0.2201797838012377</v>
+        <v>0.1428632326424122</v>
       </c>
       <c r="E170" t="n">
-        <v>2127.947733561198</v>
+        <v>447.2985636393229</v>
       </c>
     </row>
     <row r="171" spans="1:5">
@@ -3288,16 +3288,16 @@
         <v>170</v>
       </c>
       <c r="B171" t="n">
-        <v>0.2121688673893611</v>
+        <v>0.1423819065093994</v>
       </c>
       <c r="C171" t="n">
-        <v>2059.793701171875</v>
+        <v>438.2819010416667</v>
       </c>
       <c r="D171" t="n">
-        <v>0.2210341542959213</v>
+        <v>0.1225211943189303</v>
       </c>
       <c r="E171" t="n">
-        <v>2059.802551269531</v>
+        <v>438.2620468139648</v>
       </c>
     </row>
     <row r="172" spans="1:5">
@@ -3305,16 +3305,16 @@
         <v>171</v>
       </c>
       <c r="B172" t="n">
-        <v>0.2114276389280955</v>
+        <v>0.2028468201557795</v>
       </c>
       <c r="C172" t="n">
-        <v>1993.571533203125</v>
+        <v>429.5250244140625</v>
       </c>
       <c r="D172" t="n">
-        <v>0.2225126673777898</v>
+        <v>0.148146815598011</v>
       </c>
       <c r="E172" t="n">
-        <v>1993.58262125651</v>
+        <v>429.4703216552734</v>
       </c>
     </row>
     <row r="173" spans="1:5">
@@ -3322,16 +3322,16 @@
         <v>172</v>
       </c>
       <c r="B173" t="n">
-        <v>0.2138625135024389</v>
+        <v>0.2446738382180532</v>
       </c>
       <c r="C173" t="n">
-        <v>1929.2314453125</v>
+        <v>420.9453837076823</v>
       </c>
       <c r="D173" t="n">
-        <v>0.223072590927283</v>
+        <v>0.1972519867122173</v>
       </c>
       <c r="E173" t="n">
-        <v>1929.240641276042</v>
+        <v>420.8979644775391</v>
       </c>
     </row>
     <row r="174" spans="1:5">
@@ -3339,16 +3339,16 @@
         <v>173</v>
       </c>
       <c r="B174" t="n">
-        <v>0.2124912540117899</v>
+        <v>0.2363531887531281</v>
       </c>
       <c r="C174" t="n">
-        <v>1866.718709309896</v>
+        <v>412.5083923339844</v>
       </c>
       <c r="D174" t="n">
-        <v>0.2244527054329713</v>
+        <v>0.1818577845891317</v>
       </c>
       <c r="E174" t="n">
-        <v>1866.730672200521</v>
+        <v>412.4538904825847</v>
       </c>
     </row>
     <row r="175" spans="1:5">
@@ -3356,16 +3356,16 @@
         <v>174</v>
       </c>
       <c r="B175" t="n">
-        <v>0.2123446812232336</v>
+        <v>0.1933125406503677</v>
       </c>
       <c r="C175" t="n">
-        <v>1805.994710286458</v>
+        <v>404.2254435221354</v>
       </c>
       <c r="D175" t="n">
-        <v>0.2257279511541128</v>
+        <v>0.1506547840933005</v>
       </c>
       <c r="E175" t="n">
-        <v>1806.008076985677</v>
+        <v>404.1827901204427</v>
       </c>
     </row>
     <row r="176" spans="1:5">
@@ -3373,16 +3373,16 @@
         <v>175</v>
       </c>
       <c r="B176" t="n">
-        <v>0.2141334662834803</v>
+        <v>0.1703707973162333</v>
       </c>
       <c r="C176" t="n">
-        <v>1747.016235351562</v>
+        <v>396.1467488606771</v>
       </c>
       <c r="D176" t="n">
-        <v>0.2261203446735938</v>
+        <v>0.125607056543231</v>
       </c>
       <c r="E176" t="n">
-        <v>1747.028249104818</v>
+        <v>396.1019872029622</v>
       </c>
     </row>
     <row r="177" spans="1:5">
@@ -3390,16 +3390,16 @@
         <v>176</v>
       </c>
       <c r="B177" t="n">
-        <v>0.2163755297660828</v>
+        <v>0.1154386922717094</v>
       </c>
       <c r="C177" t="n">
-        <v>1689.737711588542</v>
+        <v>388.2171020507812</v>
       </c>
       <c r="D177" t="n">
-        <v>0.2262471119562785</v>
+        <v>0.1618059308578571</v>
       </c>
       <c r="E177" t="n">
-        <v>1689.74760945638</v>
+        <v>388.2634607950847</v>
       </c>
     </row>
     <row r="178" spans="1:5">
@@ -3407,16 +3407,16 @@
         <v>177</v>
       </c>
       <c r="B178" t="n">
-        <v>0.2178037861982981</v>
+        <v>0.1223773062229156</v>
       </c>
       <c r="C178" t="n">
-        <v>1634.115519205729</v>
+        <v>380.5252990722656</v>
       </c>
       <c r="D178" t="n">
-        <v>0.2267177924513817</v>
+        <v>0.1882166806608438</v>
       </c>
       <c r="E178" t="n">
-        <v>1634.124420166016</v>
+        <v>380.5911382039388</v>
       </c>
     </row>
     <row r="179" spans="1:5">
@@ -3424,16 +3424,16 @@
         <v>178</v>
       </c>
       <c r="B179" t="n">
-        <v>0.2178664902846018</v>
+        <v>0.1968152423699697</v>
       </c>
       <c r="C179" t="n">
-        <v>1580.107421875</v>
+        <v>373.0742899576823</v>
       </c>
       <c r="D179" t="n">
-        <v>0.2275336428234974</v>
+        <v>0.1447083844492833</v>
       </c>
       <c r="E179" t="n">
-        <v>1580.117065429688</v>
+        <v>373.0221811930339</v>
       </c>
     </row>
     <row r="180" spans="1:5">
@@ -3441,16 +3441,16 @@
         <v>179</v>
       </c>
       <c r="B180" t="n">
-        <v>0.2160096764564514</v>
+        <v>0.1059421729296446</v>
       </c>
       <c r="C180" t="n">
-        <v>1527.672281901042</v>
+        <v>365.6250712076823</v>
       </c>
       <c r="D180" t="n">
-        <v>0.229001480465134</v>
+        <v>0.2191661261022091</v>
       </c>
       <c r="E180" t="n">
-        <v>1527.685292561849</v>
+        <v>365.7383041381836</v>
       </c>
     </row>
     <row r="181" spans="1:5">
@@ -3458,16 +3458,16 @@
         <v>180</v>
       </c>
       <c r="B181" t="n">
-        <v>0.2176868865887324</v>
+        <v>0.2148657441139221</v>
       </c>
       <c r="C181" t="n">
-        <v>1476.777140299479</v>
+        <v>358.5416158040364</v>
       </c>
       <c r="D181" t="n">
-        <v>0.2294758440305789</v>
+        <v>0.1580400069554647</v>
       </c>
       <c r="E181" t="n">
-        <v>1476.788940429688</v>
+        <v>358.4847895304362</v>
       </c>
     </row>
     <row r="182" spans="1:5">
@@ -3475,16 +3475,16 @@
         <v>181</v>
       </c>
       <c r="B182" t="n">
-        <v>0.2186828951040904</v>
+        <v>0.2019276569286982</v>
       </c>
       <c r="C182" t="n">
-        <v>1427.377888997396</v>
+        <v>351.4987487792969</v>
       </c>
       <c r="D182" t="n">
-        <v>0.2298602430770794</v>
+        <v>0.1459947886566321</v>
       </c>
       <c r="E182" t="n">
-        <v>1427.389038085938</v>
+        <v>351.4428075154622</v>
       </c>
     </row>
     <row r="183" spans="1:5">
@@ -3492,16 +3492,16 @@
         <v>182</v>
       </c>
       <c r="B183" t="n">
-        <v>0.2201604396104813</v>
+        <v>0.2744964311520259</v>
       </c>
       <c r="C183" t="n">
-        <v>1379.438069661458</v>
+        <v>344.6979675292969</v>
       </c>
       <c r="D183" t="n">
-        <v>0.2302645885696014</v>
+        <v>0.1983912227054437</v>
       </c>
       <c r="E183" t="n">
-        <v>1379.448160807292</v>
+        <v>344.6218566894531</v>
       </c>
     </row>
     <row r="184" spans="1:5">
@@ -3509,16 +3509,16 @@
         <v>183</v>
       </c>
       <c r="B184" t="n">
-        <v>0.2202267746130625</v>
+        <v>0.1185656065742175</v>
       </c>
       <c r="C184" t="n">
-        <v>1332.918253580729</v>
+        <v>337.8245239257812</v>
       </c>
       <c r="D184" t="n">
-        <v>0.2307650689035654</v>
+        <v>0.1687195785343647</v>
       </c>
       <c r="E184" t="n">
-        <v>1332.92876180013</v>
+        <v>337.8746795654297</v>
       </c>
     </row>
     <row r="185" spans="1:5">
@@ -3526,16 +3526,16 @@
         <v>184</v>
       </c>
       <c r="B185" t="n">
-        <v>0.2194629510243734</v>
+        <v>0.09603148822983106</v>
       </c>
       <c r="C185" t="n">
-        <v>1287.782185872396</v>
+        <v>331.2364095052083</v>
       </c>
       <c r="D185" t="n">
-        <v>0.2319196307410797</v>
+        <v>0.16940605143706</v>
       </c>
       <c r="E185" t="n">
-        <v>1287.794647216797</v>
+        <v>331.3097839355469</v>
       </c>
     </row>
     <row r="186" spans="1:5">
@@ -3543,16 +3543,16 @@
         <v>185</v>
       </c>
       <c r="B186" t="n">
-        <v>0.2180378586053848</v>
+        <v>0.1452045490344366</v>
       </c>
       <c r="C186" t="n">
-        <v>1243.994913736979</v>
+        <v>324.8672790527344</v>
       </c>
       <c r="D186" t="n">
-        <v>0.2330525803069274</v>
+        <v>0.1397025200227896</v>
       </c>
       <c r="E186" t="n">
-        <v>1244.009918212891</v>
+        <v>324.8617808024089</v>
       </c>
     </row>
     <row r="187" spans="1:5">
@@ -3560,16 +3560,16 @@
         <v>186</v>
       </c>
       <c r="B187" t="n">
-        <v>0.2191872994105021</v>
+        <v>0.1431012004613876</v>
       </c>
       <c r="C187" t="n">
-        <v>1201.525716145833</v>
+        <v>318.5907389322917</v>
       </c>
       <c r="D187" t="n">
-        <v>0.2336617497106393</v>
+        <v>0.1173455951114496</v>
       </c>
       <c r="E187" t="n">
-        <v>1201.540181477865</v>
+        <v>318.5649719238281</v>
       </c>
     </row>
     <row r="188" spans="1:5">
@@ -3577,16 +3577,16 @@
         <v>187</v>
       </c>
       <c r="B188" t="n">
-        <v>0.2188868174950282</v>
+        <v>0.1419143229722977</v>
       </c>
       <c r="C188" t="n">
-        <v>1160.335815429688</v>
+        <v>312.4563903808594</v>
       </c>
       <c r="D188" t="n">
-        <v>0.2343274013449748</v>
+        <v>0.1221883141746124</v>
       </c>
       <c r="E188" t="n">
-        <v>1160.351287841797</v>
+        <v>312.4366734822591</v>
       </c>
     </row>
     <row r="189" spans="1:5">
@@ -3594,16 +3594,16 @@
         <v>188</v>
       </c>
       <c r="B189" t="n">
-        <v>0.2196952005227407</v>
+        <v>0.1868934035301208</v>
       </c>
       <c r="C189" t="n">
-        <v>1120.394246419271</v>
+        <v>306.5068359375</v>
       </c>
       <c r="D189" t="n">
-        <v>0.2347100259115299</v>
+        <v>0.1357646671434244</v>
       </c>
       <c r="E189" t="n">
-        <v>1120.409261067708</v>
+        <v>306.4557164510091</v>
       </c>
     </row>
     <row r="190" spans="1:5">
@@ -3611,16 +3611,16 @@
         <v>189</v>
       </c>
       <c r="B190" t="n">
-        <v>0.219250683983167</v>
+        <v>0.2010176628828049</v>
       </c>
       <c r="C190" t="n">
-        <v>1081.665812174479</v>
+        <v>300.6619262695312</v>
       </c>
       <c r="D190" t="n">
-        <v>0.2353735727568468</v>
+        <v>0.1459707791606585</v>
       </c>
       <c r="E190" t="n">
-        <v>1081.681905110677</v>
+        <v>300.6068776448568</v>
       </c>
     </row>
     <row r="191" spans="1:5">
@@ -3628,16 +3628,16 @@
         <v>190</v>
       </c>
       <c r="B191" t="n">
-        <v>0.2191826204458872</v>
+        <v>0.1135611310601234</v>
       </c>
       <c r="C191" t="n">
-        <v>1044.120564778646</v>
+        <v>294.8477274576823</v>
       </c>
       <c r="D191" t="n">
-        <v>0.236194663370649</v>
+        <v>0.2326754182577133</v>
       </c>
       <c r="E191" t="n">
-        <v>1044.137563069661</v>
+        <v>294.9668350219727</v>
       </c>
     </row>
     <row r="192" spans="1:5">
@@ -3645,16 +3645,16 @@
         <v>191</v>
       </c>
       <c r="B192" t="n">
-        <v>0.219868873556455</v>
+        <v>0.2630264808734258</v>
       </c>
       <c r="C192" t="n">
-        <v>1007.728169759115</v>
+        <v>289.4017944335938</v>
       </c>
       <c r="D192" t="n">
-        <v>0.2364652479688326</v>
+        <v>0.1879986549417178</v>
       </c>
       <c r="E192" t="n">
-        <v>1007.744766235352</v>
+        <v>289.3267669677734</v>
       </c>
     </row>
     <row r="193" spans="1:5">
@@ -3662,16 +3662,16 @@
         <v>192</v>
       </c>
       <c r="B193" t="n">
-        <v>0.2198533664147059</v>
+        <v>0.1525853549440702</v>
       </c>
       <c r="C193" t="n">
-        <v>972.4559326171875</v>
+        <v>283.8207092285156</v>
       </c>
       <c r="D193" t="n">
-        <v>0.2371412894378106</v>
+        <v>0.1413033710171779</v>
       </c>
       <c r="E193" t="n">
-        <v>972.4732259114584</v>
+        <v>283.8094253540039</v>
       </c>
     </row>
     <row r="194" spans="1:5">
@@ -3679,16 +3679,16 @@
         <v>193</v>
       </c>
       <c r="B194" t="n">
-        <v>0.2208665361007055</v>
+        <v>0.200885275999705</v>
       </c>
       <c r="C194" t="n">
-        <v>938.2764078776041</v>
+        <v>278.5226643880208</v>
       </c>
       <c r="D194" t="n">
-        <v>0.237363334124287</v>
+        <v>0.1479889464875062</v>
       </c>
       <c r="E194" t="n">
-        <v>938.2929128011068</v>
+        <v>278.4697647094727</v>
       </c>
     </row>
     <row r="195" spans="1:5">
@@ -3696,16 +3696,16 @@
         <v>194</v>
       </c>
       <c r="B195" t="n">
-        <v>0.2216100047032038</v>
+        <v>0.116619136184454</v>
       </c>
       <c r="C195" t="n">
-        <v>905.158935546875</v>
+        <v>273.2128092447917</v>
       </c>
       <c r="D195" t="n">
-        <v>0.2375449072569609</v>
+        <v>0.1855854506914814</v>
       </c>
       <c r="E195" t="n">
-        <v>905.1748606363932</v>
+        <v>273.2817713419597</v>
       </c>
     </row>
     <row r="196" spans="1:5">
@@ -3713,16 +3713,16 @@
         <v>195</v>
       </c>
       <c r="B196" t="n">
-        <v>0.2241608500480652</v>
+        <v>0.1028050345679124</v>
       </c>
       <c r="C196" t="n">
-        <v>873.0776774088541</v>
+        <v>268.0934651692708</v>
       </c>
       <c r="D196" t="n">
-        <v>0.2368856134514014</v>
+        <v>0.1367310062050819</v>
       </c>
       <c r="E196" t="n">
-        <v>873.0904083251953</v>
+        <v>268.1273905436198</v>
       </c>
     </row>
     <row r="197" spans="1:5">
@@ -3730,16 +3730,16 @@
         <v>196</v>
       </c>
       <c r="B197" t="n">
-        <v>0.2242067605257034</v>
+        <v>0.1097441036254168</v>
       </c>
       <c r="C197" t="n">
-        <v>841.9990437825521</v>
+        <v>263.1099344889323</v>
       </c>
       <c r="D197" t="n">
-        <v>0.2371569853276014</v>
+        <v>0.2196867776413759</v>
       </c>
       <c r="E197" t="n">
-        <v>842.0120086669922</v>
+        <v>263.2198715209961</v>
       </c>
     </row>
     <row r="198" spans="1:5">
@@ -3747,16 +3747,16 @@
         <v>197</v>
       </c>
       <c r="B198" t="n">
-        <v>0.2241917153199514</v>
+        <v>0.1632125154137611</v>
       </c>
       <c r="C198" t="n">
-        <v>811.8990071614584</v>
+        <v>258.2880350748698</v>
       </c>
       <c r="D198" t="n">
-        <v>0.2372066782166561</v>
+        <v>0.2658450255791346</v>
       </c>
       <c r="E198" t="n">
-        <v>811.9120178222656</v>
+        <v>258.3906606038411</v>
       </c>
     </row>
     <row r="199" spans="1:5">
@@ -3764,16 +3764,16 @@
         <v>198</v>
       </c>
       <c r="B199" t="n">
-        <v>0.2220000674327215</v>
+        <v>0.194404790798823</v>
       </c>
       <c r="C199" t="n">
-        <v>782.7480061848959</v>
+        <v>253.5582682291667</v>
       </c>
       <c r="D199" t="n">
-        <v>0.2385060253242652</v>
+        <v>0.1447330651183923</v>
       </c>
       <c r="E199" t="n">
-        <v>782.7644958496094</v>
+        <v>253.5085957845052</v>
       </c>
     </row>
     <row r="200" spans="1:5">
@@ -3781,16 +3781,16 @@
         <v>199</v>
       </c>
       <c r="B200" t="n">
-        <v>0.2211872041225433</v>
+        <v>0.1720488617817561</v>
       </c>
       <c r="C200" t="n">
-        <v>754.524658203125</v>
+        <v>248.8818918863932</v>
       </c>
       <c r="D200" t="n">
-        <v>0.2392867648353179</v>
+        <v>0.1394949797540903</v>
       </c>
       <c r="E200" t="n">
-        <v>754.5427500406901</v>
+        <v>248.8493321736654</v>
       </c>
     </row>
     <row r="201" spans="1:5">
@@ -3798,16 +3798,16 @@
         <v>200</v>
       </c>
       <c r="B201" t="n">
-        <v>0.2226347674926122</v>
+        <v>0.1256602431337039</v>
       </c>
       <c r="C201" t="n">
-        <v>727.2053019205729</v>
+        <v>244.285146077474</v>
       </c>
       <c r="D201" t="n">
-        <v>0.238988034427166</v>
+        <v>0.1441346717377504</v>
       </c>
       <c r="E201" t="n">
-        <v>727.2216542561849</v>
+        <v>244.3036181131999</v>
       </c>
     </row>
   </sheetData>
@@ -3842,7 +3842,7 @@
         <v>0.9914879310344824</v>
       </c>
       <c r="B2" t="n">
-        <v>0.7213302254676819</v>
+        <v>0.6643658876419067</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -3850,7 +3850,7 @@
         <v>0.9935954022988503</v>
       </c>
       <c r="B3" t="n">
-        <v>0.7063784599304199</v>
+        <v>0.8966293334960938</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -3858,7 +3858,7 @@
         <v>0.9953804597701148</v>
       </c>
       <c r="B4" t="n">
-        <v>0.6465245485305786</v>
+        <v>0.62093186378479</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -3866,7 +3866,7 @@
         <v>0.9960258620689654</v>
       </c>
       <c r="B5" t="n">
-        <v>0.6651080846786499</v>
+        <v>0.6926753520965576</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -3874,7 +3874,7 @@
         <v>0.9966712643678161</v>
       </c>
       <c r="B6" t="n">
-        <v>0.6436049938201904</v>
+        <v>0.7831560969352722</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -3882,7 +3882,7 @@
         <v>0.9974500000000001</v>
       </c>
       <c r="B7" t="n">
-        <v>0.5981735587120056</v>
+        <v>1.00977635383606</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -3890,7 +3890,7 @@
         <v>0.9975068965517242</v>
       </c>
       <c r="B8" t="n">
-        <v>0.6328228116035461</v>
+        <v>0.7843290567398071</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -3898,7 +3898,7 @@
         <v>0.9975068965517242</v>
       </c>
       <c r="B9" t="n">
-        <v>0.6954477429389954</v>
+        <v>0.8131452798843384</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -3906,7 +3906,7 @@
         <v>0.9975068965517242</v>
       </c>
       <c r="B10" t="n">
-        <v>0.6327729821205139</v>
+        <v>0.754403829574585</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -3914,7 +3914,7 @@
         <v>0.9973362068965518</v>
       </c>
       <c r="B11" t="n">
-        <v>0.6758400201797485</v>
+        <v>0.5382835268974304</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -3922,7 +3922,7 @@
         <v>0.9971655172413794</v>
       </c>
       <c r="B12" t="n">
-        <v>0.712090790271759</v>
+        <v>0.683208703994751</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -3930,7 +3930,7 @@
         <v>0.9969948275862069</v>
       </c>
       <c r="B13" t="n">
-        <v>0.616826057434082</v>
+        <v>0.6708558797836304</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -3938,7 +3938,7 @@
         <v>0.9968241379310345</v>
       </c>
       <c r="B14" t="n">
-        <v>0.7105761170387268</v>
+        <v>0.687812864780426</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -3946,7 +3946,7 @@
         <v>0.996653448275862</v>
       </c>
       <c r="B15" t="n">
-        <v>0.6300894618034363</v>
+        <v>0.8225657343864441</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -3954,7 +3954,7 @@
         <v>0.9964827586206895</v>
       </c>
       <c r="B16" t="n">
-        <v>0.6843163967132568</v>
+        <v>0.7732637524604797</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -3962,7 +3962,7 @@
         <v>0.9963120689655171</v>
       </c>
       <c r="B17" t="n">
-        <v>0.6611892580986023</v>
+        <v>0.5165640115737915</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -3970,7 +3970,7 @@
         <v>0.9962741379310343</v>
       </c>
       <c r="B18" t="n">
-        <v>0.6802752017974854</v>
+        <v>0.7358189821243286</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -3978,7 +3978,7 @@
         <v>0.9962741379310343</v>
       </c>
       <c r="B19" t="n">
-        <v>0.6130164861679077</v>
+        <v>0.8016316890716553</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -3986,7 +3986,7 @@
         <v>0.9962741379310341</v>
       </c>
       <c r="B20" t="n">
-        <v>0.6446862816810608</v>
+        <v>0.6630082726478577</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -3994,7 +3994,7 @@
         <v>0.9962741379310341</v>
       </c>
       <c r="B21" t="n">
-        <v>0.6638690233230591</v>
+        <v>0.8764322400093079</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -4002,7 +4002,7 @@
         <v>0.9941959770114939</v>
       </c>
       <c r="B22" t="n">
-        <v>0.7135001420974731</v>
+        <v>0.8151054382324219</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -4010,7 +4010,7 @@
         <v>0.9898321839080456</v>
       </c>
       <c r="B23" t="n">
-        <v>0.5765721797943115</v>
+        <v>0.6540159583091736</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -4018,7 +4018,7 @@
         <v>0.9824580459770111</v>
       </c>
       <c r="B24" t="n">
-        <v>0.6259405016899109</v>
+        <v>0.7002816796302795</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -4026,7 +4026,7 @@
         <v>0.9722356321839077</v>
       </c>
       <c r="B25" t="n">
-        <v>0.6883150935173035</v>
+        <v>0.8038168549537659</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -4034,7 +4034,7 @@
         <v>0.958213793103448</v>
       </c>
       <c r="B26" t="n">
-        <v>0.7007550001144409</v>
+        <v>0.7387210130691528</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -4042,7 +4042,7 @@
         <v>0.9406183908045974</v>
       </c>
       <c r="B27" t="n">
-        <v>0.6803063154220581</v>
+        <v>0.7496540546417236</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -4050,7 +4050,7 @@
         <v>0.9198339080459769</v>
       </c>
       <c r="B28" t="n">
-        <v>0.5704677104949951</v>
+        <v>0.6004557609558105</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -4058,7 +4058,7 @@
         <v>0.8984367816091953</v>
       </c>
       <c r="B29" t="n">
-        <v>0.6039159893989563</v>
+        <v>0.7848827242851257</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -4066,7 +4066,7 @@
         <v>0.8757454022988506</v>
       </c>
       <c r="B30" t="n">
-        <v>0.7057269215583801</v>
+        <v>0.8624184131622314</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -4074,7 +4074,7 @@
         <v>0.8518149425287356</v>
       </c>
       <c r="B31" t="n">
-        <v>0.7307687401771545</v>
+        <v>0.6785311698913574</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -4082,7 +4082,7 @@
         <v>0.8269068965517241</v>
       </c>
       <c r="B32" t="n">
-        <v>0.7015970349311829</v>
+        <v>0.6651422381401062</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -4090,7 +4090,7 @@
         <v>0.8035959770114942</v>
       </c>
       <c r="B33" t="n">
-        <v>0.7633213996887207</v>
+        <v>0.8356326818466187</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -4098,7 +4098,7 @@
         <v>0.7803781609195404</v>
       </c>
       <c r="B34" t="n">
-        <v>0.6472713351249695</v>
+        <v>0.7253082990646362</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -4106,7 +4106,7 @@
         <v>0.758893103448276</v>
       </c>
       <c r="B35" t="n">
-        <v>0.6509171724319458</v>
+        <v>0.7167822122573853</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -4114,7 +4114,7 @@
         <v>0.7361936781609195</v>
       </c>
       <c r="B36" t="n">
-        <v>0.6055678129196167</v>
+        <v>0.7775554656982422</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -4122,7 +4122,7 @@
         <v>0.7123706896551726</v>
       </c>
       <c r="B37" t="n">
-        <v>0.6147254109382629</v>
+        <v>0.8028520941734314</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -4130,7 +4130,7 @@
         <v>0.6886798850574714</v>
       </c>
       <c r="B38" t="n">
-        <v>0.6407342553138733</v>
+        <v>0.7797694206237793</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -4138,7 +4138,7 @@
         <v>0.665223563218391</v>
       </c>
       <c r="B39" t="n">
-        <v>0.6712727546691895</v>
+        <v>0.7129427194595337</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -4146,7 +4146,7 @@
         <v>0.6412798850574714</v>
       </c>
       <c r="B40" t="n">
-        <v>0.637445330619812</v>
+        <v>0.782052755355835</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -4154,7 +4154,7 @@
         <v>0.6168591954022989</v>
       </c>
       <c r="B41" t="n">
-        <v>0.6907706260681152</v>
+        <v>0.7211107611656189</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -4162,7 +4162,7 @@
         <v>0.5911747126436782</v>
       </c>
       <c r="B42" t="n">
-        <v>0.5910578370094299</v>
+        <v>0.7428134679794312</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -4170,7 +4170,7 @@
         <v>0.5640833333333333</v>
       </c>
       <c r="B43" t="n">
-        <v>0.6864892840385437</v>
+        <v>0.6829541921615601</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -4178,7 +4178,7 @@
         <v>0.5365281609195401</v>
       </c>
       <c r="B44" t="n">
-        <v>0.5631454586982727</v>
+        <v>0.5960735678672791</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -4186,7 +4186,7 @@
         <v>0.5076925287356322</v>
       </c>
       <c r="B45" t="n">
-        <v>0.5664072632789612</v>
+        <v>0.5640954375267029</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -4194,7 +4194,7 @@
         <v>0.4796224137931034</v>
       </c>
       <c r="B46" t="n">
-        <v>0.5147736668586731</v>
+        <v>0.5790206789970398</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -4202,7 +4202,7 @@
         <v>0.4527005747126436</v>
       </c>
       <c r="B47" t="n">
-        <v>0.5637455582618713</v>
+        <v>0.3908854722976685</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -4210,7 +4210,7 @@
         <v>0.4249482758620689</v>
       </c>
       <c r="B48" t="n">
-        <v>0.4935752153396606</v>
+        <v>0.3108680844306946</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -4218,7 +4218,7 @@
         <v>0.3971431034482759</v>
       </c>
       <c r="B49" t="n">
-        <v>0.4172866940498352</v>
+        <v>0.3328434526920319</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -4226,7 +4226,7 @@
         <v>0.3714425287356322</v>
       </c>
       <c r="B50" t="n">
-        <v>0.4803133010864258</v>
+        <v>0.3477126955986023</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -4234,7 +4234,7 @@
         <v>0.3492850574712644</v>
       </c>
       <c r="B51" t="n">
-        <v>0.4607019424438477</v>
+        <v>0.3525389134883881</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -4242,7 +4242,7 @@
         <v>0.3290091954022988</v>
       </c>
       <c r="B52" t="n">
-        <v>0.5993415117263794</v>
+        <v>0.3911647796630859</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -4250,7 +4250,7 @@
         <v>0.3110758620689656</v>
       </c>
       <c r="B53" t="n">
-        <v>0.5886516571044922</v>
+        <v>0.29909747838974</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -4258,7 +4258,7 @@
         <v>0.2952614942528736</v>
       </c>
       <c r="B54" t="n">
-        <v>0.540027916431427</v>
+        <v>0.4624267518520355</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -4266,7 +4266,7 @@
         <v>0.2828270114942529</v>
       </c>
       <c r="B55" t="n">
-        <v>0.4697467088699341</v>
+        <v>0.3600356876850128</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -4274,7 +4274,7 @@
         <v>0.2738689655172413</v>
       </c>
       <c r="B56" t="n">
-        <v>0.5726703405380249</v>
+        <v>0.2439795434474945</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -4282,7 +4282,7 @@
         <v>0.2676689655172413</v>
       </c>
       <c r="B57" t="n">
-        <v>0.5863178372383118</v>
+        <v>0.4882315099239349</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -4290,7 +4290,7 @@
         <v>0.2606925287356321</v>
       </c>
       <c r="B58" t="n">
-        <v>0.5128965377807617</v>
+        <v>0.4203372299671173</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -4298,7 +4298,7 @@
         <v>0.2571442528735631</v>
       </c>
       <c r="B59" t="n">
-        <v>0.6200677156448364</v>
+        <v>0.356918603181839</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -4306,7 +4306,7 @@
         <v>0.2558321839080459</v>
       </c>
       <c r="B60" t="n">
-        <v>0.4284812808036804</v>
+        <v>0.3633765876293182</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -4314,7 +4314,7 @@
         <v>0.2564333333333333</v>
       </c>
       <c r="B61" t="n">
-        <v>0.5549651384353638</v>
+        <v>0.4195641279220581</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -4322,7 +4322,7 @@
         <v>0.2570103448275862</v>
       </c>
       <c r="B62" t="n">
-        <v>0.5366724729537964</v>
+        <v>0.4788979887962341</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -4330,7 +4330,7 @@
         <v>0.2572574712643678</v>
       </c>
       <c r="B63" t="n">
-        <v>0.508958637714386</v>
+        <v>0.4119731187820435</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -4338,7 +4338,7 @@
         <v>0.2571114942528736</v>
       </c>
       <c r="B64" t="n">
-        <v>0.5880367159843445</v>
+        <v>0.3484741151332855</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -4346,7 +4346,7 @@
         <v>0.2580396551724138</v>
       </c>
       <c r="B65" t="n">
-        <v>0.5434518456459045</v>
+        <v>0.4687344133853912</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -4354,7 +4354,7 @@
         <v>0.259069540229885</v>
       </c>
       <c r="B66" t="n">
-        <v>0.5831416845321655</v>
+        <v>0.3800718188285828</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -4362,7 +4362,7 @@
         <v>0.2603712643678161</v>
       </c>
       <c r="B67" t="n">
-        <v>0.5494292378425598</v>
+        <v>0.3826101124286652</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -4370,7 +4370,7 @@
         <v>0.2611114942528736</v>
       </c>
       <c r="B68" t="n">
-        <v>0.512622594833374</v>
+        <v>0.3753969073295593</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -4378,7 +4378,7 @@
         <v>0.2618045977011495</v>
       </c>
       <c r="B69" t="n">
-        <v>0.5195126533508301</v>
+        <v>0.3854788541793823</v>
       </c>
     </row>
     <row r="70" spans="1:2">
@@ -4386,7 +4386,7 @@
         <v>0.2635040229885058</v>
       </c>
       <c r="B70" t="n">
-        <v>0.5468399524688721</v>
+        <v>0.4801901876926422</v>
       </c>
     </row>
     <row r="71" spans="1:2">
@@ -4394,7 +4394,7 @@
         <v>0.2667741379310345</v>
       </c>
       <c r="B71" t="n">
-        <v>0.5618529319763184</v>
+        <v>0.4375867247581482</v>
       </c>
     </row>
     <row r="72" spans="1:2">
@@ -4402,7 +4402,7 @@
         <v>0.2711574712643679</v>
       </c>
       <c r="B72" t="n">
-        <v>0.5443077683448792</v>
+        <v>0.3826526999473572</v>
       </c>
     </row>
     <row r="73" spans="1:2">
@@ -4410,7 +4410,7 @@
         <v>0.2762183908045978</v>
       </c>
       <c r="B73" t="n">
-        <v>0.496618926525116</v>
+        <v>0.3861334025859833</v>
       </c>
     </row>
     <row r="74" spans="1:2">
@@ -4418,7 +4418,7 @@
         <v>0.2823758620689656</v>
       </c>
       <c r="B74" t="n">
-        <v>0.5392859578132629</v>
+        <v>0.3559762537479401</v>
       </c>
     </row>
     <row r="75" spans="1:2">
@@ -4426,7 +4426,7 @@
         <v>0.287098275862069</v>
       </c>
       <c r="B75" t="n">
-        <v>0.6272884607315063</v>
+        <v>0.4222655296325684</v>
       </c>
     </row>
     <row r="76" spans="1:2">
@@ -4434,7 +4434,7 @@
         <v>0.2906511494252874</v>
       </c>
       <c r="B76" t="n">
-        <v>0.5665830373764038</v>
+        <v>0.4553743004798889</v>
       </c>
     </row>
     <row r="77" spans="1:2">
@@ -4442,7 +4442,7 @@
         <v>0.2955103448275862</v>
       </c>
       <c r="B77" t="n">
-        <v>0.5057176947593689</v>
+        <v>0.3310782015323639</v>
       </c>
     </row>
     <row r="78" spans="1:2">
@@ -4450,7 +4450,7 @@
         <v>0.2995781609195402</v>
       </c>
       <c r="B78" t="n">
-        <v>0.5639922022819519</v>
+        <v>0.3919780254364014</v>
       </c>
     </row>
     <row r="79" spans="1:2">
@@ -4458,7 +4458,7 @@
         <v>0.3015258620689655</v>
       </c>
       <c r="B79" t="n">
-        <v>0.5769846439361572</v>
+        <v>0.433349221944809</v>
       </c>
     </row>
     <row r="80" spans="1:2">
@@ -4466,7 +4466,7 @@
         <v>0.3025810344827586</v>
       </c>
       <c r="B80" t="n">
-        <v>0.4866434931755066</v>
+        <v>0.3547101616859436</v>
       </c>
     </row>
     <row r="81" spans="1:2">
@@ -4474,7 +4474,7 @@
         <v>0.3033201149425287</v>
       </c>
       <c r="B81" t="n">
-        <v>0.5374506711959839</v>
+        <v>0.4837576448917389</v>
       </c>
     </row>
     <row r="82" spans="1:2">
@@ -4482,7 +4482,7 @@
         <v>0.3050499999999999</v>
       </c>
       <c r="B82" t="n">
-        <v>0.5718525052070618</v>
+        <v>0.3437252044677734</v>
       </c>
     </row>
     <row r="83" spans="1:2">
@@ -4490,7 +4490,7 @@
         <v>0.3079701149425287</v>
       </c>
       <c r="B83" t="n">
-        <v>0.5706521272659302</v>
+        <v>0.3730721473693848</v>
       </c>
     </row>
     <row r="84" spans="1:2">
@@ -4498,7 +4498,7 @@
         <v>0.3095856321839081</v>
       </c>
       <c r="B84" t="n">
-        <v>0.496401846408844</v>
+        <v>0.5089666843414307</v>
       </c>
     </row>
     <row r="85" spans="1:2">
@@ -4506,7 +4506,7 @@
         <v>0.3110752873563218</v>
       </c>
       <c r="B85" t="n">
-        <v>0.5261586308479309</v>
+        <v>0.4039203524589539</v>
       </c>
     </row>
     <row r="86" spans="1:2">
@@ -4514,7 +4514,7 @@
         <v>0.3126597701149425</v>
       </c>
       <c r="B86" t="n">
-        <v>0.5203263163566589</v>
+        <v>0.4380948841571808</v>
       </c>
     </row>
     <row r="87" spans="1:2">
@@ -4522,7 +4522,7 @@
         <v>0.3162821839080459</v>
       </c>
       <c r="B87" t="n">
-        <v>0.4571658968925476</v>
+        <v>0.4320847988128662</v>
       </c>
     </row>
     <row r="88" spans="1:2">
@@ -4530,7 +4530,7 @@
         <v>0.3174505747126437</v>
       </c>
       <c r="B88" t="n">
-        <v>0.477414608001709</v>
+        <v>0.3798453509807587</v>
       </c>
     </row>
     <row r="89" spans="1:2">
@@ -4538,7 +4538,7 @@
         <v>0.3185752873563217</v>
       </c>
       <c r="B89" t="n">
-        <v>0.4455334544181824</v>
+        <v>0.4584685266017914</v>
       </c>
     </row>
     <row r="90" spans="1:2">
@@ -4546,7 +4546,7 @@
         <v>0.3186298850574712</v>
       </c>
       <c r="B90" t="n">
-        <v>0.4958609342575073</v>
+        <v>0.4690719544887543</v>
       </c>
     </row>
     <row r="91" spans="1:2">
@@ -4554,7 +4554,7 @@
         <v>0.3178798850574712</v>
       </c>
       <c r="B91" t="n">
-        <v>0.4766077995300293</v>
+        <v>0.3466877639293671</v>
       </c>
     </row>
     <row r="92" spans="1:2">
@@ -4562,7 +4562,7 @@
         <v>0.3185172413793103</v>
       </c>
       <c r="B92" t="n">
-        <v>0.4490812420845032</v>
+        <v>0.291229635477066</v>
       </c>
     </row>
     <row r="93" spans="1:2">
@@ -4570,7 +4570,7 @@
         <v>0.3173689655172414</v>
       </c>
       <c r="B93" t="n">
-        <v>0.4692302346229553</v>
+        <v>0.3180446624755859</v>
       </c>
     </row>
     <row r="94" spans="1:2">
@@ -4578,7 +4578,7 @@
         <v>0.3159672413793103</v>
       </c>
       <c r="B94" t="n">
-        <v>0.5356228351593018</v>
+        <v>0.3373913466930389</v>
       </c>
     </row>
     <row r="95" spans="1:2">
@@ -4586,7 +4586,7 @@
         <v>0.3152591954022989</v>
       </c>
       <c r="B95" t="n">
-        <v>0.519353449344635</v>
+        <v>0.2797353267669678</v>
       </c>
     </row>
     <row r="96" spans="1:2">
@@ -4594,7 +4594,7 @@
         <v>0.3147252873563219</v>
       </c>
       <c r="B96" t="n">
-        <v>0.5453804135322571</v>
+        <v>0.423837423324585</v>
       </c>
     </row>
     <row r="97" spans="1:2">
@@ -4602,7 +4602,7 @@
         <v>0.3146413793103449</v>
       </c>
       <c r="B97" t="n">
-        <v>0.5564656257629395</v>
+        <v>0.3735070824623108</v>
       </c>
     </row>
     <row r="98" spans="1:2">
@@ -4610,7 +4610,7 @@
         <v>0.3148971264367817</v>
       </c>
       <c r="B98" t="n">
-        <v>0.6053472757339478</v>
+        <v>0.5403906106948853</v>
       </c>
     </row>
     <row r="99" spans="1:2">
@@ -4618,7 +4618,7 @@
         <v>0.3137994252873564</v>
       </c>
       <c r="B99" t="n">
-        <v>0.5411800146102905</v>
+        <v>0.4289023578166962</v>
       </c>
     </row>
     <row r="100" spans="1:2">
@@ -4626,7 +4626,7 @@
         <v>0.3128362068965518</v>
       </c>
       <c r="B100" t="n">
-        <v>0.4540417790412903</v>
+        <v>0.3039064407348633</v>
       </c>
     </row>
     <row r="101" spans="1:2">
@@ -4634,7 +4634,7 @@
         <v>0.3126620689655173</v>
       </c>
       <c r="B101" t="n">
-        <v>0.5852496027946472</v>
+        <v>0.5068072080612183</v>
       </c>
     </row>
     <row r="102" spans="1:2">
@@ -4642,7 +4642,7 @@
         <v>0.3118028735632185</v>
       </c>
       <c r="B102" t="n">
-        <v>0.5281732678413391</v>
+        <v>0.4427756071090698</v>
       </c>
     </row>
     <row r="103" spans="1:2">
@@ -4650,7 +4650,7 @@
         <v>0.3109833333333334</v>
       </c>
       <c r="B103" t="n">
-        <v>0.528955340385437</v>
+        <v>0.4968598783016205</v>
       </c>
     </row>
     <row r="104" spans="1:2">
@@ -4658,7 +4658,7 @@
         <v>0.3108379310344828</v>
       </c>
       <c r="B104" t="n">
-        <v>0.5412740111351013</v>
+        <v>0.487529456615448</v>
       </c>
     </row>
     <row r="105" spans="1:2">
@@ -4666,7 +4666,7 @@
         <v>0.3102224137931036</v>
       </c>
       <c r="B105" t="n">
-        <v>0.5845467448234558</v>
+        <v>0.4417259097099304</v>
       </c>
     </row>
     <row r="106" spans="1:2">
@@ -4674,7 +4674,7 @@
         <v>0.3093321839080461</v>
       </c>
       <c r="B106" t="n">
-        <v>0.6253803372383118</v>
+        <v>0.4006581604480743</v>
       </c>
     </row>
     <row r="107" spans="1:2">
@@ -4682,7 +4682,7 @@
         <v>0.3102247126436782</v>
       </c>
       <c r="B107" t="n">
-        <v>0.5899860858917236</v>
+        <v>0.4526301920413971</v>
       </c>
     </row>
     <row r="108" spans="1:2">
@@ -4690,7 +4690,7 @@
         <v>0.3109385057471264</v>
       </c>
       <c r="B108" t="n">
-        <v>0.5272210240364075</v>
+        <v>0.3876612484455109</v>
       </c>
     </row>
     <row r="109" spans="1:2">
@@ -4698,7 +4698,7 @@
         <v>0.3122454022988506</v>
       </c>
       <c r="B109" t="n">
-        <v>0.5554319024085999</v>
+        <v>0.4058419167995453</v>
       </c>
     </row>
     <row r="110" spans="1:2">
@@ -4706,7 +4706,7 @@
         <v>0.3141051724137931</v>
       </c>
       <c r="B110" t="n">
-        <v>0.5751862525939941</v>
+        <v>0.4798993170261383</v>
       </c>
     </row>
     <row r="111" spans="1:2">
@@ -4714,7 +4714,7 @@
         <v>0.3154666666666666</v>
       </c>
       <c r="B111" t="n">
-        <v>0.5489608645439148</v>
+        <v>0.4193809628486633</v>
       </c>
     </row>
     <row r="112" spans="1:2">
@@ -4722,7 +4722,7 @@
         <v>0.3162143678160919</v>
       </c>
       <c r="B112" t="n">
-        <v>0.5457674860954285</v>
+        <v>0.2620561122894287</v>
       </c>
     </row>
     <row r="113" spans="1:2">
@@ -4730,7 +4730,7 @@
         <v>0.3190258620689655</v>
       </c>
       <c r="B113" t="n">
-        <v>0.5984405279159546</v>
+        <v>0.2901303172111511</v>
       </c>
     </row>
     <row r="114" spans="1:2">
@@ -4738,7 +4738,7 @@
         <v>0.3218408045977012</v>
       </c>
       <c r="B114" t="n">
-        <v>0.4907302856445312</v>
+        <v>0.4259886741638184</v>
       </c>
     </row>
     <row r="115" spans="1:2">
@@ -4746,7 +4746,7 @@
         <v>0.3262310344827587</v>
       </c>
       <c r="B115" t="n">
-        <v>0.565392792224884</v>
+        <v>0.3553951680660248</v>
       </c>
     </row>
     <row r="116" spans="1:2">
@@ -4754,7 +4754,7 @@
         <v>0.331217816091954</v>
       </c>
       <c r="B116" t="n">
-        <v>0.5220680832862854</v>
+        <v>0.3317345976829529</v>
       </c>
     </row>
     <row r="117" spans="1:2">
@@ -4762,7 +4762,7 @@
         <v>0.3382902298850575</v>
       </c>
       <c r="B117" t="n">
-        <v>0.4861934781074524</v>
+        <v>0.4523971676826477</v>
       </c>
     </row>
     <row r="118" spans="1:2">
@@ -4770,7 +4770,7 @@
         <v>0.3475735632183908</v>
       </c>
       <c r="B118" t="n">
-        <v>0.5035577416419983</v>
+        <v>0.5045717358589172</v>
       </c>
     </row>
     <row r="119" spans="1:2">
@@ -4778,7 +4778,7 @@
         <v>0.3560540229885058</v>
       </c>
       <c r="B119" t="n">
-        <v>0.5339190363883972</v>
+        <v>0.3988152146339417</v>
       </c>
     </row>
     <row r="120" spans="1:2">
@@ -4786,7 +4786,7 @@
         <v>0.3633045977011494</v>
       </c>
       <c r="B120" t="n">
-        <v>0.5204141736030579</v>
+        <v>0.3018155992031097</v>
       </c>
     </row>
     <row r="121" spans="1:2">
@@ -4794,7 +4794,7 @@
         <v>0.3694396551724137</v>
       </c>
       <c r="B121" t="n">
-        <v>0.6007171869277954</v>
+        <v>0.4106104075908661</v>
       </c>
     </row>
     <row r="122" spans="1:2">
@@ -4802,7 +4802,7 @@
         <v>0.3738183908045976</v>
       </c>
       <c r="B122" t="n">
-        <v>0.5690566897392273</v>
+        <v>0.2393353283405304</v>
       </c>
     </row>
     <row r="123" spans="1:2">
@@ -4810,7 +4810,7 @@
         <v>0.3765758620689654</v>
       </c>
       <c r="B123" t="n">
-        <v>0.5743491053581238</v>
+        <v>0.4065479040145874</v>
       </c>
     </row>
     <row r="124" spans="1:2">
@@ -4818,7 +4818,7 @@
         <v>0.3761597701149424</v>
       </c>
       <c r="B124" t="n">
-        <v>0.523436427116394</v>
+        <v>0.388934999704361</v>
       </c>
     </row>
     <row r="125" spans="1:2">
@@ -4826,7 +4826,7 @@
         <v>0.3713614942528735</v>
       </c>
       <c r="B125" t="n">
-        <v>0.5480555295944214</v>
+        <v>0.3441083431243896</v>
       </c>
     </row>
     <row r="126" spans="1:2">
@@ -4834,7 +4834,7 @@
         <v>0.3649362068965517</v>
       </c>
       <c r="B126" t="n">
-        <v>0.524072527885437</v>
+        <v>0.3437411785125732</v>
       </c>
     </row>
     <row r="127" spans="1:2">
@@ -4842,7 +4842,7 @@
         <v>0.3601362068965517</v>
       </c>
       <c r="B127" t="n">
-        <v>0.5151553750038147</v>
+        <v>0.3231653571128845</v>
       </c>
     </row>
     <row r="128" spans="1:2">
@@ -4850,7 +4850,7 @@
         <v>0.3557362068965517</v>
       </c>
       <c r="B128" t="n">
-        <v>0.5177136063575745</v>
+        <v>0.3688797950744629</v>
       </c>
     </row>
     <row r="129" spans="1:2">
@@ -4858,7 +4858,7 @@
         <v>0.3524051724137931</v>
       </c>
       <c r="B129" t="n">
-        <v>0.5608412623405457</v>
+        <v>0.388251006603241</v>
       </c>
     </row>
     <row r="130" spans="1:2">
@@ -4866,7 +4866,7 @@
         <v>0.3501833333333333</v>
       </c>
       <c r="B130" t="n">
-        <v>0.5231430530548096</v>
+        <v>0.4458997845649719</v>
       </c>
     </row>
     <row r="131" spans="1:2">
@@ -4874,7 +4874,7 @@
         <v>0.349837356321839</v>
       </c>
       <c r="B131" t="n">
-        <v>0.5094854235649109</v>
+        <v>0.2450417280197144</v>
       </c>
     </row>
     <row r="132" spans="1:2">
@@ -4882,7 +4882,7 @@
         <v>0.3508114942528736</v>
       </c>
       <c r="B132" t="n">
-        <v>0.5742428302764893</v>
+        <v>0.4161582887172699</v>
       </c>
     </row>
     <row r="133" spans="1:2">
@@ -4890,7 +4890,7 @@
         <v>0.353514367816092</v>
       </c>
       <c r="B133" t="n">
-        <v>0.5653959512710571</v>
+        <v>0.384013295173645</v>
       </c>
     </row>
     <row r="134" spans="1:2">
@@ -4898,7 +4898,7 @@
         <v>0.3559988505747127</v>
       </c>
       <c r="B134" t="n">
-        <v>0.5394300222396851</v>
+        <v>0.4111099541187286</v>
       </c>
     </row>
     <row r="135" spans="1:2">
@@ -4906,7 +4906,7 @@
         <v>0.3574603448275863</v>
       </c>
       <c r="B135" t="n">
-        <v>0.5142093896865845</v>
+        <v>0.5687199234962463</v>
       </c>
     </row>
     <row r="136" spans="1:2">
@@ -4914,7 +4914,7 @@
         <v>0.3585114942528736</v>
       </c>
       <c r="B136" t="n">
-        <v>0.5781173706054688</v>
+        <v>0.4333871006965637</v>
       </c>
     </row>
     <row r="137" spans="1:2">
@@ -4922,7 +4922,7 @@
         <v>0.3587390804597701</v>
       </c>
       <c r="B137" t="n">
-        <v>0.5968685746192932</v>
+        <v>0.3403860628604889</v>
       </c>
     </row>
     <row r="138" spans="1:2">
@@ -4930,7 +4930,7 @@
         <v>0.3584551724137931</v>
       </c>
       <c r="B138" t="n">
-        <v>0.58383709192276</v>
+        <v>0.5401365160942078</v>
       </c>
     </row>
     <row r="139" spans="1:2">
@@ -4938,7 +4938,7 @@
         <v>0.3602528735632184</v>
       </c>
       <c r="B139" t="n">
-        <v>0.5439320206642151</v>
+        <v>0.4470372796058655</v>
       </c>
     </row>
     <row r="140" spans="1:2">
@@ -4946,7 +4946,7 @@
         <v>0.3619959770114943</v>
       </c>
       <c r="B140" t="n">
-        <v>0.5271296501159668</v>
+        <v>0.4525675475597382</v>
       </c>
     </row>
     <row r="141" spans="1:2">
@@ -4954,7 +4954,7 @@
         <v>0.3647971264367816</v>
       </c>
       <c r="B141" t="n">
-        <v>0.517467200756073</v>
+        <v>0.3584712147712708</v>
       </c>
     </row>
     <row r="142" spans="1:2">
@@ -4962,7 +4962,7 @@
         <v>0.3663063218390805</v>
       </c>
       <c r="B142" t="n">
-        <v>0.5216846466064453</v>
+        <v>0.3724924325942993</v>
       </c>
     </row>
     <row r="143" spans="1:2">
@@ -4970,7 +4970,7 @@
         <v>0.3682695402298851</v>
       </c>
       <c r="B143" t="n">
-        <v>0.6079017519950867</v>
+        <v>0.5142763257026672</v>
       </c>
     </row>
     <row r="144" spans="1:2">
@@ -4978,7 +4978,7 @@
         <v>0.3684683908045976</v>
       </c>
       <c r="B144" t="n">
-        <v>0.587857723236084</v>
+        <v>0.4878082275390625</v>
       </c>
     </row>
     <row r="145" spans="1:2">
@@ -4986,7 +4986,7 @@
         <v>0.3667149425287356</v>
       </c>
       <c r="B145" t="n">
-        <v>0.551942765712738</v>
+        <v>0.4540104568004608</v>
       </c>
     </row>
     <row r="146" spans="1:2">
@@ -4994,7 +4994,7 @@
         <v>0.3618091954022988</v>
       </c>
       <c r="B146" t="n">
-        <v>0.5788515210151672</v>
+        <v>0.3694227337837219</v>
       </c>
     </row>
     <row r="147" spans="1:2">
@@ -5002,7 +5002,7 @@
         <v>0.3539017241379311</v>
       </c>
       <c r="B147" t="n">
-        <v>0.594565212726593</v>
+        <v>0.4778323471546173</v>
       </c>
     </row>
     <row r="148" spans="1:2">
@@ -5010,7 +5010,7 @@
         <v>0.3472931034482759</v>
       </c>
       <c r="B148" t="n">
-        <v>0.6109544634819031</v>
+        <v>0.5512542724609375</v>
       </c>
     </row>
     <row r="149" spans="1:2">
@@ -5018,7 +5018,7 @@
         <v>0.3399229885057471</v>
       </c>
       <c r="B149" t="n">
-        <v>0.5651369094848633</v>
+        <v>0.3914004862308502</v>
       </c>
     </row>
     <row r="150" spans="1:2">
@@ -5026,7 +5026,7 @@
         <v>0.3330436781609195</v>
       </c>
       <c r="B150" t="n">
-        <v>0.6001367568969727</v>
+        <v>0.4852302372455597</v>
       </c>
     </row>
     <row r="151" spans="1:2">
@@ -5034,7 +5034,7 @@
         <v>0.3287603448275862</v>
       </c>
       <c r="B151" t="n">
-        <v>0.603976309299469</v>
+        <v>0.4635675251483917</v>
       </c>
     </row>
     <row r="152" spans="1:2">
@@ -5042,7 +5042,7 @@
         <v>0.3274218390804597</v>
       </c>
       <c r="B152" t="n">
-        <v>0.587119996547699</v>
+        <v>0.2197405397891998</v>
       </c>
     </row>
     <row r="153" spans="1:2">
@@ -5050,7 +5050,7 @@
         <v>0.3305626436781609</v>
       </c>
       <c r="B153" t="n">
-        <v>0.58196622133255</v>
+        <v>0.4127499461174011</v>
       </c>
     </row>
     <row r="154" spans="1:2">
@@ -5058,7 +5058,7 @@
         <v>0.336785632183908</v>
       </c>
       <c r="B154" t="n">
-        <v>0.590915858745575</v>
+        <v>0.4164825975894928</v>
       </c>
     </row>
     <row r="155" spans="1:2">
@@ -5066,7 +5066,7 @@
         <v>0.3448701149425287</v>
       </c>
       <c r="B155" t="n">
-        <v>0.5662325620651245</v>
+        <v>0.5242259502410889</v>
       </c>
     </row>
     <row r="156" spans="1:2">
@@ -5074,7 +5074,7 @@
         <v>0.3526103448275861</v>
       </c>
       <c r="B156" t="n">
-        <v>0.5772244930267334</v>
+        <v>0.5163758397102356</v>
       </c>
     </row>
     <row r="157" spans="1:2">
@@ -5082,7 +5082,7 @@
         <v>0.3625454022988505</v>
       </c>
       <c r="B157" t="n">
-        <v>0.5914337635040283</v>
+        <v>0.4300494194030762</v>
       </c>
     </row>
     <row r="158" spans="1:2">
@@ -5090,7 +5090,7 @@
         <v>0.3702683908045977</v>
       </c>
       <c r="B158" t="n">
-        <v>0.6326940655708313</v>
+        <v>0.4215989112854004</v>
       </c>
     </row>
     <row r="159" spans="1:2">
@@ -5098,7 +5098,7 @@
         <v>0.3776982758620689</v>
       </c>
       <c r="B159" t="n">
-        <v>0.5878420472145081</v>
+        <v>0.3257695138454437</v>
       </c>
     </row>
     <row r="160" spans="1:2">
@@ -5106,7 +5106,7 @@
         <v>0.3839097701149425</v>
       </c>
       <c r="B160" t="n">
-        <v>0.5650148391723633</v>
+        <v>0.5881546139717102</v>
       </c>
     </row>
     <row r="161" spans="1:2">
@@ -5114,7 +5114,7 @@
         <v>0.3885488505747127</v>
       </c>
       <c r="B161" t="n">
-        <v>0.6074889302253723</v>
+        <v>0.4066206514835358</v>
       </c>
     </row>
     <row r="162" spans="1:2">
@@ -5122,7 +5122,7 @@
         <v>0.3911132183908046</v>
       </c>
       <c r="B162" t="n">
-        <v>0.5687114000320435</v>
+        <v>0.4068945646286011</v>
       </c>
     </row>
     <row r="163" spans="1:2">
@@ -5130,7 +5130,7 @@
         <v>0.3946333333333334</v>
       </c>
       <c r="B163" t="n">
-        <v>0.6043049097061157</v>
+        <v>0.5592446327209473</v>
       </c>
     </row>
     <row r="164" spans="1:2">
@@ -5138,7 +5138,7 @@
         <v>0.3967741379310346</v>
       </c>
       <c r="B164" t="n">
-        <v>0.5728218555450439</v>
+        <v>0.4384810030460358</v>
       </c>
     </row>
     <row r="165" spans="1:2">
@@ -5146,7 +5146,7 @@
         <v>0.3984913793103448</v>
       </c>
       <c r="B165" t="n">
-        <v>0.5996931791305542</v>
+        <v>0.4282365739345551</v>
       </c>
     </row>
     <row r="166" spans="1:2">
@@ -5154,7 +5154,7 @@
         <v>0.4020620689655173</v>
       </c>
       <c r="B166" t="n">
-        <v>0.5983254313468933</v>
+        <v>0.5430455207824707</v>
       </c>
     </row>
     <row r="167" spans="1:2">
@@ -5162,7 +5162,7 @@
         <v>0.4043994252873564</v>
       </c>
       <c r="B167" t="n">
-        <v>0.5131605863571167</v>
+        <v>0.4428592622280121</v>
       </c>
     </row>
     <row r="168" spans="1:2">
@@ -5170,7 +5170,7 @@
         <v>0.4045977011494254</v>
       </c>
       <c r="B168" t="n">
-        <v>0.5742391347885132</v>
+        <v>0.4183222353458405</v>
       </c>
     </row>
     <row r="169" spans="1:2">
@@ -5178,7 +5178,7 @@
         <v>0.4046873563218392</v>
       </c>
       <c r="B169" t="n">
-        <v>0.5285074710845947</v>
+        <v>0.5184893012046814</v>
       </c>
     </row>
     <row r="170" spans="1:2">
@@ -5186,7 +5186,7 @@
         <v>0.4031925287356322</v>
       </c>
       <c r="B170" t="n">
-        <v>0.5547739267349243</v>
+        <v>0.5061836838722229</v>
       </c>
     </row>
     <row r="171" spans="1:2">
@@ -5194,7 +5194,7 @@
         <v>0.4016649425287357</v>
       </c>
       <c r="B171" t="n">
-        <v>0.7170887589454651</v>
+        <v>0.5554948449134827</v>
       </c>
     </row>
     <row r="172" spans="1:2">
@@ -5202,7 +5202,7 @@
         <v>0.398296551724138</v>
       </c>
       <c r="B172" t="n">
-        <v>0.5857305526733398</v>
+        <v>0.5141134858131409</v>
       </c>
     </row>
     <row r="173" spans="1:2">
@@ -5210,7 +5210,7 @@
         <v>0.3946706896551724</v>
       </c>
       <c r="B173" t="n">
-        <v>0.6882014870643616</v>
+        <v>0.6073008179664612</v>
       </c>
     </row>
     <row r="174" spans="1:2">
@@ -5218,7 +5218,7 @@
         <v>0.3930637931034483</v>
       </c>
       <c r="B174" t="n">
-        <v>0.4958878755569458</v>
+        <v>0.4408467710018158</v>
       </c>
     </row>
     <row r="175" spans="1:2">
@@ -5226,7 +5226,7 @@
         <v>0.3938948275862069</v>
       </c>
       <c r="B175" t="n">
-        <v>0.5769519805908203</v>
+        <v>0.4924875497817993</v>
       </c>
     </row>
     <row r="176" spans="1:2">
@@ -5234,7 +5234,7 @@
         <v>0.3948137931034482</v>
       </c>
       <c r="B176" t="n">
-        <v>0.5851441621780396</v>
+        <v>0.5617210268974304</v>
       </c>
     </row>
     <row r="177" spans="1:2">
@@ -5242,7 +5242,7 @@
         <v>0.3956241379310345</v>
       </c>
       <c r="B177" t="n">
-        <v>0.5726576447486877</v>
+        <v>0.5530648827552795</v>
       </c>
     </row>
     <row r="178" spans="1:2">
@@ -5250,7 +5250,7 @@
         <v>0.3977988505747126</v>
       </c>
       <c r="B178" t="n">
-        <v>0.5479655265808105</v>
+        <v>0.3438093066215515</v>
       </c>
     </row>
   </sheetData>

--- a/result/chenting_20151124_noon_2.mat1.xlsx
+++ b/result/chenting_20151124_noon_2.mat1.xlsx
@@ -415,16 +415,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>23.20000203450521</v>
+        <v>6.019135475158691</v>
       </c>
       <c r="C2" t="n">
-        <v>13700.40885416667</v>
+        <v>3227.743001302083</v>
       </c>
       <c r="D2" t="n">
-        <v>21.30511013666789</v>
+        <v>6.460098385810852</v>
       </c>
       <c r="E2" t="n">
-        <v>13698.51424153646</v>
+        <v>3228.184000651042</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -432,16 +432,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>13.05813439687093</v>
+        <v>2.717825651168823</v>
       </c>
       <c r="C3" t="n">
-        <v>13430.36588541667</v>
+        <v>3163.80126953125</v>
       </c>
       <c r="D3" t="n">
-        <v>13.42944494883219</v>
+        <v>3.360784272352854</v>
       </c>
       <c r="E3" t="n">
-        <v>13430.73681640625</v>
+        <v>3164.444274902344</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -449,16 +449,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>6.097341378529866</v>
+        <v>4.890302181243896</v>
       </c>
       <c r="C4" t="n">
-        <v>13166.58854166667</v>
+        <v>3106.274576822917</v>
       </c>
       <c r="D4" t="n">
-        <v>6.021153171857198</v>
+        <v>4.982109745343526</v>
       </c>
       <c r="E4" t="n">
-        <v>13166.51236979167</v>
+        <v>3106.366373697917</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -466,16 +466,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>1.906685034434001</v>
+        <v>0.5563249488671621</v>
       </c>
       <c r="C5" t="n">
-        <v>12910.21809895833</v>
+        <v>3043.701578776042</v>
       </c>
       <c r="D5" t="n">
-        <v>2.044517288605372</v>
+        <v>1.02063661813736</v>
       </c>
       <c r="E5" t="n">
-        <v>12910.35611979167</v>
+        <v>3044.16591389974</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -483,16 +483,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>3.771061023076375</v>
+        <v>6.912464459737142</v>
       </c>
       <c r="C6" t="n">
-        <v>12664.52701822917</v>
+        <v>2992.937581380208</v>
       </c>
       <c r="D6" t="n">
-        <v>3.508713205655416</v>
+        <v>7.402286251386006</v>
       </c>
       <c r="E6" t="n">
-        <v>12664.26456705729</v>
+        <v>2993.427429199219</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -500,16 +500,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>5.346120675404866</v>
+        <v>1.296748379866282</v>
       </c>
       <c r="C7" t="n">
-        <v>12423.09993489583</v>
+        <v>2931.599202473958</v>
       </c>
       <c r="D7" t="n">
-        <v>4.508886456489563</v>
+        <v>2.451508979002635</v>
       </c>
       <c r="E7" t="n">
-        <v>12422.26277669271</v>
+        <v>2932.753987630208</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -517,16 +517,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>9.038399378458658</v>
+        <v>3.19461448987325</v>
       </c>
       <c r="C8" t="n">
-        <v>12188.37825520833</v>
+        <v>2878.864013671875</v>
       </c>
       <c r="D8" t="n">
-        <v>6.383465687433879</v>
+        <v>3.697915554046631</v>
       </c>
       <c r="E8" t="n">
-        <v>12185.72330729167</v>
+        <v>2879.367370605469</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -534,16 +534,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>6.691290537516276</v>
+        <v>0.8118124405543009</v>
       </c>
       <c r="C9" t="n">
-        <v>11952.46484375</v>
+        <v>2822.973876953125</v>
       </c>
       <c r="D9" t="n">
-        <v>8.318682670593262</v>
+        <v>0.9670235713322958</v>
       </c>
       <c r="E9" t="n">
-        <v>11954.09204101562</v>
+        <v>2823.129109700521</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -551,16 +551,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>10.34176445007324</v>
+        <v>0.8706458210945129</v>
       </c>
       <c r="C10" t="n">
-        <v>11727.2880859375</v>
+        <v>2770.509602864583</v>
       </c>
       <c r="D10" t="n">
-        <v>9.223190307617188</v>
+        <v>0.8423586636781693</v>
       </c>
       <c r="E10" t="n">
-        <v>11726.16967773438</v>
+        <v>2770.481262207031</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -568,16 +568,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>1.763714909553528</v>
+        <v>1.85153325398763</v>
       </c>
       <c r="C11" t="n">
-        <v>11494.54296875</v>
+        <v>2719.952880859375</v>
       </c>
       <c r="D11" t="n">
-        <v>2.842809160550436</v>
+        <v>1.840138624111811</v>
       </c>
       <c r="E11" t="n">
-        <v>11495.6220703125</v>
+        <v>2719.941467285156</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -585,16 +585,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>0.9827207724253336</v>
+        <v>1.336857835451762</v>
       </c>
       <c r="C12" t="n">
-        <v>11274.13997395833</v>
+        <v>2668.860758463542</v>
       </c>
       <c r="D12" t="n">
-        <v>1.050205166141192</v>
+        <v>1.519358982642492</v>
       </c>
       <c r="E12" t="n">
-        <v>11274.20751953125</v>
+        <v>2669.043314615885</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -602,16 +602,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>2.859217087427775</v>
+        <v>0.4578376809755961</v>
       </c>
       <c r="C13" t="n">
-        <v>11060.54654947917</v>
+        <v>2618.357991536458</v>
       </c>
       <c r="D13" t="n">
-        <v>3.155522445837657</v>
+        <v>0.4819395467638969</v>
       </c>
       <c r="E13" t="n">
-        <v>11060.84309895833</v>
+        <v>2618.382100423177</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -619,16 +619,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>2.472072760264079</v>
+        <v>0.6850140690803528</v>
       </c>
       <c r="C14" t="n">
-        <v>10848.89615885417</v>
+        <v>2569.871826171875</v>
       </c>
       <c r="D14" t="n">
-        <v>2.231081287066142</v>
+        <v>0.9360477129618326</v>
       </c>
       <c r="E14" t="n">
-        <v>10848.65494791667</v>
+        <v>2570.122782389323</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -636,16 +636,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>0.698187788327535</v>
+        <v>0.9331937630971273</v>
       </c>
       <c r="C15" t="n">
-        <v>10639.80598958333</v>
+        <v>2522.300455729167</v>
       </c>
       <c r="D15" t="n">
-        <v>0.8226518283287684</v>
+        <v>0.9603076527516047</v>
       </c>
       <c r="E15" t="n">
-        <v>10639.93001302083</v>
+        <v>2522.32753499349</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -653,16 +653,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>0.5513258079687754</v>
+        <v>0.59698153535525</v>
       </c>
       <c r="C16" t="n">
-        <v>10436.19791666667</v>
+        <v>2475.063802083333</v>
       </c>
       <c r="D16" t="n">
-        <v>0.9591441849867502</v>
+        <v>0.5246619085470835</v>
       </c>
       <c r="E16" t="n">
-        <v>10436.60571289062</v>
+        <v>2474.991434733073</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -670,16 +670,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>0.8381769259770712</v>
+        <v>0.7840994000434875</v>
       </c>
       <c r="C17" t="n">
-        <v>10236.81087239583</v>
+        <v>2429.259928385417</v>
       </c>
       <c r="D17" t="n">
-        <v>0.6492172578970591</v>
+        <v>0.8763210376103719</v>
       </c>
       <c r="E17" t="n">
-        <v>10236.62198893229</v>
+        <v>2429.352172851562</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -687,16 +687,16 @@
         <v>17</v>
       </c>
       <c r="B18" t="n">
-        <v>0.4924214382966359</v>
+        <v>0.3113557895024617</v>
       </c>
       <c r="C18" t="n">
-        <v>10040.48079427083</v>
+        <v>2383.646728515625</v>
       </c>
       <c r="D18" t="n">
-        <v>0.3228566087782383</v>
+        <v>0.3037258759140968</v>
       </c>
       <c r="E18" t="n">
-        <v>10040.31119791667</v>
+        <v>2383.639180501302</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -704,16 +704,16 @@
         <v>18</v>
       </c>
       <c r="B19" t="n">
-        <v>0.2666308134794235</v>
+        <v>0.9176982442537943</v>
       </c>
       <c r="C19" t="n">
-        <v>9847.902669270834</v>
+        <v>2339.948160807292</v>
       </c>
       <c r="D19" t="n">
-        <v>0.3509597231944402</v>
+        <v>1.125022237499555</v>
       </c>
       <c r="E19" t="n">
-        <v>9847.986572265625</v>
+        <v>2340.155537923177</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -721,16 +721,16 @@
         <v>19</v>
       </c>
       <c r="B20" t="n">
-        <v>0.1916386236747106</v>
+        <v>0.2532024433215459</v>
       </c>
       <c r="C20" t="n">
-        <v>9659.0146484375</v>
+        <v>2295.797200520833</v>
       </c>
       <c r="D20" t="n">
-        <v>0.1925547967354456</v>
+        <v>0.2485974319279194</v>
       </c>
       <c r="E20" t="n">
-        <v>9659.015869140625</v>
+        <v>2295.792541503906</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -738,16 +738,16 @@
         <v>20</v>
       </c>
       <c r="B21" t="n">
-        <v>0.323022445042928</v>
+        <v>0.5460422237714132</v>
       </c>
       <c r="C21" t="n">
-        <v>9473.80078125</v>
+        <v>2253.406656901042</v>
       </c>
       <c r="D21" t="n">
-        <v>0.345431533952554</v>
+        <v>0.602546289563179</v>
       </c>
       <c r="E21" t="n">
-        <v>9473.822998046875</v>
+        <v>2253.463134765625</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -755,16 +755,16 @@
         <v>21</v>
       </c>
       <c r="B22" t="n">
-        <v>0.146269179880619</v>
+        <v>0.6930771271387736</v>
       </c>
       <c r="C22" t="n">
-        <v>9291.703450520834</v>
+        <v>2211.644775390625</v>
       </c>
       <c r="D22" t="n">
-        <v>0.106200593834122</v>
+        <v>0.4623219867547353</v>
       </c>
       <c r="E22" t="n">
-        <v>9291.663818359375</v>
+        <v>2211.414001464844</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -772,16 +772,16 @@
         <v>22</v>
       </c>
       <c r="B23" t="n">
-        <v>0.2886220514774323</v>
+        <v>0.8612931569417318</v>
       </c>
       <c r="C23" t="n">
-        <v>9113.263997395834</v>
+        <v>2170.67919921875</v>
       </c>
       <c r="D23" t="n">
-        <v>0.2325821655491988</v>
+        <v>0.8287727038065592</v>
       </c>
       <c r="E23" t="n">
-        <v>9113.208170572916</v>
+        <v>2170.646667480469</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -789,16 +789,16 @@
         <v>23</v>
       </c>
       <c r="B24" t="n">
-        <v>0.1329769591490428</v>
+        <v>0.2765193581581116</v>
       </c>
       <c r="C24" t="n">
-        <v>8937.820638020834</v>
+        <v>2129.712972005208</v>
       </c>
       <c r="D24" t="n">
-        <v>0.1564308765033881</v>
+        <v>0.1735237079362074</v>
       </c>
       <c r="E24" t="n">
-        <v>8937.843994140625</v>
+        <v>2129.610005696615</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -806,16 +806,16 @@
         <v>24</v>
       </c>
       <c r="B25" t="n">
-        <v>0.1569749464591344</v>
+        <v>0.5696930487950643</v>
       </c>
       <c r="C25" t="n">
-        <v>8765.777994791666</v>
+        <v>2090.363850911458</v>
       </c>
       <c r="D25" t="n">
-        <v>0.1139896536866824</v>
+        <v>0.4255749732255936</v>
       </c>
       <c r="E25" t="n">
-        <v>8765.735107421875</v>
+        <v>2090.219787597656</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -823,16 +823,16 @@
         <v>25</v>
       </c>
       <c r="B26" t="n">
-        <v>0.2547546327114105</v>
+        <v>0.1236982668439547</v>
       </c>
       <c r="C26" t="n">
-        <v>8596.9775390625</v>
+        <v>2050.993326822917</v>
       </c>
       <c r="D26" t="n">
-        <v>0.139800775796175</v>
+        <v>0.145561596378684</v>
       </c>
       <c r="E26" t="n">
-        <v>8596.8623046875</v>
+        <v>2051.015218098958</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -840,16 +840,16 @@
         <v>26</v>
       </c>
       <c r="B27" t="n">
-        <v>0.109199287990729</v>
+        <v>0.1877367446819941</v>
       </c>
       <c r="C27" t="n">
-        <v>8431.044596354166</v>
+        <v>2012.836018880208</v>
       </c>
       <c r="D27" t="n">
-        <v>0.09407348868747552</v>
+        <v>0.2702985629439354</v>
       </c>
       <c r="E27" t="n">
-        <v>8431.029541015625</v>
+        <v>2012.918619791667</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -857,16 +857,16 @@
         <v>27</v>
       </c>
       <c r="B28" t="n">
-        <v>0.1254302288095156</v>
+        <v>0.4129445751508077</v>
       </c>
       <c r="C28" t="n">
-        <v>8268.335286458334</v>
+        <v>1975.53076171875</v>
       </c>
       <c r="D28" t="n">
-        <v>0.102303924659888</v>
+        <v>0.5883875985940298</v>
       </c>
       <c r="E28" t="n">
-        <v>8268.312255859375</v>
+        <v>1975.706197102865</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -874,16 +874,16 @@
         <v>28</v>
       </c>
       <c r="B29" t="n">
-        <v>0.1343936721483866</v>
+        <v>0.6104408403237661</v>
       </c>
       <c r="C29" t="n">
-        <v>8108.629069010417</v>
+        <v>1938.887532552083</v>
       </c>
       <c r="D29" t="n">
-        <v>0.09973483501623075</v>
+        <v>0.4233104263742765</v>
       </c>
       <c r="E29" t="n">
-        <v>8108.594360351562</v>
+        <v>1938.700408935547</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -891,16 +891,16 @@
         <v>29</v>
       </c>
       <c r="B30" t="n">
-        <v>0.09917321925361951</v>
+        <v>0.2720368107159932</v>
       </c>
       <c r="C30" t="n">
-        <v>7951.825358072917</v>
+        <v>1902.381917317708</v>
       </c>
       <c r="D30" t="n">
-        <v>0.1137919034808874</v>
+        <v>0.1792015253255765</v>
       </c>
       <c r="E30" t="n">
-        <v>7951.83984375</v>
+        <v>1902.2890625</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -908,16 +908,16 @@
         <v>30</v>
       </c>
       <c r="B31" t="n">
-        <v>0.1281336297591527</v>
+        <v>0.4796817600727081</v>
       </c>
       <c r="C31" t="n">
-        <v>7797.989908854167</v>
+        <v>1867.077840169271</v>
       </c>
       <c r="D31" t="n">
-        <v>0.1097187465056777</v>
+        <v>0.4190126086274783</v>
       </c>
       <c r="E31" t="n">
-        <v>7797.971598307292</v>
+        <v>1867.01714070638</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -925,16 +925,16 @@
         <v>31</v>
       </c>
       <c r="B32" t="n">
-        <v>0.1152364015579224</v>
+        <v>0.1654195686181386</v>
       </c>
       <c r="C32" t="n">
-        <v>7646.9599609375</v>
+        <v>1831.902994791667</v>
       </c>
       <c r="D32" t="n">
-        <v>0.09028964955359697</v>
+        <v>0.2693666170040767</v>
       </c>
       <c r="E32" t="n">
-        <v>7646.935017903646</v>
+        <v>1832.006917317708</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -942,16 +942,16 @@
         <v>32</v>
       </c>
       <c r="B33" t="n">
-        <v>0.2109727015097936</v>
+        <v>0.2025307764609655</v>
       </c>
       <c r="C33" t="n">
-        <v>7498.83935546875</v>
+        <v>1797.715738932292</v>
       </c>
       <c r="D33" t="n">
-        <v>0.1311482371141513</v>
+        <v>0.1643298765023549</v>
       </c>
       <c r="E33" t="n">
-        <v>7498.759602864583</v>
+        <v>1797.677520751953</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -959,16 +959,16 @@
         <v>33</v>
       </c>
       <c r="B34" t="n">
-        <v>0.144713560740153</v>
+        <v>0.106691412627697</v>
       </c>
       <c r="C34" t="n">
-        <v>7353.313639322917</v>
+        <v>1764.013549804688</v>
       </c>
       <c r="D34" t="n">
-        <v>0.1003003818914294</v>
+        <v>0.126282649114728</v>
       </c>
       <c r="E34" t="n">
-        <v>7353.269287109375</v>
+        <v>1764.03315226237</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -976,16 +976,16 @@
         <v>34</v>
       </c>
       <c r="B35" t="n">
-        <v>0.1701250821352005</v>
+        <v>0.1267032300432523</v>
       </c>
       <c r="C35" t="n">
-        <v>7210.577962239583</v>
+        <v>1731.029052734375</v>
       </c>
       <c r="D35" t="n">
-        <v>0.1295312313983838</v>
+        <v>0.1167749172697465</v>
       </c>
       <c r="E35" t="n">
-        <v>7210.537231445312</v>
+        <v>1731.019124348958</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -993,16 +993,16 @@
         <v>35</v>
       </c>
       <c r="B36" t="n">
-        <v>0.1187744041283925</v>
+        <v>0.1556928008794785</v>
       </c>
       <c r="C36" t="n">
-        <v>7070.424479166667</v>
+        <v>1698.650065104167</v>
       </c>
       <c r="D36" t="n">
-        <v>0.1256109084933996</v>
+        <v>0.1545323804020882</v>
       </c>
       <c r="E36" t="n">
-        <v>7070.431274414062</v>
+        <v>1698.648915608724</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1010,16 +1010,16 @@
         <v>36</v>
       </c>
       <c r="B37" t="n">
-        <v>0.1572794194022814</v>
+        <v>0.1081692750255267</v>
       </c>
       <c r="C37" t="n">
-        <v>6932.961263020833</v>
+        <v>1666.779947916667</v>
       </c>
       <c r="D37" t="n">
-        <v>0.1335680267463128</v>
+        <v>0.1104960069060326</v>
       </c>
       <c r="E37" t="n">
-        <v>6932.937784830729</v>
+        <v>1666.782257080078</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1027,16 +1027,16 @@
         <v>37</v>
       </c>
       <c r="B38" t="n">
-        <v>0.1126330668727557</v>
+        <v>0.09673978139956792</v>
       </c>
       <c r="C38" t="n">
-        <v>6797.973958333333</v>
+        <v>1635.519083658854</v>
       </c>
       <c r="D38" t="n">
-        <v>0.1062990830590328</v>
+        <v>0.09318021529664595</v>
       </c>
       <c r="E38" t="n">
-        <v>6797.967692057292</v>
+        <v>1635.515543619792</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1044,16 +1044,16 @@
         <v>38</v>
       </c>
       <c r="B39" t="n">
-        <v>0.2538187007109324</v>
+        <v>0.08179046834508578</v>
       </c>
       <c r="C39" t="n">
-        <v>6665.694173177083</v>
+        <v>1604.820068359375</v>
       </c>
       <c r="D39" t="n">
-        <v>0.1522593547900518</v>
+        <v>0.107780364031593</v>
       </c>
       <c r="E39" t="n">
-        <v>6665.592692057292</v>
+        <v>1604.846079508464</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1061,16 +1061,16 @@
         <v>39</v>
       </c>
       <c r="B40" t="n">
-        <v>0.165789802869161</v>
+        <v>0.08165283873677254</v>
       </c>
       <c r="C40" t="n">
-        <v>6535.645345052083</v>
+        <v>1574.689331054688</v>
       </c>
       <c r="D40" t="n">
-        <v>0.1198631065587203</v>
+        <v>0.1022829860448837</v>
       </c>
       <c r="E40" t="n">
-        <v>6535.599324544271</v>
+        <v>1574.709930419922</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1078,16 +1078,16 @@
         <v>40</v>
       </c>
       <c r="B41" t="n">
-        <v>0.157083143790563</v>
+        <v>0.08366246894001961</v>
       </c>
       <c r="C41" t="n">
-        <v>6408.095052083333</v>
+        <v>1545.107340494792</v>
       </c>
       <c r="D41" t="n">
-        <v>0.1171391460423668</v>
+        <v>0.09548936784267426</v>
       </c>
       <c r="E41" t="n">
-        <v>6408.055053710938</v>
+        <v>1545.119171142578</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1095,16 +1095,16 @@
         <v>41</v>
       </c>
       <c r="B42" t="n">
-        <v>0.1367857456207275</v>
+        <v>0.162422738969326</v>
       </c>
       <c r="C42" t="n">
-        <v>6282.90771484375</v>
+        <v>1516.142049153646</v>
       </c>
       <c r="D42" t="n">
-        <v>0.1520504411309958</v>
+        <v>0.1397458780556917</v>
       </c>
       <c r="E42" t="n">
-        <v>6282.923095703125</v>
+        <v>1516.119364420573</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1112,16 +1112,16 @@
         <v>42</v>
       </c>
       <c r="B43" t="n">
-        <v>0.1514774039387703</v>
+        <v>0.1013461748758952</v>
       </c>
       <c r="C43" t="n">
-        <v>6160.094401041667</v>
+        <v>1487.562784830729</v>
       </c>
       <c r="D43" t="n">
-        <v>0.1604613189895948</v>
+        <v>0.1308358255773783</v>
       </c>
       <c r="E43" t="n">
-        <v>6160.103352864583</v>
+        <v>1487.592274983724</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1129,16 +1129,16 @@
         <v>43</v>
       </c>
       <c r="B44" t="n">
-        <v>0.1267424275477727</v>
+        <v>0.09966461112101872</v>
       </c>
       <c r="C44" t="n">
-        <v>6039.547688802083</v>
+        <v>1459.562296549479</v>
       </c>
       <c r="D44" t="n">
-        <v>0.1765893424550692</v>
+        <v>0.09581852455933888</v>
       </c>
       <c r="E44" t="n">
-        <v>6039.597452799479</v>
+        <v>1459.558461507161</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -1146,16 +1146,16 @@
         <v>44</v>
       </c>
       <c r="B45" t="n">
-        <v>0.1032835841178894</v>
+        <v>0.09356185669700305</v>
       </c>
       <c r="C45" t="n">
-        <v>5921.255533854167</v>
+        <v>1432.065388997396</v>
       </c>
       <c r="D45" t="n">
-        <v>0.109479995444417</v>
+        <v>0.1191091531266769</v>
       </c>
       <c r="E45" t="n">
-        <v>5921.261881510417</v>
+        <v>1432.090901692708</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1163,16 +1163,16 @@
         <v>45</v>
       </c>
       <c r="B46" t="n">
-        <v>0.1786176065603892</v>
+        <v>0.1015544558564822</v>
       </c>
       <c r="C46" t="n">
-        <v>5805.2744140625</v>
+        <v>1405.080322265625</v>
       </c>
       <c r="D46" t="n">
-        <v>0.139996288344264</v>
+        <v>0.1363923071573178</v>
       </c>
       <c r="E46" t="n">
-        <v>5805.235677083333</v>
+        <v>1405.115142822266</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -1180,16 +1180,16 @@
         <v>46</v>
       </c>
       <c r="B47" t="n">
-        <v>0.1402658745646477</v>
+        <v>0.1205616692701976</v>
       </c>
       <c r="C47" t="n">
-        <v>5691.354166666667</v>
+        <v>1378.597859700521</v>
       </c>
       <c r="D47" t="n">
-        <v>0.1107250954955816</v>
+        <v>0.09865471720695496</v>
       </c>
       <c r="E47" t="n">
-        <v>5691.324584960938</v>
+        <v>1378.575968424479</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -1197,16 +1197,16 @@
         <v>47</v>
       </c>
       <c r="B48" t="n">
-        <v>0.1605646113554637</v>
+        <v>0.1179620598753293</v>
       </c>
       <c r="C48" t="n">
-        <v>5579.62451171875</v>
+        <v>1352.576904296875</v>
       </c>
       <c r="D48" t="n">
-        <v>0.1173926337311665</v>
+        <v>0.1345088258385658</v>
       </c>
       <c r="E48" t="n">
-        <v>5579.581258138021</v>
+        <v>1352.593485514323</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -1214,16 +1214,16 @@
         <v>48</v>
       </c>
       <c r="B49" t="n">
-        <v>0.1667268623908361</v>
+        <v>0.128499041001002</v>
       </c>
       <c r="C49" t="n">
-        <v>5469.974283854167</v>
+        <v>1327.044270833333</v>
       </c>
       <c r="D49" t="n">
-        <v>0.1287795193493366</v>
+        <v>0.1308451518416405</v>
       </c>
       <c r="E49" t="n">
-        <v>5469.936360677083</v>
+        <v>1327.046600341797</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -1231,16 +1231,16 @@
         <v>49</v>
       </c>
       <c r="B50" t="n">
-        <v>0.12108363956213</v>
+        <v>0.1055896555384</v>
       </c>
       <c r="C50" t="n">
-        <v>5362.32861328125</v>
+        <v>1301.944702148438</v>
       </c>
       <c r="D50" t="n">
-        <v>0.1044849020739396</v>
+        <v>0.09698394034057856</v>
       </c>
       <c r="E50" t="n">
-        <v>5362.31201171875</v>
+        <v>1301.936106363932</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -1248,16 +1248,16 @@
         <v>50</v>
       </c>
       <c r="B51" t="n">
-        <v>0.1400252903501193</v>
+        <v>0.09630282719930013</v>
       </c>
       <c r="C51" t="n">
-        <v>5256.77001953125</v>
+        <v>1277.316650390625</v>
       </c>
       <c r="D51" t="n">
-        <v>0.1315371834983428</v>
+        <v>0.09998399950563908</v>
       </c>
       <c r="E51" t="n">
-        <v>5256.761474609375</v>
+        <v>1277.320332845052</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -1265,16 +1265,16 @@
         <v>51</v>
       </c>
       <c r="B52" t="n">
-        <v>0.2380000054836273</v>
+        <v>0.14278794080019</v>
       </c>
       <c r="C52" t="n">
-        <v>5153.269368489583</v>
+        <v>1253.196126302083</v>
       </c>
       <c r="D52" t="n">
-        <v>0.1154300936808189</v>
+        <v>0.114976820225517</v>
       </c>
       <c r="E52" t="n">
-        <v>5153.146769205729</v>
+        <v>1253.168304443359</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -1282,16 +1282,16 @@
         <v>52</v>
       </c>
       <c r="B53" t="n">
-        <v>0.124336654941241</v>
+        <v>0.07822158684333165</v>
       </c>
       <c r="C53" t="n">
-        <v>5051.501302083333</v>
+        <v>1229.407430013021</v>
       </c>
       <c r="D53" t="n">
-        <v>0.1088462558885415</v>
+        <v>0.09151213740309079</v>
       </c>
       <c r="E53" t="n">
-        <v>5051.485799153646</v>
+        <v>1229.420756022135</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -1299,16 +1299,16 @@
         <v>53</v>
       </c>
       <c r="B54" t="n">
-        <v>0.1272170717517535</v>
+        <v>0.1015356555581093</v>
       </c>
       <c r="C54" t="n">
-        <v>4951.757975260417</v>
+        <v>1206.141805013021</v>
       </c>
       <c r="D54" t="n">
-        <v>0.1754403170198202</v>
+        <v>0.08464652361969154</v>
       </c>
       <c r="E54" t="n">
-        <v>4951.806274414062</v>
+        <v>1206.124928792318</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -1316,16 +1316,16 @@
         <v>54</v>
       </c>
       <c r="B55" t="n">
-        <v>0.1351999541123708</v>
+        <v>0.102419413626194</v>
       </c>
       <c r="C55" t="n">
-        <v>4853.90087890625</v>
+        <v>1183.280436197917</v>
       </c>
       <c r="D55" t="n">
-        <v>0.1090545412153006</v>
+        <v>0.08920416918893655</v>
       </c>
       <c r="E55" t="n">
-        <v>4853.874755859375</v>
+        <v>1183.267181396484</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -1333,16 +1333,16 @@
         <v>55</v>
       </c>
       <c r="B56" t="n">
-        <v>0.1915611525376638</v>
+        <v>0.1041869396964709</v>
       </c>
       <c r="C56" t="n">
-        <v>4757.934244791667</v>
+        <v>1160.839680989583</v>
       </c>
       <c r="D56" t="n">
-        <v>0.1437744926661253</v>
+        <v>0.1071754495302836</v>
       </c>
       <c r="E56" t="n">
-        <v>4757.886474609375</v>
+        <v>1160.842641194661</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -1350,16 +1350,16 @@
         <v>56</v>
       </c>
       <c r="B57" t="n">
-        <v>0.136852224667867</v>
+        <v>0.1051216125488281</v>
       </c>
       <c r="C57" t="n">
-        <v>4663.664225260417</v>
+        <v>1138.810913085938</v>
       </c>
       <c r="D57" t="n">
-        <v>0.1167467528333267</v>
+        <v>0.09785887102286021</v>
       </c>
       <c r="E57" t="n">
-        <v>4663.64404296875</v>
+        <v>1138.803649902344</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -1367,16 +1367,16 @@
         <v>57</v>
       </c>
       <c r="B58" t="n">
-        <v>0.09877095619837443</v>
+        <v>0.1449489990870158</v>
       </c>
       <c r="C58" t="n">
-        <v>4571.188639322917</v>
+        <v>1117.225992838542</v>
       </c>
       <c r="D58" t="n">
-        <v>0.08953890608002742</v>
+        <v>0.1319146572301785</v>
       </c>
       <c r="E58" t="n">
-        <v>4571.179402669271</v>
+        <v>1117.212961832682</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -1384,16 +1384,16 @@
         <v>58</v>
       </c>
       <c r="B59" t="n">
-        <v>0.1577177370587985</v>
+        <v>0.1226055795947711</v>
       </c>
       <c r="C59" t="n">
-        <v>4480.55712890625</v>
+        <v>1095.978190104167</v>
       </c>
       <c r="D59" t="n">
-        <v>0.1274755758543809</v>
+        <v>0.1197865152110656</v>
       </c>
       <c r="E59" t="n">
-        <v>4480.526896158854</v>
+        <v>1095.975362141927</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -1401,16 +1401,16 @@
         <v>59</v>
       </c>
       <c r="B60" t="n">
-        <v>0.1342688004175822</v>
+        <v>0.09972136467695236</v>
       </c>
       <c r="C60" t="n">
-        <v>4391.5556640625</v>
+        <v>1075.122680664062</v>
       </c>
       <c r="D60" t="n">
-        <v>0.09323482339580853</v>
+        <v>0.09518347991009553</v>
       </c>
       <c r="E60" t="n">
-        <v>4391.514567057292</v>
+        <v>1075.118133544922</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -1418,16 +1418,16 @@
         <v>60</v>
       </c>
       <c r="B61" t="n">
-        <v>0.1413722634315491</v>
+        <v>0.07464086016019185</v>
       </c>
       <c r="C61" t="n">
-        <v>4304.266276041667</v>
+        <v>1054.648885091146</v>
       </c>
       <c r="D61" t="n">
-        <v>0.09655394839743774</v>
+        <v>0.09556516756614049</v>
       </c>
       <c r="E61" t="n">
-        <v>4304.221557617188</v>
+        <v>1054.669779459635</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -1435,16 +1435,16 @@
         <v>61</v>
       </c>
       <c r="B62" t="n">
-        <v>0.1927936971187592</v>
+        <v>0.119125264386336</v>
       </c>
       <c r="C62" t="n">
-        <v>4218.67138671875</v>
+        <v>1034.624104817708</v>
       </c>
       <c r="D62" t="n">
-        <v>0.1129280347377062</v>
+        <v>0.1021608877927065</v>
       </c>
       <c r="E62" t="n">
-        <v>4218.591389973958</v>
+        <v>1034.607167561849</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -1452,16 +1452,16 @@
         <v>62</v>
       </c>
       <c r="B63" t="n">
-        <v>0.08471943438053131</v>
+        <v>0.1341814671953519</v>
       </c>
       <c r="C63" t="n">
-        <v>4134.536783854167</v>
+        <v>1014.94032796224</v>
       </c>
       <c r="D63" t="n">
-        <v>0.1025370229035616</v>
+        <v>0.1134429431209962</v>
       </c>
       <c r="E63" t="n">
-        <v>4134.554606119792</v>
+        <v>1014.919596354167</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -1469,16 +1469,16 @@
         <v>63</v>
       </c>
       <c r="B64" t="n">
-        <v>0.1090225155154864</v>
+        <v>0.09143832325935364</v>
       </c>
       <c r="C64" t="n">
-        <v>4052.126627604167</v>
+        <v>995.5628051757812</v>
       </c>
       <c r="D64" t="n">
-        <v>0.1003789609918992</v>
+        <v>0.08408128377050161</v>
       </c>
       <c r="E64" t="n">
-        <v>4052.117940266927</v>
+        <v>995.5554555257162</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -1486,16 +1486,16 @@
         <v>64</v>
       </c>
       <c r="B65" t="n">
-        <v>0.1277210960785548</v>
+        <v>0.08223421250780423</v>
       </c>
       <c r="C65" t="n">
-        <v>3971.27587890625</v>
+        <v>976.5784505208334</v>
       </c>
       <c r="D65" t="n">
-        <v>0.1689874405662219</v>
+        <v>0.08096441843857367</v>
       </c>
       <c r="E65" t="n">
-        <v>3971.317179361979</v>
+        <v>976.5771738688151</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -1503,16 +1503,16 @@
         <v>65</v>
       </c>
       <c r="B66" t="n">
-        <v>0.1187540839115779</v>
+        <v>0.08741013333201408</v>
       </c>
       <c r="C66" t="n">
-        <v>3891.936442057292</v>
+        <v>957.9585164388021</v>
       </c>
       <c r="D66" t="n">
-        <v>0.1770301423966885</v>
+        <v>0.08931949641555548</v>
       </c>
       <c r="E66" t="n">
-        <v>3891.99462890625</v>
+        <v>957.9604187011719</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -1520,16 +1520,16 @@
         <v>66</v>
       </c>
       <c r="B67" t="n">
-        <v>0.117133554071188</v>
+        <v>0.1260115976134936</v>
       </c>
       <c r="C67" t="n">
-        <v>3814.115152994792</v>
+        <v>939.7183634440104</v>
       </c>
       <c r="D67" t="n">
-        <v>0.1531914075215658</v>
+        <v>0.09029077179729939</v>
       </c>
       <c r="E67" t="n">
-        <v>3814.15126546224</v>
+        <v>939.6826426188151</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -1537,16 +1537,16 @@
         <v>67</v>
       </c>
       <c r="B68" t="n">
-        <v>0.1417101969321569</v>
+        <v>0.1109094992280006</v>
       </c>
       <c r="C68" t="n">
-        <v>3737.805501302083</v>
+        <v>921.7660725911459</v>
       </c>
       <c r="D68" t="n">
-        <v>0.1042976826429367</v>
+        <v>0.1305865167329709</v>
       </c>
       <c r="E68" t="n">
-        <v>3737.768107096354</v>
+        <v>921.7857462565104</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -1554,16 +1554,16 @@
         <v>68</v>
       </c>
       <c r="B69" t="n">
-        <v>0.09897858152786891</v>
+        <v>0.1031823307275772</v>
       </c>
       <c r="C69" t="n">
-        <v>3662.881917317708</v>
+        <v>904.1556803385416</v>
       </c>
       <c r="D69" t="n">
-        <v>0.09786671648422877</v>
+        <v>0.1216585294653972</v>
       </c>
       <c r="E69" t="n">
-        <v>3662.880839029948</v>
+        <v>904.1741485595703</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -1571,16 +1571,16 @@
         <v>69</v>
       </c>
       <c r="B70" t="n">
-        <v>0.09820271655917168</v>
+        <v>0.09333748122056325</v>
       </c>
       <c r="C70" t="n">
-        <v>3589.426106770833</v>
+        <v>886.8733113606771</v>
       </c>
       <c r="D70" t="n">
-        <v>0.1325947654743989</v>
+        <v>0.08864520210772753</v>
       </c>
       <c r="E70" t="n">
-        <v>3589.46044921875</v>
+        <v>886.8686167399088</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -1588,16 +1588,16 @@
         <v>70</v>
       </c>
       <c r="B71" t="n">
-        <v>0.2152558366457621</v>
+        <v>0.07843972494204839</v>
       </c>
       <c r="C71" t="n">
-        <v>3517.491129557292</v>
+        <v>869.9088134765625</v>
       </c>
       <c r="D71" t="n">
-        <v>0.1386843727280696</v>
+        <v>0.08497911707187693</v>
       </c>
       <c r="E71" t="n">
-        <v>3517.414571126302</v>
+        <v>869.9153696695963</v>
       </c>
     </row>
     <row r="72" spans="1:5">
@@ -1605,16 +1605,16 @@
         <v>71</v>
       </c>
       <c r="B72" t="n">
-        <v>0.1404079049825668</v>
+        <v>0.122553343574206</v>
       </c>
       <c r="C72" t="n">
-        <v>3446.747802734375</v>
+        <v>853.3194986979166</v>
       </c>
       <c r="D72" t="n">
-        <v>0.1048250241825978</v>
+        <v>0.1236884035170078</v>
       </c>
       <c r="E72" t="n">
-        <v>3446.712219238281</v>
+        <v>853.3206532796224</v>
       </c>
     </row>
     <row r="73" spans="1:5">
@@ -1622,16 +1622,16 @@
         <v>72</v>
       </c>
       <c r="B73" t="n">
-        <v>0.2602969259023666</v>
+        <v>0.08788306514422099</v>
       </c>
       <c r="C73" t="n">
-        <v>3377.548421223958</v>
+        <v>836.96337890625</v>
       </c>
       <c r="D73" t="n">
-        <v>0.1702822173635165</v>
+        <v>0.09712238113085429</v>
       </c>
       <c r="E73" t="n">
-        <v>3377.458414713542</v>
+        <v>836.9726155598959</v>
       </c>
     </row>
     <row r="74" spans="1:5">
@@ -1639,16 +1639,16 @@
         <v>73</v>
       </c>
       <c r="B74" t="n">
-        <v>0.1053500448664029</v>
+        <v>0.08902672429879506</v>
       </c>
       <c r="C74" t="n">
-        <v>3309.404622395833</v>
+        <v>820.9491984049479</v>
       </c>
       <c r="D74" t="n">
-        <v>0.09437977336347103</v>
+        <v>0.08110362446556489</v>
       </c>
       <c r="E74" t="n">
-        <v>3309.393676757812</v>
+        <v>820.9412740071615</v>
       </c>
     </row>
     <row r="75" spans="1:5">
@@ -1656,16 +1656,16 @@
         <v>74</v>
       </c>
       <c r="B75" t="n">
-        <v>0.1074800975620747</v>
+        <v>0.08834479997555415</v>
       </c>
       <c r="C75" t="n">
-        <v>3242.718343098958</v>
+        <v>805.2337443033854</v>
       </c>
       <c r="D75" t="n">
-        <v>0.1335415324817101</v>
+        <v>0.09025762385378282</v>
       </c>
       <c r="E75" t="n">
-        <v>3242.744405110677</v>
+        <v>805.2356414794922</v>
       </c>
     </row>
     <row r="76" spans="1:5">
@@ -1673,16 +1673,16 @@
         <v>75</v>
       </c>
       <c r="B76" t="n">
-        <v>0.1225675716996193</v>
+        <v>0.08098416651288669</v>
       </c>
       <c r="C76" t="n">
-        <v>3177.32568359375</v>
+        <v>789.8070475260416</v>
       </c>
       <c r="D76" t="n">
-        <v>0.1280139610171318</v>
+        <v>0.08778893450895946</v>
       </c>
       <c r="E76" t="n">
-        <v>3177.331136067708</v>
+        <v>789.8138783772787</v>
       </c>
     </row>
     <row r="77" spans="1:5">
@@ -1690,16 +1690,16 @@
         <v>76</v>
       </c>
       <c r="B77" t="n">
-        <v>0.1595973819494247</v>
+        <v>0.09959524869918823</v>
       </c>
       <c r="C77" t="n">
-        <v>3113.21484375</v>
+        <v>774.6968790690104</v>
       </c>
       <c r="D77" t="n">
-        <v>0.1136753695706526</v>
+        <v>0.111335897197326</v>
       </c>
       <c r="E77" t="n">
-        <v>3113.168863932292</v>
+        <v>774.7086334228516</v>
       </c>
     </row>
     <row r="78" spans="1:5">
@@ -1707,16 +1707,16 @@
         <v>77</v>
       </c>
       <c r="B78" t="n">
-        <v>0.1699473907550176</v>
+        <v>0.0761537899573644</v>
       </c>
       <c r="C78" t="n">
-        <v>3050.312744140625</v>
+        <v>759.8308919270834</v>
       </c>
       <c r="D78" t="n">
-        <v>0.1200896718849738</v>
+        <v>0.0919844564050436</v>
       </c>
       <c r="E78" t="n">
-        <v>3050.262919108073</v>
+        <v>759.8467508951823</v>
       </c>
     </row>
     <row r="79" spans="1:5">
@@ -1724,16 +1724,16 @@
         <v>78</v>
       </c>
       <c r="B79" t="n">
-        <v>0.2122562030951182</v>
+        <v>0.07291063790520032</v>
       </c>
       <c r="C79" t="n">
-        <v>2988.654459635417</v>
+        <v>745.2658894856771</v>
       </c>
       <c r="D79" t="n">
-        <v>0.1728116224209467</v>
+        <v>0.08342477958649397</v>
       </c>
       <c r="E79" t="n">
-        <v>2988.614949544271</v>
+        <v>745.2764129638672</v>
       </c>
     </row>
     <row r="80" spans="1:5">
@@ -1741,16 +1741,16 @@
         <v>79</v>
       </c>
       <c r="B80" t="n">
-        <v>0.1474500844875971</v>
+        <v>0.07359405234456062</v>
       </c>
       <c r="C80" t="n">
-        <v>2928.0830078125</v>
+        <v>730.9786783854166</v>
       </c>
       <c r="D80" t="n">
-        <v>0.1474208037058512</v>
+        <v>0.08121112330506246</v>
       </c>
       <c r="E80" t="n">
-        <v>2928.082967122396</v>
+        <v>730.9863026936849</v>
       </c>
     </row>
     <row r="81" spans="1:5">
@@ -1758,16 +1758,16 @@
         <v>80</v>
       </c>
       <c r="B81" t="n">
-        <v>0.1407740140954653</v>
+        <v>0.08906767144799232</v>
       </c>
       <c r="C81" t="n">
-        <v>2868.738444010417</v>
+        <v>716.9751586914062</v>
       </c>
       <c r="D81" t="n">
-        <v>0.1066480316221714</v>
+        <v>0.1193430696924527</v>
       </c>
       <c r="E81" t="n">
-        <v>2868.704284667969</v>
+        <v>717.0054524739584</v>
       </c>
     </row>
     <row r="82" spans="1:5">
@@ -1775,16 +1775,16 @@
         <v>81</v>
       </c>
       <c r="B82" t="n">
-        <v>0.1151366730531057</v>
+        <v>0.07868514955043793</v>
       </c>
       <c r="C82" t="n">
-        <v>2810.521647135417</v>
+        <v>703.2124226888021</v>
       </c>
       <c r="D82" t="n">
-        <v>0.1256132591515779</v>
+        <v>0.08464682567864656</v>
       </c>
       <c r="E82" t="n">
-        <v>2810.532104492188</v>
+        <v>703.2183736165365</v>
       </c>
     </row>
     <row r="83" spans="1:5">
@@ -1792,16 +1792,16 @@
         <v>82</v>
       </c>
       <c r="B83" t="n">
-        <v>0.1347944289445877</v>
+        <v>0.1116437688469887</v>
       </c>
       <c r="C83" t="n">
-        <v>2753.478271484375</v>
+        <v>689.7537434895834</v>
       </c>
       <c r="D83" t="n">
-        <v>0.09845609838763873</v>
+        <v>0.0935195271546642</v>
       </c>
       <c r="E83" t="n">
-        <v>2753.441975911458</v>
+        <v>689.7356160481771</v>
       </c>
     </row>
     <row r="84" spans="1:5">
@@ -1809,16 +1809,16 @@
         <v>83</v>
       </c>
       <c r="B84" t="n">
-        <v>0.4350025653839111</v>
+        <v>0.08704425518711408</v>
       </c>
       <c r="C84" t="n">
-        <v>2697.825439453125</v>
+        <v>676.4931640625</v>
       </c>
       <c r="D84" t="n">
-        <v>0.3836649234096209</v>
+        <v>0.1055586909254392</v>
       </c>
       <c r="E84" t="n">
-        <v>2697.774047851562</v>
+        <v>676.5116882324219</v>
       </c>
     </row>
     <row r="85" spans="1:5">
@@ -1826,16 +1826,16 @@
         <v>84</v>
       </c>
       <c r="B85" t="n">
-        <v>0.242572953303655</v>
+        <v>0.09470217674970627</v>
       </c>
       <c r="C85" t="n">
-        <v>2642.771891276042</v>
+        <v>663.5159708658854</v>
       </c>
       <c r="D85" t="n">
-        <v>0.1840975259741147</v>
+        <v>0.1127931742618481</v>
       </c>
       <c r="E85" t="n">
-        <v>2642.713399251302</v>
+        <v>663.5340576171875</v>
       </c>
     </row>
     <row r="86" spans="1:5">
@@ -1843,16 +1843,16 @@
         <v>85</v>
       </c>
       <c r="B86" t="n">
-        <v>0.1110558783014615</v>
+        <v>0.08379596844315529</v>
       </c>
       <c r="C86" t="n">
-        <v>2588.849365234375</v>
+        <v>650.7677612304688</v>
       </c>
       <c r="D86" t="n">
-        <v>0.1102405805140734</v>
+        <v>0.09593585226684809</v>
       </c>
       <c r="E86" t="n">
-        <v>2588.84853108724</v>
+        <v>650.7798919677734</v>
       </c>
     </row>
     <row r="87" spans="1:5">
@@ -1860,16 +1860,16 @@
         <v>86</v>
       </c>
       <c r="B87" t="n">
-        <v>0.1144447202483813</v>
+        <v>0.0781673938035965</v>
       </c>
       <c r="C87" t="n">
-        <v>2536.104410807292</v>
+        <v>638.2677408854166</v>
       </c>
       <c r="D87" t="n">
-        <v>0.1452676194409529</v>
+        <v>0.0835003290946285</v>
       </c>
       <c r="E87" t="n">
-        <v>2536.135274251302</v>
+        <v>638.2730814615885</v>
       </c>
     </row>
     <row r="88" spans="1:5">
@@ -1877,16 +1877,16 @@
         <v>87</v>
       </c>
       <c r="B88" t="n">
-        <v>0.1156663633882999</v>
+        <v>0.08697690318028133</v>
       </c>
       <c r="C88" t="n">
-        <v>2484.385009765625</v>
+        <v>626.0209554036459</v>
       </c>
       <c r="D88" t="n">
-        <v>0.1290706271926562</v>
+        <v>0.08658496538798015</v>
       </c>
       <c r="E88" t="n">
-        <v>2484.398356119792</v>
+        <v>626.0205485026041</v>
       </c>
     </row>
     <row r="89" spans="1:5">
@@ -1894,16 +1894,16 @@
         <v>88</v>
       </c>
       <c r="B89" t="n">
-        <v>0.1891373892625173</v>
+        <v>0.07908882945775986</v>
       </c>
       <c r="C89" t="n">
-        <v>2433.747233072917</v>
+        <v>613.99072265625</v>
       </c>
       <c r="D89" t="n">
-        <v>0.1214341828599572</v>
+        <v>0.08120753864447276</v>
       </c>
       <c r="E89" t="n">
-        <v>2433.679545084635</v>
+        <v>613.9928385416666</v>
       </c>
     </row>
     <row r="90" spans="1:5">
@@ -1911,16 +1911,16 @@
         <v>89</v>
       </c>
       <c r="B90" t="n">
-        <v>0.1707107524077097</v>
+        <v>0.08823460092147191</v>
       </c>
       <c r="C90" t="n">
-        <v>2384.005696614583</v>
+        <v>602.2078043619791</v>
       </c>
       <c r="D90" t="n">
-        <v>0.1108192193011443</v>
+        <v>0.08681150836249192</v>
       </c>
       <c r="E90" t="n">
-        <v>2383.94580078125</v>
+        <v>602.2063852945963</v>
       </c>
     </row>
     <row r="91" spans="1:5">
@@ -1928,16 +1928,16 @@
         <v>90</v>
       </c>
       <c r="B91" t="n">
-        <v>0.1285184149940809</v>
+        <v>0.1351699630419413</v>
       </c>
       <c r="C91" t="n">
-        <v>2335.211995442708</v>
+        <v>590.6883138020834</v>
       </c>
       <c r="D91" t="n">
-        <v>0.1588334441184998</v>
+        <v>0.1187124953915675</v>
       </c>
       <c r="E91" t="n">
-        <v>2335.24228922526</v>
+        <v>590.6718800862631</v>
       </c>
     </row>
     <row r="92" spans="1:5">
@@ -1945,16 +1945,16 @@
         <v>91</v>
       </c>
       <c r="B92" t="n">
-        <v>0.1185475488503774</v>
+        <v>0.09369259576002757</v>
       </c>
       <c r="C92" t="n">
-        <v>2287.408284505208</v>
+        <v>579.3037719726562</v>
       </c>
       <c r="D92" t="n">
-        <v>0.09170062219103177</v>
+        <v>0.106061680863301</v>
       </c>
       <c r="E92" t="n">
-        <v>2287.381490071615</v>
+        <v>579.3161366780599</v>
       </c>
     </row>
     <row r="93" spans="1:5">
@@ -1962,16 +1962,16 @@
         <v>92</v>
       </c>
       <c r="B93" t="n">
-        <v>0.2155022273461024</v>
+        <v>0.07481113821268082</v>
       </c>
       <c r="C93" t="n">
-        <v>2240.647867838542</v>
+        <v>568.1597900390625</v>
       </c>
       <c r="D93" t="n">
-        <v>0.1690668438871702</v>
+        <v>0.08066549710929394</v>
       </c>
       <c r="E93" t="n">
-        <v>2240.601440429688</v>
+        <v>568.1656188964844</v>
       </c>
     </row>
     <row r="94" spans="1:5">
@@ -1979,16 +1979,16 @@
         <v>93</v>
       </c>
       <c r="B94" t="n">
-        <v>0.1216014176607132</v>
+        <v>0.1040262008706729</v>
       </c>
       <c r="C94" t="n">
-        <v>2194.618977864583</v>
+        <v>557.2784627278646</v>
       </c>
       <c r="D94" t="n">
-        <v>0.09906443022191525</v>
+        <v>0.09126637813945611</v>
       </c>
       <c r="E94" t="n">
-        <v>2194.596354166667</v>
+        <v>557.2657063802084</v>
       </c>
     </row>
     <row r="95" spans="1:5">
@@ -1996,16 +1996,16 @@
         <v>94</v>
       </c>
       <c r="B95" t="n">
-        <v>0.1327352126439413</v>
+        <v>0.07589945072929065</v>
       </c>
       <c r="C95" t="n">
-        <v>2149.600504557292</v>
+        <v>546.5489298502604</v>
       </c>
       <c r="D95" t="n">
-        <v>0.1708969374497732</v>
+        <v>0.0834131979693969</v>
       </c>
       <c r="E95" t="n">
-        <v>2149.638671875</v>
+        <v>546.5564371744791</v>
       </c>
     </row>
     <row r="96" spans="1:5">
@@ -2013,16 +2013,16 @@
         <v>95</v>
       </c>
       <c r="B96" t="n">
-        <v>0.158534973859787</v>
+        <v>0.08631016314029694</v>
       </c>
       <c r="C96" t="n">
-        <v>2105.482259114583</v>
+        <v>536.0644734700521</v>
       </c>
       <c r="D96" t="n">
-        <v>0.2131829187273979</v>
+        <v>0.07856817388286193</v>
       </c>
       <c r="E96" t="n">
-        <v>2105.536966959635</v>
+        <v>536.0567220052084</v>
       </c>
     </row>
     <row r="97" spans="1:5">
@@ -2030,16 +2030,16 @@
         <v>96</v>
       </c>
       <c r="B97" t="n">
-        <v>0.1751695921023687</v>
+        <v>0.080768587688605</v>
       </c>
       <c r="C97" t="n">
-        <v>2062.229329427083</v>
+        <v>525.7671305338541</v>
       </c>
       <c r="D97" t="n">
-        <v>0.1144255169977744</v>
+        <v>0.08536448515951633</v>
       </c>
       <c r="E97" t="n">
-        <v>2062.168599446615</v>
+        <v>525.7717132568359</v>
       </c>
     </row>
     <row r="98" spans="1:5">
@@ -2047,16 +2047,16 @@
         <v>97</v>
       </c>
       <c r="B98" t="n">
-        <v>0.1110347509384155</v>
+        <v>0.07759607210755348</v>
       </c>
       <c r="C98" t="n">
-        <v>2019.749064127604</v>
+        <v>515.6708577473959</v>
       </c>
       <c r="D98" t="n">
-        <v>0.1187404685964187</v>
+        <v>0.07617350605626901</v>
       </c>
       <c r="E98" t="n">
-        <v>2019.75678507487</v>
+        <v>515.6694285074869</v>
       </c>
     </row>
     <row r="99" spans="1:5">
@@ -2064,16 +2064,16 @@
         <v>98</v>
       </c>
       <c r="B99" t="n">
-        <v>0.09937490274508794</v>
+        <v>0.1268489509820938</v>
       </c>
       <c r="C99" t="n">
-        <v>1978.160034179688</v>
+        <v>505.8244222005208</v>
       </c>
       <c r="D99" t="n">
-        <v>0.1129577063644926</v>
+        <v>0.1410396186014017</v>
       </c>
       <c r="E99" t="n">
-        <v>1978.173624674479</v>
+        <v>505.8386154174805</v>
       </c>
     </row>
     <row r="100" spans="1:5">
@@ -2081,16 +2081,16 @@
         <v>99</v>
       </c>
       <c r="B100" t="n">
-        <v>0.1299635047713915</v>
+        <v>0.08788294593493144</v>
       </c>
       <c r="C100" t="n">
-        <v>1937.437703450521</v>
+        <v>496.0825703938802</v>
       </c>
       <c r="D100" t="n">
-        <v>0.1662378646433353</v>
+        <v>0.1026389375329018</v>
       </c>
       <c r="E100" t="n">
-        <v>1937.473968505859</v>
+        <v>496.0973307291667</v>
       </c>
     </row>
     <row r="101" spans="1:5">
@@ -2098,16 +2098,16 @@
         <v>100</v>
       </c>
       <c r="B101" t="n">
-        <v>0.1375433926781019</v>
+        <v>0.1241095786293348</v>
       </c>
       <c r="C101" t="n">
-        <v>1897.502807617188</v>
+        <v>486.6043701171875</v>
       </c>
       <c r="D101" t="n">
-        <v>0.184360266973575</v>
+        <v>0.1024123970419168</v>
       </c>
       <c r="E101" t="n">
-        <v>1897.549591064453</v>
+        <v>486.5826695760091</v>
       </c>
     </row>
     <row r="102" spans="1:5">
@@ -2115,16 +2115,16 @@
         <v>101</v>
       </c>
       <c r="B102" t="n">
-        <v>0.1539869581659635</v>
+        <v>0.08004357293248177</v>
       </c>
       <c r="C102" t="n">
-        <v>1858.375325520833</v>
+        <v>477.2311706542969</v>
       </c>
       <c r="D102" t="n">
-        <v>0.101739713922143</v>
+        <v>0.07995984175552924</v>
       </c>
       <c r="E102" t="n">
-        <v>1858.323048909505</v>
+        <v>477.231081644694</v>
       </c>
     </row>
     <row r="103" spans="1:5">
@@ -2132,16 +2132,16 @@
         <v>102</v>
       </c>
       <c r="B103" t="n">
-        <v>0.09727811440825462</v>
+        <v>0.09953539321819942</v>
       </c>
       <c r="C103" t="n">
-        <v>1819.951049804688</v>
+        <v>468.1037394205729</v>
       </c>
       <c r="D103" t="n">
-        <v>0.1032888923461239</v>
+        <v>0.09002101731797059</v>
       </c>
       <c r="E103" t="n">
-        <v>1819.957041422526</v>
+        <v>468.0942357381185</v>
       </c>
     </row>
     <row r="104" spans="1:5">
@@ -2149,16 +2149,16 @@
         <v>103</v>
       </c>
       <c r="B104" t="n">
-        <v>0.1127622990558545</v>
+        <v>0.08608100190758705</v>
       </c>
       <c r="C104" t="n">
-        <v>1782.362060546875</v>
+        <v>459.1223042805989</v>
       </c>
       <c r="D104" t="n">
-        <v>0.1699540838599205</v>
+        <v>0.08516218699514866</v>
       </c>
       <c r="E104" t="n">
-        <v>1782.419209798177</v>
+        <v>459.1213862101237</v>
       </c>
     </row>
     <row r="105" spans="1:5">
@@ -2166,16 +2166,16 @@
         <v>104</v>
       </c>
       <c r="B105" t="n">
-        <v>0.1145253777503967</v>
+        <v>0.07677571599682172</v>
       </c>
       <c r="C105" t="n">
-        <v>1745.510620117188</v>
+        <v>450.3199055989583</v>
       </c>
       <c r="D105" t="n">
-        <v>0.1051368912061055</v>
+        <v>0.08856516300390165</v>
       </c>
       <c r="E105" t="n">
-        <v>1745.501261393229</v>
+        <v>450.3317031860352</v>
       </c>
     </row>
     <row r="106" spans="1:5">
@@ -2183,16 +2183,16 @@
         <v>105</v>
       </c>
       <c r="B106" t="n">
-        <v>0.1097024728854497</v>
+        <v>0.1003946264584859</v>
       </c>
       <c r="C106" t="n">
-        <v>1709.391438802083</v>
+        <v>441.7230122884114</v>
       </c>
       <c r="D106" t="n">
-        <v>0.1627816061178843</v>
+        <v>0.08546752668917179</v>
       </c>
       <c r="E106" t="n">
-        <v>1709.444539388021</v>
+        <v>441.7080866495768</v>
       </c>
     </row>
     <row r="107" spans="1:5">
@@ -2200,16 +2200,16 @@
         <v>106</v>
       </c>
       <c r="B107" t="n">
-        <v>0.2593885163466136</v>
+        <v>0.08204513788223267</v>
       </c>
       <c r="C107" t="n">
-        <v>1674.1494140625</v>
+        <v>433.2531941731771</v>
       </c>
       <c r="D107" t="n">
-        <v>0.2065019967655341</v>
+        <v>0.07941072961936395</v>
       </c>
       <c r="E107" t="n">
-        <v>1674.096506754557</v>
+        <v>433.2505544026693</v>
       </c>
     </row>
     <row r="108" spans="1:5">
@@ -2217,16 +2217,16 @@
         <v>107</v>
       </c>
       <c r="B108" t="n">
-        <v>0.1817932923634847</v>
+        <v>0.07872346664468448</v>
       </c>
       <c r="C108" t="n">
-        <v>1639.390014648438</v>
+        <v>424.9634297688802</v>
       </c>
       <c r="D108" t="n">
-        <v>0.1610871348530054</v>
+        <v>0.07972735601166885</v>
       </c>
       <c r="E108" t="n">
-        <v>1639.369344075521</v>
+        <v>424.9644317626953</v>
       </c>
     </row>
     <row r="109" spans="1:5">
@@ -2234,16 +2234,16 @@
         <v>108</v>
       </c>
       <c r="B109" t="n">
-        <v>0.21684264143308</v>
+        <v>0.07933819169799487</v>
       </c>
       <c r="C109" t="n">
-        <v>1605.440714518229</v>
+        <v>416.8399658203125</v>
       </c>
       <c r="D109" t="n">
-        <v>0.1531906711558501</v>
+        <v>0.1032502626379331</v>
       </c>
       <c r="E109" t="n">
-        <v>1605.377065022786</v>
+        <v>416.8638661702474</v>
       </c>
     </row>
     <row r="110" spans="1:5">
@@ -2251,16 +2251,16 @@
         <v>109</v>
       </c>
       <c r="B110" t="n">
-        <v>0.1371175994475683</v>
+        <v>0.09194911022981007</v>
       </c>
       <c r="C110" t="n">
-        <v>1572.058837890625</v>
+        <v>408.8890584309896</v>
       </c>
       <c r="D110" t="n">
-        <v>0.20315021276474</v>
+        <v>0.09179513218502204</v>
       </c>
       <c r="E110" t="n">
-        <v>1572.12489827474</v>
+        <v>408.8889134724935</v>
       </c>
     </row>
     <row r="111" spans="1:5">
@@ -2268,16 +2268,16 @@
         <v>110</v>
       </c>
       <c r="B111" t="n">
-        <v>0.09388939912120502</v>
+        <v>0.08482174575328827</v>
       </c>
       <c r="C111" t="n">
-        <v>1539.389322916667</v>
+        <v>401.0758260091146</v>
       </c>
       <c r="D111" t="n">
-        <v>0.1563051647196213</v>
+        <v>0.08566797524690628</v>
       </c>
       <c r="E111" t="n">
-        <v>1539.451721191406</v>
+        <v>401.0766677856445</v>
       </c>
     </row>
     <row r="112" spans="1:5">
@@ -2285,16 +2285,16 @@
         <v>111</v>
       </c>
       <c r="B112" t="n">
-        <v>0.2062905182441076</v>
+        <v>0.08119110763072968</v>
       </c>
       <c r="C112" t="n">
-        <v>1507.533935546875</v>
+        <v>393.4195149739583</v>
       </c>
       <c r="D112" t="n">
-        <v>0.1629015430808067</v>
+        <v>0.08207860946034391</v>
       </c>
       <c r="E112" t="n">
-        <v>1507.490549723307</v>
+        <v>393.4203974405925</v>
       </c>
     </row>
     <row r="113" spans="1:5">
@@ -2302,16 +2302,16 @@
         <v>112</v>
       </c>
       <c r="B113" t="n">
-        <v>0.1132412999868393</v>
+        <v>0.1307377045353254</v>
       </c>
       <c r="C113" t="n">
-        <v>1476.1201171875</v>
+        <v>385.9679565429688</v>
       </c>
       <c r="D113" t="n">
-        <v>0.1104395302633445</v>
+        <v>0.119896840925018</v>
       </c>
       <c r="E113" t="n">
-        <v>1476.117268880208</v>
+        <v>385.9571151733398</v>
       </c>
     </row>
     <row r="114" spans="1:5">
@@ -2319,16 +2319,16 @@
         <v>113</v>
       </c>
       <c r="B114" t="n">
-        <v>0.2092794130245844</v>
+        <v>0.08405735964576404</v>
       </c>
       <c r="C114" t="n">
-        <v>1445.529256184896</v>
+        <v>378.5697530110677</v>
       </c>
       <c r="D114" t="n">
-        <v>0.1757983304560184</v>
+        <v>0.08779309131205082</v>
       </c>
       <c r="E114" t="n">
-        <v>1445.495747884115</v>
+        <v>378.573481241862</v>
       </c>
     </row>
     <row r="115" spans="1:5">
@@ -2336,16 +2336,16 @@
         <v>114</v>
       </c>
       <c r="B115" t="n">
-        <v>0.1046872586011887</v>
+        <v>0.1619187047084173</v>
       </c>
       <c r="C115" t="n">
-        <v>1415.359212239583</v>
+        <v>371.4417928059896</v>
       </c>
       <c r="D115" t="n">
-        <v>0.1441192446897427</v>
+        <v>0.1296217019359271</v>
       </c>
       <c r="E115" t="n">
-        <v>1415.398640950521</v>
+        <v>371.4094950358073</v>
       </c>
     </row>
     <row r="116" spans="1:5">
@@ -2353,16 +2353,16 @@
         <v>115</v>
       </c>
       <c r="B116" t="n">
-        <v>0.1552534103393555</v>
+        <v>0.08414473384618759</v>
       </c>
       <c r="C116" t="n">
-        <v>1385.955444335938</v>
+        <v>364.3037414550781</v>
       </c>
       <c r="D116" t="n">
-        <v>0.1034922848145167</v>
+        <v>0.1007255781441927</v>
       </c>
       <c r="E116" t="n">
-        <v>1385.903676350911</v>
+        <v>364.3203303019206</v>
       </c>
     </row>
     <row r="117" spans="1:5">
@@ -2370,16 +2370,16 @@
         <v>116</v>
       </c>
       <c r="B117" t="n">
-        <v>0.1154101404050986</v>
+        <v>0.1006275961796443</v>
       </c>
       <c r="C117" t="n">
-        <v>1357.062052408854</v>
+        <v>357.4005839029948</v>
       </c>
       <c r="D117" t="n">
-        <v>0.1740947750707467</v>
+        <v>0.1057433976481358</v>
       </c>
       <c r="E117" t="n">
-        <v>1357.120747884115</v>
+        <v>357.4057006835938</v>
       </c>
     </row>
     <row r="118" spans="1:5">
@@ -2387,16 +2387,16 @@
         <v>117</v>
       </c>
       <c r="B118" t="n">
-        <v>0.07331490082045396</v>
+        <v>0.08704206844170888</v>
       </c>
       <c r="C118" t="n">
-        <v>1328.754638671875</v>
+        <v>350.6043192545573</v>
       </c>
       <c r="D118" t="n">
-        <v>0.12553094762067</v>
+        <v>0.08795890212059021</v>
       </c>
       <c r="E118" t="n">
-        <v>1328.806803385417</v>
+        <v>350.6052322387695</v>
       </c>
     </row>
     <row r="119" spans="1:5">
@@ -2404,16 +2404,16 @@
         <v>118</v>
       </c>
       <c r="B119" t="n">
-        <v>0.1011728892723719</v>
+        <v>0.09716320037841797</v>
       </c>
       <c r="C119" t="n">
-        <v>1301.093709309896</v>
+        <v>343.9670715332031</v>
       </c>
       <c r="D119" t="n">
-        <v>0.1933967260022958</v>
+        <v>0.1274783822397391</v>
       </c>
       <c r="E119" t="n">
-        <v>1301.18593343099</v>
+        <v>343.9973856608073</v>
       </c>
     </row>
     <row r="120" spans="1:5">
@@ -2421,16 +2421,16 @@
         <v>119</v>
       </c>
       <c r="B120" t="n">
-        <v>0.09328163166840871</v>
+        <v>0.07744866609573364</v>
       </c>
       <c r="C120" t="n">
-        <v>1273.962931315104</v>
+        <v>337.4334004720052</v>
       </c>
       <c r="D120" t="n">
-        <v>0.1075247892489036</v>
+        <v>0.08461283737172683</v>
       </c>
       <c r="E120" t="n">
-        <v>1273.977162679036</v>
+        <v>337.4405670166016</v>
       </c>
     </row>
     <row r="121" spans="1:5">
@@ -2438,16 +2438,16 @@
         <v>120</v>
       </c>
       <c r="B121" t="n">
-        <v>0.2123034844795863</v>
+        <v>0.07789947216709454</v>
       </c>
       <c r="C121" t="n">
-        <v>1247.513834635417</v>
+        <v>331.0495503743489</v>
       </c>
       <c r="D121" t="n">
-        <v>0.150747386738658</v>
+        <v>0.1018408853560686</v>
       </c>
       <c r="E121" t="n">
-        <v>1247.452260335286</v>
+        <v>331.073491414388</v>
       </c>
     </row>
     <row r="122" spans="1:5">
@@ -2455,16 +2455,16 @@
         <v>121</v>
       </c>
       <c r="B122" t="n">
-        <v>0.09958155204852422</v>
+        <v>0.07435025274753571</v>
       </c>
       <c r="C122" t="n">
-        <v>1221.379679361979</v>
+        <v>324.7899271647136</v>
       </c>
       <c r="D122" t="n">
-        <v>0.1511192151034872</v>
+        <v>0.08660375792533159</v>
       </c>
       <c r="E122" t="n">
-        <v>1221.431274414062</v>
+        <v>324.8021799723307</v>
       </c>
     </row>
     <row r="123" spans="1:5">
@@ -2472,16 +2472,16 @@
         <v>122</v>
       </c>
       <c r="B123" t="n">
-        <v>0.1247920021414757</v>
+        <v>0.0839824303984642</v>
       </c>
       <c r="C123" t="n">
-        <v>1195.91943359375</v>
+        <v>318.6689046223958</v>
       </c>
       <c r="D123" t="n">
-        <v>0.1428903217116992</v>
+        <v>0.08318388151625793</v>
       </c>
       <c r="E123" t="n">
-        <v>1195.937571207682</v>
+        <v>318.6681162516276</v>
       </c>
     </row>
     <row r="124" spans="1:5">
@@ -2489,16 +2489,16 @@
         <v>123</v>
       </c>
       <c r="B124" t="n">
-        <v>0.08846596255898476</v>
+        <v>0.08548910294969876</v>
       </c>
       <c r="C124" t="n">
-        <v>1170.922932942708</v>
+        <v>312.6623026529948</v>
       </c>
       <c r="D124" t="n">
-        <v>0.1100733261555433</v>
+        <v>0.09330425411462784</v>
       </c>
       <c r="E124" t="n">
-        <v>1170.944539388021</v>
+        <v>312.6701151529948</v>
       </c>
     </row>
     <row r="125" spans="1:5">
@@ -2506,16 +2506,16 @@
         <v>124</v>
       </c>
       <c r="B125" t="n">
-        <v>0.1062950392564138</v>
+        <v>0.07920832062760989</v>
       </c>
       <c r="C125" t="n">
-        <v>1146.492431640625</v>
+        <v>306.7696940104167</v>
       </c>
       <c r="D125" t="n">
-        <v>0.09529246824483077</v>
+        <v>0.08137949975207448</v>
       </c>
       <c r="E125" t="n">
-        <v>1146.48139444987</v>
+        <v>306.7718709309896</v>
       </c>
     </row>
     <row r="126" spans="1:5">
@@ -2523,16 +2523,16 @@
         <v>125</v>
       </c>
       <c r="B126" t="n">
-        <v>0.09977373356620471</v>
+        <v>0.0775052619477113</v>
       </c>
       <c r="C126" t="n">
-        <v>1122.544311523438</v>
+        <v>301.0003255208333</v>
       </c>
       <c r="D126" t="n">
-        <v>0.1374504299213489</v>
+        <v>0.08205666082600753</v>
       </c>
       <c r="E126" t="n">
-        <v>1122.582021077474</v>
+        <v>301.0048726399739</v>
       </c>
     </row>
     <row r="127" spans="1:5">
@@ -2540,16 +2540,16 @@
         <v>126</v>
       </c>
       <c r="B127" t="n">
-        <v>0.1462878162662188</v>
+        <v>0.07070628429452579</v>
       </c>
       <c r="C127" t="n">
-        <v>1099.144327799479</v>
+        <v>295.3422546386719</v>
       </c>
       <c r="D127" t="n">
-        <v>0.2250662340472142</v>
+        <v>0.09077725311120351</v>
       </c>
       <c r="E127" t="n">
-        <v>1099.223103841146</v>
+        <v>295.3623250325521</v>
       </c>
     </row>
     <row r="128" spans="1:5">
@@ -2557,16 +2557,16 @@
         <v>127</v>
       </c>
       <c r="B128" t="n">
-        <v>0.143444187939167</v>
+        <v>0.1118899881839752</v>
       </c>
       <c r="C128" t="n">
-        <v>1076.183024088542</v>
+        <v>289.8467508951823</v>
       </c>
       <c r="D128" t="n">
-        <v>0.1222277395427227</v>
+        <v>0.1020327713340521</v>
       </c>
       <c r="E128" t="n">
-        <v>1076.161783854167</v>
+        <v>289.8368962605794</v>
       </c>
     </row>
     <row r="129" spans="1:5">
@@ -2574,16 +2574,16 @@
         <v>128</v>
       </c>
       <c r="B129" t="n">
-        <v>0.1414012163877487</v>
+        <v>0.08387905980149905</v>
       </c>
       <c r="C129" t="n">
-        <v>1053.697672526042</v>
+        <v>284.3943888346354</v>
       </c>
       <c r="D129" t="n">
-        <v>0.1755153778940439</v>
+        <v>0.1255289341012637</v>
       </c>
       <c r="E129" t="n">
-        <v>1053.731791178385</v>
+        <v>284.4360453287761</v>
       </c>
     </row>
     <row r="130" spans="1:5">
@@ -2591,16 +2591,16 @@
         <v>129</v>
       </c>
       <c r="B130" t="n">
-        <v>0.1164979164799054</v>
+        <v>0.1018608684341113</v>
       </c>
       <c r="C130" t="n">
-        <v>1031.661295572917</v>
+        <v>279.0980428059896</v>
       </c>
       <c r="D130" t="n">
-        <v>0.114547826970617</v>
+        <v>0.1207514870911837</v>
       </c>
       <c r="E130" t="n">
-        <v>1031.659342447917</v>
+        <v>279.1169331868489</v>
       </c>
     </row>
     <row r="131" spans="1:5">
@@ -2608,16 +2608,16 @@
         <v>130</v>
       </c>
       <c r="B131" t="n">
-        <v>0.09358199437459309</v>
+        <v>0.07318712274233501</v>
       </c>
       <c r="C131" t="n">
-        <v>1010.08437093099</v>
+        <v>273.8642069498698</v>
       </c>
       <c r="D131" t="n">
-        <v>0.1133861225098372</v>
+        <v>0.113777474189798</v>
       </c>
       <c r="E131" t="n">
-        <v>1010.10417175293</v>
+        <v>273.9047876993815</v>
       </c>
     </row>
     <row r="132" spans="1:5">
@@ -2625,16 +2625,16 @@
         <v>131</v>
       </c>
       <c r="B132" t="n">
-        <v>0.1076239769657453</v>
+        <v>0.07361594587564468</v>
       </c>
       <c r="C132" t="n">
-        <v>988.9929402669271</v>
+        <v>268.7651977539062</v>
       </c>
       <c r="D132" t="n">
-        <v>0.09546022675931454</v>
+        <v>0.09509195821980636</v>
       </c>
       <c r="E132" t="n">
-        <v>988.9807790120443</v>
+        <v>268.7866795857747</v>
       </c>
     </row>
     <row r="133" spans="1:5">
@@ -2642,16 +2642,16 @@
         <v>132</v>
       </c>
       <c r="B133" t="n">
-        <v>0.1640094965696335</v>
+        <v>0.09237919747829437</v>
       </c>
       <c r="C133" t="n">
-        <v>968.3840535481771</v>
+        <v>263.7882385253906</v>
       </c>
       <c r="D133" t="n">
-        <v>0.1235191517819961</v>
+        <v>0.09423198581983645</v>
       </c>
       <c r="E133" t="n">
-        <v>968.3435414632162</v>
+        <v>263.7900975545247</v>
       </c>
     </row>
     <row r="134" spans="1:5">
@@ -2659,16 +2659,16 @@
         <v>133</v>
       </c>
       <c r="B134" t="n">
-        <v>0.1950363864501317</v>
+        <v>0.08085235704978307</v>
       </c>
       <c r="C134" t="n">
-        <v>948.1832478841146</v>
+        <v>258.8824259440104</v>
       </c>
       <c r="D134" t="n">
-        <v>0.2555286188920339</v>
+        <v>0.0885511189699173</v>
       </c>
       <c r="E134" t="n">
-        <v>948.2437438964844</v>
+        <v>258.8901265462239</v>
       </c>
     </row>
     <row r="135" spans="1:5">
@@ -2676,16 +2676,16 @@
         <v>134</v>
       </c>
       <c r="B135" t="n">
-        <v>0.1411026592055956</v>
+        <v>0.09643834829330444</v>
       </c>
       <c r="C135" t="n">
-        <v>928.3262736002604</v>
+        <v>254.1031799316406</v>
       </c>
       <c r="D135" t="n">
-        <v>0.1241238377988338</v>
+        <v>0.1163748968392611</v>
       </c>
       <c r="E135" t="n">
-        <v>928.3092956542969</v>
+        <v>254.1231168111165</v>
       </c>
     </row>
     <row r="136" spans="1:5">
@@ -2693,16 +2693,16 @@
         <v>135</v>
       </c>
       <c r="B136" t="n">
-        <v>0.08135632798075676</v>
+        <v>0.08450821911295255</v>
       </c>
       <c r="C136" t="n">
-        <v>908.8770751953125</v>
+        <v>249.3948465983073</v>
       </c>
       <c r="D136" t="n">
-        <v>0.1089915962268909</v>
+        <v>0.102710693453749</v>
       </c>
       <c r="E136" t="n">
-        <v>908.9047037760416</v>
+        <v>249.4130452473958</v>
       </c>
     </row>
     <row r="137" spans="1:5">
@@ -2710,16 +2710,16 @@
         <v>136</v>
       </c>
       <c r="B137" t="n">
-        <v>0.2072759519020716</v>
+        <v>0.1025608753164609</v>
       </c>
       <c r="C137" t="n">
-        <v>890.0200805664062</v>
+        <v>244.8134969075521</v>
       </c>
       <c r="D137" t="n">
-        <v>0.1633345223963261</v>
+        <v>0.1070520132780075</v>
       </c>
       <c r="E137" t="n">
-        <v>889.9761505126953</v>
+        <v>244.8179918924967</v>
       </c>
     </row>
     <row r="138" spans="1:5">
@@ -2727,16 +2727,16 @@
         <v>137</v>
       </c>
       <c r="B138" t="n">
-        <v>0.1091802020867666</v>
+        <v>0.09877174844344457</v>
       </c>
       <c r="C138" t="n">
-        <v>871.3414713541666</v>
+        <v>240.3042144775391</v>
       </c>
       <c r="D138" t="n">
-        <v>0.1396063802142938</v>
+        <v>0.09822544765969117</v>
       </c>
       <c r="E138" t="n">
-        <v>871.3719126383463</v>
+        <v>240.3036702473958</v>
       </c>
     </row>
     <row r="139" spans="1:5">
@@ -2744,16 +2744,16 @@
         <v>138</v>
       </c>
       <c r="B139" t="n">
-        <v>0.1078822476168474</v>
+        <v>0.07723058760166168</v>
       </c>
       <c r="C139" t="n">
-        <v>853.1514689127604</v>
+        <v>235.8687337239583</v>
       </c>
       <c r="D139" t="n">
-        <v>0.1602817019447684</v>
+        <v>0.09016501344740391</v>
       </c>
       <c r="E139" t="n">
-        <v>853.2038625081381</v>
+        <v>235.8816706339518</v>
       </c>
     </row>
     <row r="140" spans="1:5">
@@ -2761,16 +2761,16 @@
         <v>139</v>
       </c>
       <c r="B140" t="n">
-        <v>0.08494353294372559</v>
+        <v>0.08431849380334218</v>
       </c>
       <c r="C140" t="n">
-        <v>835.3249308268229</v>
+        <v>231.5530090332031</v>
       </c>
       <c r="D140" t="n">
-        <v>0.147409042964379</v>
+        <v>0.107799893245101</v>
       </c>
       <c r="E140" t="n">
-        <v>835.3874003092448</v>
+        <v>231.576488494873</v>
       </c>
     </row>
     <row r="141" spans="1:5">
@@ -2778,16 +2778,16 @@
         <v>140</v>
       </c>
       <c r="B141" t="n">
-        <v>0.1346478462219238</v>
+        <v>0.07519533112645149</v>
       </c>
       <c r="C141" t="n">
-        <v>817.9486897786459</v>
+        <v>227.3099670410156</v>
       </c>
       <c r="D141" t="n">
-        <v>0.1116686171541611</v>
+        <v>0.09518920723348856</v>
       </c>
       <c r="E141" t="n">
-        <v>817.9256998697916</v>
+        <v>227.3299611409505</v>
       </c>
     </row>
     <row r="142" spans="1:5">
@@ -2795,16 +2795,16 @@
         <v>141</v>
       </c>
       <c r="B142" t="n">
-        <v>0.2376495550076167</v>
+        <v>0.1130071754256884</v>
       </c>
       <c r="C142" t="n">
-        <v>800.9952392578125</v>
+        <v>223.2005767822266</v>
       </c>
       <c r="D142" t="n">
-        <v>0.166733726238211</v>
+        <v>0.1018533017486334</v>
       </c>
       <c r="E142" t="n">
-        <v>800.9243113199869</v>
+        <v>223.1894200642904</v>
       </c>
     </row>
     <row r="143" spans="1:5">
@@ -2812,16 +2812,16 @@
         <v>142</v>
       </c>
       <c r="B143" t="n">
-        <v>0.097893671443065</v>
+        <v>0.0805125596622626</v>
       </c>
       <c r="C143" t="n">
-        <v>784.1616617838541</v>
+        <v>219.1077016194662</v>
       </c>
       <c r="D143" t="n">
-        <v>0.1198331750929356</v>
+        <v>0.09508067741990089</v>
       </c>
       <c r="E143" t="n">
-        <v>784.1836090087891</v>
+        <v>219.1222712198893</v>
       </c>
     </row>
     <row r="144" spans="1:5">
@@ -2829,16 +2829,16 @@
         <v>143</v>
       </c>
       <c r="B144" t="n">
-        <v>0.1409470587968826</v>
+        <v>0.09193875888983409</v>
       </c>
       <c r="C144" t="n">
-        <v>767.8665974934896</v>
+        <v>215.1421712239583</v>
       </c>
       <c r="D144" t="n">
-        <v>0.1185699248065551</v>
+        <v>0.09077991855641206</v>
       </c>
       <c r="E144" t="n">
-        <v>767.8442128499349</v>
+        <v>215.1410128275553</v>
       </c>
     </row>
     <row r="145" spans="1:5">
@@ -2846,16 +2846,16 @@
         <v>144</v>
       </c>
       <c r="B145" t="n">
-        <v>0.1921062966187795</v>
+        <v>0.08194477235277493</v>
       </c>
       <c r="C145" t="n">
-        <v>751.9273885091146</v>
+        <v>211.237299601237</v>
       </c>
       <c r="D145" t="n">
-        <v>0.1281685642898083</v>
+        <v>0.08600996186335881</v>
       </c>
       <c r="E145" t="n">
-        <v>751.8634592692057</v>
+        <v>211.2413609822591</v>
       </c>
     </row>
     <row r="146" spans="1:5">
@@ -2863,16 +2863,16 @@
         <v>145</v>
       </c>
       <c r="B146" t="n">
-        <v>0.2213017543156942</v>
+        <v>0.08479397868116696</v>
       </c>
       <c r="C146" t="n">
-        <v>736.3082682291666</v>
+        <v>207.4255981445312</v>
       </c>
       <c r="D146" t="n">
-        <v>0.1651532848676046</v>
+        <v>0.1196603340407213</v>
       </c>
       <c r="E146" t="n">
-        <v>736.2521260579427</v>
+        <v>207.4604657491048</v>
       </c>
     </row>
     <row r="147" spans="1:5">
@@ -2880,16 +2880,16 @@
         <v>146</v>
       </c>
       <c r="B147" t="n">
-        <v>0.1295203976333141</v>
+        <v>0.0740077868103981</v>
       </c>
       <c r="C147" t="n">
-        <v>720.9041341145834</v>
+        <v>203.6803181966146</v>
       </c>
       <c r="D147" t="n">
-        <v>0.2079464644193649</v>
+        <v>0.09096997727950414</v>
       </c>
       <c r="E147" t="n">
-        <v>720.9825439453125</v>
+        <v>203.6972770690918</v>
       </c>
     </row>
     <row r="148" spans="1:5">
@@ -2897,16 +2897,16 @@
         <v>147</v>
       </c>
       <c r="B148" t="n">
-        <v>0.1948297669490179</v>
+        <v>0.07332335288325946</v>
       </c>
       <c r="C148" t="n">
-        <v>705.9856160481771</v>
+        <v>200.0228169759115</v>
       </c>
       <c r="D148" t="n">
-        <v>0.1388057364771763</v>
+        <v>0.09633357698718707</v>
       </c>
       <c r="E148" t="n">
-        <v>705.9295756022135</v>
+        <v>200.0458272298177</v>
       </c>
     </row>
     <row r="149" spans="1:5">
@@ -2914,16 +2914,16 @@
         <v>148</v>
       </c>
       <c r="B149" t="n">
-        <v>0.1173925374945005</v>
+        <v>0.134772482017676</v>
       </c>
       <c r="C149" t="n">
-        <v>691.2456258138021</v>
+        <v>196.5033518473307</v>
       </c>
       <c r="D149" t="n">
-        <v>0.1426987803230683</v>
+        <v>0.1127025273938974</v>
       </c>
       <c r="E149" t="n">
-        <v>691.2709401448568</v>
+        <v>196.4812787373861</v>
       </c>
     </row>
     <row r="150" spans="1:5">
@@ -2931,16 +2931,16 @@
         <v>149</v>
       </c>
       <c r="B150" t="n">
-        <v>0.1177482704321543</v>
+        <v>0.08132387325167656</v>
       </c>
       <c r="C150" t="n">
-        <v>676.8991088867188</v>
+        <v>192.9434611002604</v>
       </c>
       <c r="D150" t="n">
-        <v>0.2454929587741693</v>
+        <v>0.09116126814236243</v>
       </c>
       <c r="E150" t="n">
-        <v>677.0268605550131</v>
+        <v>192.9532979329427</v>
       </c>
     </row>
     <row r="151" spans="1:5">
@@ -2948,16 +2948,16 @@
         <v>150</v>
       </c>
       <c r="B151" t="n">
-        <v>0.1291107597450415</v>
+        <v>0.08316196128726006</v>
       </c>
       <c r="C151" t="n">
-        <v>662.8738810221354</v>
+        <v>189.5118560791016</v>
       </c>
       <c r="D151" t="n">
-        <v>0.2228136273721854</v>
+        <v>0.11561521080633</v>
       </c>
       <c r="E151" t="n">
-        <v>662.9675598144531</v>
+        <v>189.5443102518717</v>
       </c>
     </row>
     <row r="152" spans="1:5">
@@ -2965,16 +2965,16 @@
         <v>151</v>
       </c>
       <c r="B152" t="n">
-        <v>0.124126876393954</v>
+        <v>0.1146229480703672</v>
       </c>
       <c r="C152" t="n">
-        <v>649.1358032226562</v>
+        <v>186.1814575195312</v>
       </c>
       <c r="D152" t="n">
-        <v>0.1316839711119731</v>
+        <v>0.1058743745088577</v>
       </c>
       <c r="E152" t="n">
-        <v>649.1433410644531</v>
+        <v>186.1727078755697</v>
       </c>
     </row>
     <row r="153" spans="1:5">
@@ -2982,16 +2982,16 @@
         <v>152</v>
       </c>
       <c r="B153" t="n">
-        <v>0.1380082964897156</v>
+        <v>0.1041339412331581</v>
       </c>
       <c r="C153" t="n">
-        <v>635.7108764648438</v>
+        <v>182.8793538411458</v>
       </c>
       <c r="D153" t="n">
-        <v>0.1433047633618116</v>
+        <v>0.1278543310860793</v>
       </c>
       <c r="E153" t="n">
-        <v>635.7161763509115</v>
+        <v>182.9030774434408</v>
       </c>
     </row>
     <row r="154" spans="1:5">
@@ -2999,16 +2999,16 @@
         <v>153</v>
       </c>
       <c r="B154" t="n">
-        <v>0.1695469270149867</v>
+        <v>0.09837809205055237</v>
       </c>
       <c r="C154" t="n">
-        <v>622.5931803385416</v>
+        <v>179.6512502034505</v>
       </c>
       <c r="D154" t="n">
-        <v>0.1477087338765462</v>
+        <v>0.1034757445255915</v>
       </c>
       <c r="E154" t="n">
-        <v>622.5713399251302</v>
+        <v>179.6563479105631</v>
       </c>
     </row>
     <row r="155" spans="1:5">
@@ -3016,16 +3016,16 @@
         <v>154</v>
       </c>
       <c r="B155" t="n">
-        <v>0.1050861515104771</v>
+        <v>0.08488243569930394</v>
       </c>
       <c r="C155" t="n">
-        <v>609.6656901041666</v>
+        <v>176.4825693766276</v>
       </c>
       <c r="D155" t="n">
-        <v>0.1423649843782187</v>
+        <v>0.1180079970508814</v>
       </c>
       <c r="E155" t="n">
-        <v>609.7029825846354</v>
+        <v>176.515697479248</v>
       </c>
     </row>
     <row r="156" spans="1:5">
@@ -3033,16 +3033,16 @@
         <v>155</v>
       </c>
       <c r="B156" t="n">
-        <v>0.1464394852519035</v>
+        <v>0.07149875288208325</v>
       </c>
       <c r="C156" t="n">
-        <v>597.1232503255209</v>
+        <v>173.3810679117838</v>
       </c>
       <c r="D156" t="n">
-        <v>0.2184017300605774</v>
+        <v>0.09657743759453297</v>
       </c>
       <c r="E156" t="n">
-        <v>597.1952107747396</v>
+        <v>173.4061482747396</v>
       </c>
     </row>
     <row r="157" spans="1:5">
@@ -3050,16 +3050,16 @@
         <v>156</v>
       </c>
       <c r="B157" t="n">
-        <v>0.1638239746292432</v>
+        <v>0.07329022511839867</v>
       </c>
       <c r="C157" t="n">
-        <v>584.8322347005209</v>
+        <v>170.3589680989583</v>
       </c>
       <c r="D157" t="n">
-        <v>0.2409068035582701</v>
+        <v>0.09037686232477427</v>
       </c>
       <c r="E157" t="n">
-        <v>584.9093017578125</v>
+        <v>170.3760515848795</v>
       </c>
     </row>
     <row r="158" spans="1:5">
@@ -3067,16 +3067,16 @@
         <v>157</v>
       </c>
       <c r="B158" t="n">
-        <v>0.1470626269777616</v>
+        <v>0.08724625408649445</v>
       </c>
       <c r="C158" t="n">
-        <v>572.7762044270834</v>
+        <v>167.4127655029297</v>
       </c>
       <c r="D158" t="n">
-        <v>0.1351458219190439</v>
+        <v>0.1174854723115762</v>
       </c>
       <c r="E158" t="n">
-        <v>572.7642974853516</v>
+        <v>167.4430020650228</v>
       </c>
     </row>
     <row r="159" spans="1:5">
@@ -3084,16 +3084,16 @@
         <v>158</v>
       </c>
       <c r="B159" t="n">
-        <v>0.1997836182514826</v>
+        <v>0.1125120694438616</v>
       </c>
       <c r="C159" t="n">
-        <v>561.0504964192709</v>
+        <v>164.5409952799479</v>
       </c>
       <c r="D159" t="n">
-        <v>0.1414510974039634</v>
+        <v>0.1061829583098491</v>
       </c>
       <c r="E159" t="n">
-        <v>560.9921569824219</v>
+        <v>164.5346654256185</v>
       </c>
     </row>
     <row r="160" spans="1:5">
@@ -3101,16 +3101,16 @@
         <v>159</v>
       </c>
       <c r="B160" t="n">
-        <v>0.2295461098353068</v>
+        <v>0.08483130857348442</v>
       </c>
       <c r="C160" t="n">
-        <v>549.5578409830729</v>
+        <v>161.6778055826823</v>
       </c>
       <c r="D160" t="n">
-        <v>0.1580467304835717</v>
+        <v>0.1161130455633004</v>
       </c>
       <c r="E160" t="n">
-        <v>549.4863586425781</v>
+        <v>161.7090861002604</v>
       </c>
     </row>
     <row r="161" spans="1:5">
@@ -3118,16 +3118,16 @@
         <v>160</v>
       </c>
       <c r="B161" t="n">
-        <v>0.2267067929108938</v>
+        <v>0.09180749952793121</v>
       </c>
       <c r="C161" t="n">
-        <v>538.2854817708334</v>
+        <v>158.9093882242838</v>
       </c>
       <c r="D161" t="n">
-        <v>0.1582127871612708</v>
+        <v>0.09839564065138499</v>
       </c>
       <c r="E161" t="n">
-        <v>538.2169850667318</v>
+        <v>158.9159787495931</v>
       </c>
     </row>
     <row r="162" spans="1:5">
@@ -3135,16 +3135,16 @@
         <v>161</v>
       </c>
       <c r="B162" t="n">
-        <v>0.1272784645358721</v>
+        <v>0.09083014974991481</v>
       </c>
       <c r="C162" t="n">
-        <v>527.1631876627604</v>
+        <v>156.1913096110026</v>
       </c>
       <c r="D162" t="n">
-        <v>0.11340883312126</v>
+        <v>0.09461008260647456</v>
       </c>
       <c r="E162" t="n">
-        <v>527.1492970784506</v>
+        <v>156.1950899759928</v>
       </c>
     </row>
     <row r="163" spans="1:5">
@@ -3152,16 +3152,16 @@
         <v>162</v>
       </c>
       <c r="B163" t="n">
-        <v>0.1214418709278107</v>
+        <v>0.08229059477647145</v>
       </c>
       <c r="C163" t="n">
-        <v>516.3763834635416</v>
+        <v>153.5227915445963</v>
       </c>
       <c r="D163" t="n">
-        <v>0.1042484690745672</v>
+        <v>0.08507410638655226</v>
       </c>
       <c r="E163" t="n">
-        <v>516.3591918945312</v>
+        <v>153.5255788167318</v>
       </c>
     </row>
     <row r="164" spans="1:5">
@@ -3169,16 +3169,16 @@
         <v>163</v>
       </c>
       <c r="B164" t="n">
-        <v>0.1044423182805379</v>
+        <v>0.09175530572732289</v>
       </c>
       <c r="C164" t="n">
-        <v>505.8147379557292</v>
+        <v>150.9291737874349</v>
       </c>
       <c r="D164" t="n">
-        <v>0.1208579111844301</v>
+        <v>0.1057551726698875</v>
       </c>
       <c r="E164" t="n">
-        <v>505.8311589558919</v>
+        <v>150.9431737263997</v>
       </c>
     </row>
     <row r="165" spans="1:5">
@@ -3186,16 +3186,16 @@
         <v>164</v>
       </c>
       <c r="B165" t="n">
-        <v>0.1225860963265101</v>
+        <v>0.09616346408923467</v>
       </c>
       <c r="C165" t="n">
-        <v>495.5196431477864</v>
+        <v>148.385243733724</v>
       </c>
       <c r="D165" t="n">
-        <v>0.1466673625012239</v>
+        <v>0.1126067355896036</v>
       </c>
       <c r="E165" t="n">
-        <v>495.5437367757161</v>
+        <v>148.401683807373</v>
       </c>
     </row>
     <row r="166" spans="1:5">
@@ -3203,16 +3203,16 @@
         <v>165</v>
       </c>
       <c r="B166" t="n">
-        <v>0.2619517644246419</v>
+        <v>0.07823240384459496</v>
       </c>
       <c r="C166" t="n">
-        <v>485.5742085774739</v>
+        <v>145.8728586832682</v>
       </c>
       <c r="D166" t="n">
-        <v>0.196455688526233</v>
+        <v>0.1045914093653361</v>
       </c>
       <c r="E166" t="n">
-        <v>485.5087102254232</v>
+        <v>145.8992233276367</v>
       </c>
     </row>
     <row r="167" spans="1:5">
@@ -3220,16 +3220,16 @@
         <v>166</v>
       </c>
       <c r="B167" t="n">
-        <v>0.1357788306971391</v>
+        <v>0.1268127411603928</v>
       </c>
       <c r="C167" t="n">
-        <v>475.5854187011719</v>
+        <v>143.4804534912109</v>
       </c>
       <c r="D167" t="n">
-        <v>0.2586430410544078</v>
+        <v>0.1255769617855549</v>
       </c>
       <c r="E167" t="n">
-        <v>475.7082875569661</v>
+        <v>143.4792162577311</v>
       </c>
     </row>
     <row r="168" spans="1:5">
@@ -3237,16 +3237,16 @@
         <v>167</v>
       </c>
       <c r="B168" t="n">
-        <v>0.1982585986455282</v>
+        <v>0.112153634428978</v>
       </c>
       <c r="C168" t="n">
-        <v>466.0055643717448</v>
+        <v>141.0768636067708</v>
       </c>
       <c r="D168" t="n">
-        <v>0.1529409270733595</v>
+        <v>0.1045322908709447</v>
       </c>
       <c r="E168" t="n">
-        <v>465.9602559407552</v>
+        <v>141.0692392985026</v>
       </c>
     </row>
     <row r="169" spans="1:5">
@@ -3254,16 +3254,16 @@
         <v>168</v>
       </c>
       <c r="B169" t="n">
-        <v>0.1375094677011172</v>
+        <v>0.07909906034668286</v>
       </c>
       <c r="C169" t="n">
-        <v>456.5146179199219</v>
+        <v>138.7057189941406</v>
       </c>
       <c r="D169" t="n">
-        <v>0.147635060052077</v>
+        <v>0.110944451764226</v>
       </c>
       <c r="E169" t="n">
-        <v>456.5247421264648</v>
+        <v>138.7375628153483</v>
       </c>
     </row>
     <row r="170" spans="1:5">
@@ -3271,16 +3271,16 @@
         <v>169</v>
       </c>
       <c r="B170" t="n">
-        <v>0.1645323683818181</v>
+        <v>0.08174451937278111</v>
       </c>
       <c r="C170" t="n">
-        <v>447.3202311197917</v>
+        <v>136.4199574788412</v>
       </c>
       <c r="D170" t="n">
-        <v>0.1428632326424122</v>
+        <v>0.09431616154809792</v>
       </c>
       <c r="E170" t="n">
-        <v>447.2985636393229</v>
+        <v>136.4325256347656</v>
       </c>
     </row>
     <row r="171" spans="1:5">
@@ -3288,16 +3288,16 @@
         <v>170</v>
       </c>
       <c r="B171" t="n">
-        <v>0.1423819065093994</v>
+        <v>0.08550345773498218</v>
       </c>
       <c r="C171" t="n">
-        <v>438.2819010416667</v>
+        <v>134.1838633219401</v>
       </c>
       <c r="D171" t="n">
-        <v>0.1225211943189303</v>
+        <v>0.09865985810756683</v>
       </c>
       <c r="E171" t="n">
-        <v>438.2620468139648</v>
+        <v>134.1970176696777</v>
       </c>
     </row>
     <row r="172" spans="1:5">
@@ -3305,16 +3305,16 @@
         <v>171</v>
       </c>
       <c r="B172" t="n">
-        <v>0.2028468201557795</v>
+        <v>0.07509311350683372</v>
       </c>
       <c r="C172" t="n">
-        <v>429.5250244140625</v>
+        <v>131.9810994466146</v>
       </c>
       <c r="D172" t="n">
-        <v>0.148146815598011</v>
+        <v>0.1049618031829596</v>
       </c>
       <c r="E172" t="n">
-        <v>429.4703216552734</v>
+        <v>132.0109672546387</v>
       </c>
     </row>
     <row r="173" spans="1:5">
@@ -3322,16 +3322,16 @@
         <v>172</v>
       </c>
       <c r="B173" t="n">
-        <v>0.2446738382180532</v>
+        <v>0.08068189149101575</v>
       </c>
       <c r="C173" t="n">
-        <v>420.9453837076823</v>
+        <v>129.8414560953776</v>
       </c>
       <c r="D173" t="n">
-        <v>0.1972519867122173</v>
+        <v>0.0946472380310297</v>
       </c>
       <c r="E173" t="n">
-        <v>420.8979644775391</v>
+        <v>129.8554178873698</v>
       </c>
     </row>
     <row r="174" spans="1:5">
@@ -3339,16 +3339,16 @@
         <v>173</v>
       </c>
       <c r="B174" t="n">
-        <v>0.2363531887531281</v>
+        <v>0.08288783580064774</v>
       </c>
       <c r="C174" t="n">
-        <v>412.5083923339844</v>
+        <v>127.7442042032878</v>
       </c>
       <c r="D174" t="n">
-        <v>0.1818577845891317</v>
+        <v>0.09055458536992471</v>
       </c>
       <c r="E174" t="n">
-        <v>412.4538904825847</v>
+        <v>127.7518711090088</v>
       </c>
     </row>
     <row r="175" spans="1:5">
@@ -3356,16 +3356,16 @@
         <v>174</v>
       </c>
       <c r="B175" t="n">
-        <v>0.1933125406503677</v>
+        <v>0.07610061516364415</v>
       </c>
       <c r="C175" t="n">
-        <v>404.2254435221354</v>
+        <v>125.6827748616536</v>
       </c>
       <c r="D175" t="n">
-        <v>0.1506547840933005</v>
+        <v>0.09225677140057087</v>
       </c>
       <c r="E175" t="n">
-        <v>404.1827901204427</v>
+        <v>125.6989313761393</v>
       </c>
     </row>
     <row r="176" spans="1:5">
@@ -3373,16 +3373,16 @@
         <v>175</v>
       </c>
       <c r="B176" t="n">
-        <v>0.1703707973162333</v>
+        <v>0.08132098863522212</v>
       </c>
       <c r="C176" t="n">
-        <v>396.1467488606771</v>
+        <v>123.6770553588867</v>
       </c>
       <c r="D176" t="n">
-        <v>0.125607056543231</v>
+        <v>0.09172588679939508</v>
       </c>
       <c r="E176" t="n">
-        <v>396.1019872029622</v>
+        <v>123.6874599456787</v>
       </c>
     </row>
     <row r="177" spans="1:5">
@@ -3390,16 +3390,16 @@
         <v>176</v>
       </c>
       <c r="B177" t="n">
-        <v>0.1154386922717094</v>
+        <v>0.07698352883259456</v>
       </c>
       <c r="C177" t="n">
-        <v>388.2171020507812</v>
+        <v>121.7047297159831</v>
       </c>
       <c r="D177" t="n">
-        <v>0.1618059308578571</v>
+        <v>0.09641726190845172</v>
       </c>
       <c r="E177" t="n">
-        <v>388.2634607950847</v>
+        <v>121.7241636912028</v>
       </c>
     </row>
     <row r="178" spans="1:5">
@@ -3407,16 +3407,16 @@
         <v>177</v>
       </c>
       <c r="B178" t="n">
-        <v>0.1223773062229156</v>
+        <v>0.07236564780275027</v>
       </c>
       <c r="C178" t="n">
-        <v>380.5252990722656</v>
+        <v>119.7742258707682</v>
       </c>
       <c r="D178" t="n">
-        <v>0.1882166806608438</v>
+        <v>0.09484309703111649</v>
       </c>
       <c r="E178" t="n">
-        <v>380.5911382039388</v>
+        <v>119.7967027028402</v>
       </c>
     </row>
     <row r="179" spans="1:5">
@@ -3424,16 +3424,16 @@
         <v>178</v>
       </c>
       <c r="B179" t="n">
-        <v>0.1968152423699697</v>
+        <v>0.1146545559167862</v>
       </c>
       <c r="C179" t="n">
-        <v>373.0742899576823</v>
+        <v>117.9319458007812</v>
       </c>
       <c r="D179" t="n">
-        <v>0.1447083844492833</v>
+        <v>0.1158255810538928</v>
       </c>
       <c r="E179" t="n">
-        <v>373.0221811930339</v>
+        <v>117.9331162770589</v>
       </c>
     </row>
     <row r="180" spans="1:5">
@@ -3441,16 +3441,16 @@
         <v>179</v>
       </c>
       <c r="B180" t="n">
-        <v>0.1059421729296446</v>
+        <v>0.08376819764574368</v>
       </c>
       <c r="C180" t="n">
-        <v>365.6250712076823</v>
+        <v>116.0567194620768</v>
       </c>
       <c r="D180" t="n">
-        <v>0.2191661261022091</v>
+        <v>0.1018436029553413</v>
       </c>
       <c r="E180" t="n">
-        <v>365.7383041381836</v>
+        <v>116.0747966766357</v>
       </c>
     </row>
     <row r="181" spans="1:5">
@@ -3458,16 +3458,16 @@
         <v>180</v>
       </c>
       <c r="B181" t="n">
-        <v>0.2148657441139221</v>
+        <v>0.1053973411520322</v>
       </c>
       <c r="C181" t="n">
-        <v>358.5416158040364</v>
+        <v>114.2735417683919</v>
       </c>
       <c r="D181" t="n">
-        <v>0.1580400069554647</v>
+        <v>0.1077624981602033</v>
       </c>
       <c r="E181" t="n">
-        <v>358.4847895304362</v>
+        <v>114.2759062449137</v>
       </c>
     </row>
     <row r="182" spans="1:5">
@@ -3475,16 +3475,16 @@
         <v>181</v>
       </c>
       <c r="B182" t="n">
-        <v>0.2019276569286982</v>
+        <v>0.08399137730399768</v>
       </c>
       <c r="C182" t="n">
-        <v>351.4987487792969</v>
+        <v>112.4858754475911</v>
       </c>
       <c r="D182" t="n">
-        <v>0.1459947886566321</v>
+        <v>0.1073358620827397</v>
       </c>
       <c r="E182" t="n">
-        <v>351.4428075154622</v>
+        <v>112.5092213948568</v>
       </c>
     </row>
     <row r="183" spans="1:5">
@@ -3492,16 +3492,16 @@
         <v>182</v>
       </c>
       <c r="B183" t="n">
-        <v>0.2744964311520259</v>
+        <v>0.07879266639550526</v>
       </c>
       <c r="C183" t="n">
-        <v>344.6979675292969</v>
+        <v>110.7525151570638</v>
       </c>
       <c r="D183" t="n">
-        <v>0.1983912227054437</v>
+        <v>0.1083135983596245</v>
       </c>
       <c r="E183" t="n">
-        <v>344.6218566894531</v>
+        <v>110.7820351918538</v>
       </c>
     </row>
     <row r="184" spans="1:5">
@@ -3509,16 +3509,16 @@
         <v>183</v>
       </c>
       <c r="B184" t="n">
-        <v>0.1185656065742175</v>
+        <v>0.1314909905195236</v>
       </c>
       <c r="C184" t="n">
-        <v>337.8245239257812</v>
+        <v>109.1140874226888</v>
       </c>
       <c r="D184" t="n">
-        <v>0.1687195785343647</v>
+        <v>0.1302852996935447</v>
       </c>
       <c r="E184" t="n">
-        <v>337.8746795654297</v>
+        <v>109.1128832499186</v>
       </c>
     </row>
     <row r="185" spans="1:5">
@@ -3526,16 +3526,16 @@
         <v>184</v>
       </c>
       <c r="B185" t="n">
-        <v>0.09603148822983106</v>
+        <v>0.08195121337970097</v>
       </c>
       <c r="C185" t="n">
-        <v>331.2364095052083</v>
+        <v>107.4092000325521</v>
       </c>
       <c r="D185" t="n">
-        <v>0.16940605143706</v>
+        <v>0.1040819908181826</v>
       </c>
       <c r="E185" t="n">
-        <v>331.3097839355469</v>
+        <v>107.43132909139</v>
       </c>
     </row>
     <row r="186" spans="1:5">
@@ -3543,16 +3543,16 @@
         <v>185</v>
       </c>
       <c r="B186" t="n">
-        <v>0.1452045490344366</v>
+        <v>0.1257798199852308</v>
       </c>
       <c r="C186" t="n">
-        <v>324.8672790527344</v>
+        <v>105.8340555826823</v>
       </c>
       <c r="D186" t="n">
-        <v>0.1397025200227896</v>
+        <v>0.1268014057228962</v>
       </c>
       <c r="E186" t="n">
-        <v>324.8617808024089</v>
+        <v>105.835075378418</v>
       </c>
     </row>
     <row r="187" spans="1:5">
@@ -3560,16 +3560,16 @@
         <v>186</v>
       </c>
       <c r="B187" t="n">
-        <v>0.1431012004613876</v>
+        <v>0.07542349398136139</v>
       </c>
       <c r="C187" t="n">
-        <v>318.5907389322917</v>
+        <v>104.1984990437825</v>
       </c>
       <c r="D187" t="n">
-        <v>0.1173455951114496</v>
+        <v>0.1063796898039679</v>
       </c>
       <c r="E187" t="n">
-        <v>318.5649719238281</v>
+        <v>104.2294578552246</v>
       </c>
     </row>
     <row r="188" spans="1:5">
@@ -3577,16 +3577,16 @@
         <v>187</v>
       </c>
       <c r="B188" t="n">
-        <v>0.1419143229722977</v>
+        <v>0.07789440949757893</v>
       </c>
       <c r="C188" t="n">
-        <v>312.4563903808594</v>
+        <v>102.6504720052083</v>
       </c>
       <c r="D188" t="n">
-        <v>0.1221883141746124</v>
+        <v>0.1195737260083358</v>
       </c>
       <c r="E188" t="n">
-        <v>312.4366734822591</v>
+        <v>102.6921526590983</v>
       </c>
     </row>
     <row r="189" spans="1:5">
@@ -3594,16 +3594,16 @@
         <v>188</v>
       </c>
       <c r="B189" t="n">
-        <v>0.1868934035301208</v>
+        <v>0.08704486986001332</v>
       </c>
       <c r="C189" t="n">
-        <v>306.5068359375</v>
+        <v>101.1423034667969</v>
       </c>
       <c r="D189" t="n">
-        <v>0.1357646671434244</v>
+        <v>0.09693317705144484</v>
       </c>
       <c r="E189" t="n">
-        <v>306.4557164510091</v>
+        <v>101.152193069458</v>
       </c>
     </row>
     <row r="190" spans="1:5">
@@ -3611,16 +3611,16 @@
         <v>189</v>
       </c>
       <c r="B190" t="n">
-        <v>0.2010176628828049</v>
+        <v>0.08179666971166928</v>
       </c>
       <c r="C190" t="n">
-        <v>300.6619262695312</v>
+        <v>99.65180206298828</v>
       </c>
       <c r="D190" t="n">
-        <v>0.1459707791606585</v>
+        <v>0.09574536917110284</v>
       </c>
       <c r="E190" t="n">
-        <v>300.6068776448568</v>
+        <v>99.66575304667155</v>
       </c>
     </row>
     <row r="191" spans="1:5">
@@ -3628,16 +3628,16 @@
         <v>190</v>
       </c>
       <c r="B191" t="n">
-        <v>0.1135611310601234</v>
+        <v>0.07745792468388875</v>
       </c>
       <c r="C191" t="n">
-        <v>294.8477274576823</v>
+        <v>98.19400533040364</v>
       </c>
       <c r="D191" t="n">
-        <v>0.2326754182577133</v>
+        <v>0.09786598042895396</v>
       </c>
       <c r="E191" t="n">
-        <v>294.9668350219727</v>
+        <v>98.21441459655762</v>
       </c>
     </row>
     <row r="192" spans="1:5">
@@ -3645,16 +3645,16 @@
         <v>191</v>
       </c>
       <c r="B192" t="n">
-        <v>0.2630264808734258</v>
+        <v>0.0822575440009435</v>
       </c>
       <c r="C192" t="n">
-        <v>289.4017944335938</v>
+        <v>96.776611328125</v>
       </c>
       <c r="D192" t="n">
-        <v>0.1879986549417178</v>
+        <v>0.09788643723974626</v>
       </c>
       <c r="E192" t="n">
-        <v>289.3267669677734</v>
+        <v>96.79223823547363</v>
       </c>
     </row>
     <row r="193" spans="1:5">
@@ -3662,16 +3662,16 @@
         <v>192</v>
       </c>
       <c r="B193" t="n">
-        <v>0.1525853549440702</v>
+        <v>0.0789115068813165</v>
       </c>
       <c r="C193" t="n">
-        <v>283.8207092285156</v>
+        <v>95.38091278076172</v>
       </c>
       <c r="D193" t="n">
-        <v>0.1413033710171779</v>
+        <v>0.1227758762737115</v>
       </c>
       <c r="E193" t="n">
-        <v>283.8094253540039</v>
+        <v>95.42477734883626</v>
       </c>
     </row>
     <row r="194" spans="1:5">
@@ -3679,16 +3679,16 @@
         <v>193</v>
       </c>
       <c r="B194" t="n">
-        <v>0.200885275999705</v>
+        <v>0.09486785531044006</v>
       </c>
       <c r="C194" t="n">
-        <v>278.5226643880208</v>
+        <v>94.03513590494792</v>
       </c>
       <c r="D194" t="n">
-        <v>0.1479889464875062</v>
+        <v>0.1014784583821893</v>
       </c>
       <c r="E194" t="n">
-        <v>278.4697647094727</v>
+        <v>94.041748046875</v>
       </c>
     </row>
     <row r="195" spans="1:5">
@@ -3696,16 +3696,16 @@
         <v>194</v>
       </c>
       <c r="B195" t="n">
-        <v>0.116619136184454</v>
+        <v>0.09794755280017853</v>
       </c>
       <c r="C195" t="n">
-        <v>273.2128092447917</v>
+        <v>92.70520782470703</v>
       </c>
       <c r="D195" t="n">
-        <v>0.1855854506914814</v>
+        <v>0.1073421475787957</v>
       </c>
       <c r="E195" t="n">
-        <v>273.2817713419597</v>
+        <v>92.71460278828938</v>
       </c>
     </row>
     <row r="196" spans="1:5">
@@ -3713,16 +3713,16 @@
         <v>195</v>
       </c>
       <c r="B196" t="n">
-        <v>0.1028050345679124</v>
+        <v>0.103871263563633</v>
       </c>
       <c r="C196" t="n">
-        <v>268.0934651692708</v>
+        <v>91.40701548258464</v>
       </c>
       <c r="D196" t="n">
-        <v>0.1367310062050819</v>
+        <v>0.1091024968773127</v>
       </c>
       <c r="E196" t="n">
-        <v>268.1273905436198</v>
+        <v>91.4122486114502</v>
       </c>
     </row>
     <row r="197" spans="1:5">
@@ -3730,16 +3730,16 @@
         <v>196</v>
       </c>
       <c r="B197" t="n">
-        <v>0.1097441036254168</v>
+        <v>0.07810037458936374</v>
       </c>
       <c r="C197" t="n">
-        <v>263.1099344889323</v>
+        <v>90.10471089680989</v>
       </c>
       <c r="D197" t="n">
-        <v>0.2196867776413759</v>
+        <v>0.1198267216483752</v>
       </c>
       <c r="E197" t="n">
-        <v>263.2198715209961</v>
+        <v>90.14643732706706</v>
       </c>
     </row>
     <row r="198" spans="1:5">
@@ -3747,16 +3747,16 @@
         <v>197</v>
       </c>
       <c r="B198" t="n">
-        <v>0.1632125154137611</v>
+        <v>0.1078868086139361</v>
       </c>
       <c r="C198" t="n">
-        <v>258.2880350748698</v>
+        <v>88.88588714599609</v>
       </c>
       <c r="D198" t="n">
-        <v>0.2658450255791346</v>
+        <v>0.1129821346451839</v>
       </c>
       <c r="E198" t="n">
-        <v>258.3906606038411</v>
+        <v>88.89098294576009</v>
       </c>
     </row>
     <row r="199" spans="1:5">
@@ -3764,16 +3764,16 @@
         <v>198</v>
       </c>
       <c r="B199" t="n">
-        <v>0.194404790798823</v>
+        <v>0.09125286589066188</v>
       </c>
       <c r="C199" t="n">
-        <v>253.5582682291667</v>
+        <v>87.64670308430989</v>
       </c>
       <c r="D199" t="n">
-        <v>0.1447330651183923</v>
+        <v>0.1046408414840698</v>
       </c>
       <c r="E199" t="n">
-        <v>253.5085957845052</v>
+        <v>87.6600907643636</v>
       </c>
     </row>
     <row r="200" spans="1:5">
@@ -3781,16 +3781,16 @@
         <v>199</v>
       </c>
       <c r="B200" t="n">
-        <v>0.1720488617817561</v>
+        <v>0.07585033153494199</v>
       </c>
       <c r="C200" t="n">
-        <v>248.8818918863932</v>
+        <v>86.43448638916016</v>
       </c>
       <c r="D200" t="n">
-        <v>0.1394949797540903</v>
+        <v>0.1053666177516182</v>
       </c>
       <c r="E200" t="n">
-        <v>248.8493321736654</v>
+        <v>86.4640007019043</v>
       </c>
     </row>
     <row r="201" spans="1:5">
@@ -3798,16 +3798,16 @@
         <v>200</v>
       </c>
       <c r="B201" t="n">
-        <v>0.1256602431337039</v>
+        <v>0.07461511840422948</v>
       </c>
       <c r="C201" t="n">
-        <v>244.285146077474</v>
+        <v>85.26188405354817</v>
       </c>
       <c r="D201" t="n">
-        <v>0.1441346717377504</v>
+        <v>0.1036951566735903</v>
       </c>
       <c r="E201" t="n">
-        <v>244.3036181131999</v>
+        <v>85.29096603393555</v>
       </c>
     </row>
   </sheetData>
@@ -3842,7 +3842,7 @@
         <v>0.9914879310344824</v>
       </c>
       <c r="B2" t="n">
-        <v>0.6643658876419067</v>
+        <v>0.7685900330543518</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -3850,7 +3850,7 @@
         <v>0.9935954022988503</v>
       </c>
       <c r="B3" t="n">
-        <v>0.8966293334960938</v>
+        <v>0.7939820885658264</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -3858,7 +3858,7 @@
         <v>0.9953804597701148</v>
       </c>
       <c r="B4" t="n">
-        <v>0.62093186378479</v>
+        <v>0.8843958973884583</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -3866,7 +3866,7 @@
         <v>0.9960258620689654</v>
       </c>
       <c r="B5" t="n">
-        <v>0.6926753520965576</v>
+        <v>0.7711917757987976</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -3874,7 +3874,7 @@
         <v>0.9966712643678161</v>
       </c>
       <c r="B6" t="n">
-        <v>0.7831560969352722</v>
+        <v>0.8291453719139099</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -3882,7 +3882,7 @@
         <v>0.9974500000000001</v>
       </c>
       <c r="B7" t="n">
-        <v>1.00977635383606</v>
+        <v>0.8558976650238037</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -3890,7 +3890,7 @@
         <v>0.9975068965517242</v>
       </c>
       <c r="B8" t="n">
-        <v>0.7843290567398071</v>
+        <v>0.7395755648612976</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -3898,7 +3898,7 @@
         <v>0.9975068965517242</v>
       </c>
       <c r="B9" t="n">
-        <v>0.8131452798843384</v>
+        <v>0.8337128162384033</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -3906,7 +3906,7 @@
         <v>0.9975068965517242</v>
       </c>
       <c r="B10" t="n">
-        <v>0.754403829574585</v>
+        <v>0.7342243790626526</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -3914,7 +3914,7 @@
         <v>0.9973362068965518</v>
       </c>
       <c r="B11" t="n">
-        <v>0.5382835268974304</v>
+        <v>0.7384510636329651</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -3922,7 +3922,7 @@
         <v>0.9971655172413794</v>
       </c>
       <c r="B12" t="n">
-        <v>0.683208703994751</v>
+        <v>0.8104591965675354</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -3930,7 +3930,7 @@
         <v>0.9969948275862069</v>
       </c>
       <c r="B13" t="n">
-        <v>0.6708558797836304</v>
+        <v>0.7964547872543335</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -3938,7 +3938,7 @@
         <v>0.9968241379310345</v>
       </c>
       <c r="B14" t="n">
-        <v>0.687812864780426</v>
+        <v>1.008788824081421</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -3946,7 +3946,7 @@
         <v>0.996653448275862</v>
       </c>
       <c r="B15" t="n">
-        <v>0.8225657343864441</v>
+        <v>0.7532099485397339</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -3954,7 +3954,7 @@
         <v>0.9964827586206895</v>
       </c>
       <c r="B16" t="n">
-        <v>0.7732637524604797</v>
+        <v>0.8456950783729553</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -3962,7 +3962,7 @@
         <v>0.9963120689655171</v>
       </c>
       <c r="B17" t="n">
-        <v>0.5165640115737915</v>
+        <v>0.912513256072998</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -3970,7 +3970,7 @@
         <v>0.9962741379310343</v>
       </c>
       <c r="B18" t="n">
-        <v>0.7358189821243286</v>
+        <v>0.8476962447166443</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -3978,7 +3978,7 @@
         <v>0.9962741379310343</v>
       </c>
       <c r="B19" t="n">
-        <v>0.8016316890716553</v>
+        <v>0.8296982645988464</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -3986,7 +3986,7 @@
         <v>0.9962741379310341</v>
       </c>
       <c r="B20" t="n">
-        <v>0.6630082726478577</v>
+        <v>0.7655317783355713</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -3994,7 +3994,7 @@
         <v>0.9962741379310341</v>
       </c>
       <c r="B21" t="n">
-        <v>0.8764322400093079</v>
+        <v>0.8964585065841675</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -4002,7 +4002,7 @@
         <v>0.9941959770114939</v>
       </c>
       <c r="B22" t="n">
-        <v>0.8151054382324219</v>
+        <v>0.7456966042518616</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -4010,7 +4010,7 @@
         <v>0.9898321839080456</v>
       </c>
       <c r="B23" t="n">
-        <v>0.6540159583091736</v>
+        <v>0.8178552985191345</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -4018,7 +4018,7 @@
         <v>0.9824580459770111</v>
       </c>
       <c r="B24" t="n">
-        <v>0.7002816796302795</v>
+        <v>0.7444612383842468</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -4026,7 +4026,7 @@
         <v>0.9722356321839077</v>
       </c>
       <c r="B25" t="n">
-        <v>0.8038168549537659</v>
+        <v>0.8316887021064758</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -4034,7 +4034,7 @@
         <v>0.958213793103448</v>
       </c>
       <c r="B26" t="n">
-        <v>0.7387210130691528</v>
+        <v>0.8259639143943787</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -4042,7 +4042,7 @@
         <v>0.9406183908045974</v>
       </c>
       <c r="B27" t="n">
-        <v>0.7496540546417236</v>
+        <v>0.8987893462181091</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -4050,7 +4050,7 @@
         <v>0.9198339080459769</v>
       </c>
       <c r="B28" t="n">
-        <v>0.6004557609558105</v>
+        <v>0.8732882142066956</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -4058,7 +4058,7 @@
         <v>0.8984367816091953</v>
       </c>
       <c r="B29" t="n">
-        <v>0.7848827242851257</v>
+        <v>0.8332692384719849</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -4066,7 +4066,7 @@
         <v>0.8757454022988506</v>
       </c>
       <c r="B30" t="n">
-        <v>0.8624184131622314</v>
+        <v>0.8093461990356445</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -4074,7 +4074,7 @@
         <v>0.8518149425287356</v>
       </c>
       <c r="B31" t="n">
-        <v>0.6785311698913574</v>
+        <v>0.8705781102180481</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -4082,7 +4082,7 @@
         <v>0.8269068965517241</v>
       </c>
       <c r="B32" t="n">
-        <v>0.6651422381401062</v>
+        <v>0.8426957726478577</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -4090,7 +4090,7 @@
         <v>0.8035959770114942</v>
       </c>
       <c r="B33" t="n">
-        <v>0.8356326818466187</v>
+        <v>0.7509528994560242</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -4098,7 +4098,7 @@
         <v>0.7803781609195404</v>
       </c>
       <c r="B34" t="n">
-        <v>0.7253082990646362</v>
+        <v>0.6683832406997681</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -4106,7 +4106,7 @@
         <v>0.758893103448276</v>
       </c>
       <c r="B35" t="n">
-        <v>0.7167822122573853</v>
+        <v>0.8141527771949768</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -4114,7 +4114,7 @@
         <v>0.7361936781609195</v>
       </c>
       <c r="B36" t="n">
-        <v>0.7775554656982422</v>
+        <v>0.8489607572555542</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -4122,7 +4122,7 @@
         <v>0.7123706896551726</v>
       </c>
       <c r="B37" t="n">
-        <v>0.8028520941734314</v>
+        <v>0.8327906131744385</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -4130,7 +4130,7 @@
         <v>0.6886798850574714</v>
       </c>
       <c r="B38" t="n">
-        <v>0.7797694206237793</v>
+        <v>0.8248640298843384</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -4138,7 +4138,7 @@
         <v>0.665223563218391</v>
       </c>
       <c r="B39" t="n">
-        <v>0.7129427194595337</v>
+        <v>0.7873460650444031</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -4146,7 +4146,7 @@
         <v>0.6412798850574714</v>
       </c>
       <c r="B40" t="n">
-        <v>0.782052755355835</v>
+        <v>0.7898352146148682</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -4154,7 +4154,7 @@
         <v>0.6168591954022989</v>
       </c>
       <c r="B41" t="n">
-        <v>0.7211107611656189</v>
+        <v>0.7856063842773438</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -4162,7 +4162,7 @@
         <v>0.5911747126436782</v>
       </c>
       <c r="B42" t="n">
-        <v>0.7428134679794312</v>
+        <v>0.5948708057403564</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -4170,7 +4170,7 @@
         <v>0.5640833333333333</v>
       </c>
       <c r="B43" t="n">
-        <v>0.6829541921615601</v>
+        <v>0.7316583395004272</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -4178,7 +4178,7 @@
         <v>0.5365281609195401</v>
       </c>
       <c r="B44" t="n">
-        <v>0.5960735678672791</v>
+        <v>0.564992368221283</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -4186,7 +4186,7 @@
         <v>0.5076925287356322</v>
       </c>
       <c r="B45" t="n">
-        <v>0.5640954375267029</v>
+        <v>0.4236881136894226</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -4194,7 +4194,7 @@
         <v>0.4796224137931034</v>
       </c>
       <c r="B46" t="n">
-        <v>0.5790206789970398</v>
+        <v>0.5101432204246521</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -4202,7 +4202,7 @@
         <v>0.4527005747126436</v>
       </c>
       <c r="B47" t="n">
-        <v>0.3908854722976685</v>
+        <v>0.3203493356704712</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -4210,7 +4210,7 @@
         <v>0.4249482758620689</v>
       </c>
       <c r="B48" t="n">
-        <v>0.3108680844306946</v>
+        <v>0.2991785109043121</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -4218,7 +4218,7 @@
         <v>0.3971431034482759</v>
       </c>
       <c r="B49" t="n">
-        <v>0.3328434526920319</v>
+        <v>0.3716903924942017</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -4226,7 +4226,7 @@
         <v>0.3714425287356322</v>
       </c>
       <c r="B50" t="n">
-        <v>0.3477126955986023</v>
+        <v>0.262109100818634</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -4234,7 +4234,7 @@
         <v>0.3492850574712644</v>
       </c>
       <c r="B51" t="n">
-        <v>0.3525389134883881</v>
+        <v>0.4116098880767822</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -4242,7 +4242,7 @@
         <v>0.3290091954022988</v>
       </c>
       <c r="B52" t="n">
-        <v>0.3911647796630859</v>
+        <v>0.2780340909957886</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -4250,7 +4250,7 @@
         <v>0.3110758620689656</v>
       </c>
       <c r="B53" t="n">
-        <v>0.29909747838974</v>
+        <v>0.3466516137123108</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -4258,7 +4258,7 @@
         <v>0.2952614942528736</v>
       </c>
       <c r="B54" t="n">
-        <v>0.4624267518520355</v>
+        <v>0.2866743803024292</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -4266,7 +4266,7 @@
         <v>0.2828270114942529</v>
       </c>
       <c r="B55" t="n">
-        <v>0.3600356876850128</v>
+        <v>0.2232344001531601</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -4274,7 +4274,7 @@
         <v>0.2738689655172413</v>
       </c>
       <c r="B56" t="n">
-        <v>0.2439795434474945</v>
+        <v>0.2922623455524445</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -4282,7 +4282,7 @@
         <v>0.2676689655172413</v>
       </c>
       <c r="B57" t="n">
-        <v>0.4882315099239349</v>
+        <v>0.2480864226818085</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -4290,7 +4290,7 @@
         <v>0.2606925287356321</v>
       </c>
       <c r="B58" t="n">
-        <v>0.4203372299671173</v>
+        <v>0.2976379692554474</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -4298,7 +4298,7 @@
         <v>0.2571442528735631</v>
       </c>
       <c r="B59" t="n">
-        <v>0.356918603181839</v>
+        <v>0.2817138731479645</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -4306,7 +4306,7 @@
         <v>0.2558321839080459</v>
       </c>
       <c r="B60" t="n">
-        <v>0.3633765876293182</v>
+        <v>0.2473333030939102</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -4314,7 +4314,7 @@
         <v>0.2564333333333333</v>
       </c>
       <c r="B61" t="n">
-        <v>0.4195641279220581</v>
+        <v>0.2820223569869995</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -4322,7 +4322,7 @@
         <v>0.2570103448275862</v>
       </c>
       <c r="B62" t="n">
-        <v>0.4788979887962341</v>
+        <v>0.3604491353034973</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -4330,7 +4330,7 @@
         <v>0.2572574712643678</v>
       </c>
       <c r="B63" t="n">
-        <v>0.4119731187820435</v>
+        <v>0.3776432871818542</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -4338,7 +4338,7 @@
         <v>0.2571114942528736</v>
       </c>
       <c r="B64" t="n">
-        <v>0.3484741151332855</v>
+        <v>0.4164096117019653</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -4346,7 +4346,7 @@
         <v>0.2580396551724138</v>
       </c>
       <c r="B65" t="n">
-        <v>0.4687344133853912</v>
+        <v>0.2900712788105011</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -4354,7 +4354,7 @@
         <v>0.259069540229885</v>
       </c>
       <c r="B66" t="n">
-        <v>0.3800718188285828</v>
+        <v>0.3237528204917908</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -4362,7 +4362,7 @@
         <v>0.2603712643678161</v>
       </c>
       <c r="B67" t="n">
-        <v>0.3826101124286652</v>
+        <v>0.3607128858566284</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -4370,7 +4370,7 @@
         <v>0.2611114942528736</v>
       </c>
       <c r="B68" t="n">
-        <v>0.3753969073295593</v>
+        <v>0.3528522253036499</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -4378,7 +4378,7 @@
         <v>0.2618045977011495</v>
       </c>
       <c r="B69" t="n">
-        <v>0.3854788541793823</v>
+        <v>0.3627419471740723</v>
       </c>
     </row>
     <row r="70" spans="1:2">
@@ -4386,7 +4386,7 @@
         <v>0.2635040229885058</v>
       </c>
       <c r="B70" t="n">
-        <v>0.4801901876926422</v>
+        <v>0.2867760956287384</v>
       </c>
     </row>
     <row r="71" spans="1:2">
@@ -4394,7 +4394,7 @@
         <v>0.2667741379310345</v>
       </c>
       <c r="B71" t="n">
-        <v>0.4375867247581482</v>
+        <v>0.3287855982780457</v>
       </c>
     </row>
     <row r="72" spans="1:2">
@@ -4402,7 +4402,7 @@
         <v>0.2711574712643679</v>
       </c>
       <c r="B72" t="n">
-        <v>0.3826526999473572</v>
+        <v>0.3384315371513367</v>
       </c>
     </row>
     <row r="73" spans="1:2">
@@ -4410,7 +4410,7 @@
         <v>0.2762183908045978</v>
       </c>
       <c r="B73" t="n">
-        <v>0.3861334025859833</v>
+        <v>0.3305323719978333</v>
       </c>
     </row>
     <row r="74" spans="1:2">
@@ -4418,7 +4418,7 @@
         <v>0.2823758620689656</v>
       </c>
       <c r="B74" t="n">
-        <v>0.3559762537479401</v>
+        <v>0.2868752479553223</v>
       </c>
     </row>
     <row r="75" spans="1:2">
@@ -4426,7 +4426,7 @@
         <v>0.287098275862069</v>
       </c>
       <c r="B75" t="n">
-        <v>0.4222655296325684</v>
+        <v>0.3450750708580017</v>
       </c>
     </row>
     <row r="76" spans="1:2">
@@ -4434,7 +4434,7 @@
         <v>0.2906511494252874</v>
       </c>
       <c r="B76" t="n">
-        <v>0.4553743004798889</v>
+        <v>0.3038108348846436</v>
       </c>
     </row>
     <row r="77" spans="1:2">
@@ -4442,7 +4442,7 @@
         <v>0.2955103448275862</v>
       </c>
       <c r="B77" t="n">
-        <v>0.3310782015323639</v>
+        <v>0.2616301774978638</v>
       </c>
     </row>
     <row r="78" spans="1:2">
@@ -4450,7 +4450,7 @@
         <v>0.2995781609195402</v>
       </c>
       <c r="B78" t="n">
-        <v>0.3919780254364014</v>
+        <v>0.2331085354089737</v>
       </c>
     </row>
     <row r="79" spans="1:2">
@@ -4458,7 +4458,7 @@
         <v>0.3015258620689655</v>
       </c>
       <c r="B79" t="n">
-        <v>0.433349221944809</v>
+        <v>0.3186274170875549</v>
       </c>
     </row>
     <row r="80" spans="1:2">
@@ -4466,7 +4466,7 @@
         <v>0.3025810344827586</v>
       </c>
       <c r="B80" t="n">
-        <v>0.3547101616859436</v>
+        <v>0.3845694065093994</v>
       </c>
     </row>
     <row r="81" spans="1:2">
@@ -4474,7 +4474,7 @@
         <v>0.3033201149425287</v>
       </c>
       <c r="B81" t="n">
-        <v>0.4837576448917389</v>
+        <v>0.4558964967727661</v>
       </c>
     </row>
     <row r="82" spans="1:2">
@@ -4482,7 +4482,7 @@
         <v>0.3050499999999999</v>
       </c>
       <c r="B82" t="n">
-        <v>0.3437252044677734</v>
+        <v>0.3444696664810181</v>
       </c>
     </row>
     <row r="83" spans="1:2">
@@ -4490,7 +4490,7 @@
         <v>0.3079701149425287</v>
       </c>
       <c r="B83" t="n">
-        <v>0.3730721473693848</v>
+        <v>0.4511203169822693</v>
       </c>
     </row>
     <row r="84" spans="1:2">
@@ -4498,7 +4498,7 @@
         <v>0.3095856321839081</v>
       </c>
       <c r="B84" t="n">
-        <v>0.5089666843414307</v>
+        <v>0.49028480052948</v>
       </c>
     </row>
     <row r="85" spans="1:2">
@@ -4506,7 +4506,7 @@
         <v>0.3110752873563218</v>
       </c>
       <c r="B85" t="n">
-        <v>0.4039203524589539</v>
+        <v>0.339917778968811</v>
       </c>
     </row>
     <row r="86" spans="1:2">
@@ -4514,7 +4514,7 @@
         <v>0.3126597701149425</v>
       </c>
       <c r="B86" t="n">
-        <v>0.4380948841571808</v>
+        <v>0.3478391170501709</v>
       </c>
     </row>
     <row r="87" spans="1:2">
@@ -4522,7 +4522,7 @@
         <v>0.3162821839080459</v>
       </c>
       <c r="B87" t="n">
-        <v>0.4320847988128662</v>
+        <v>0.255678653717041</v>
       </c>
     </row>
     <row r="88" spans="1:2">
@@ -4530,7 +4530,7 @@
         <v>0.3174505747126437</v>
       </c>
       <c r="B88" t="n">
-        <v>0.3798453509807587</v>
+        <v>0.2601218819618225</v>
       </c>
     </row>
     <row r="89" spans="1:2">
@@ -4538,7 +4538,7 @@
         <v>0.3185752873563217</v>
       </c>
       <c r="B89" t="n">
-        <v>0.4584685266017914</v>
+        <v>0.4339828491210938</v>
       </c>
     </row>
     <row r="90" spans="1:2">
@@ -4546,7 +4546,7 @@
         <v>0.3186298850574712</v>
       </c>
       <c r="B90" t="n">
-        <v>0.4690719544887543</v>
+        <v>0.3156246542930603</v>
       </c>
     </row>
     <row r="91" spans="1:2">
@@ -4554,7 +4554,7 @@
         <v>0.3178798850574712</v>
       </c>
       <c r="B91" t="n">
-        <v>0.3466877639293671</v>
+        <v>0.2611103355884552</v>
       </c>
     </row>
     <row r="92" spans="1:2">
@@ -4562,7 +4562,7 @@
         <v>0.3185172413793103</v>
       </c>
       <c r="B92" t="n">
-        <v>0.291229635477066</v>
+        <v>0.3188509345054626</v>
       </c>
     </row>
     <row r="93" spans="1:2">
@@ -4570,7 +4570,7 @@
         <v>0.3173689655172414</v>
       </c>
       <c r="B93" t="n">
-        <v>0.3180446624755859</v>
+        <v>0.2758910059928894</v>
       </c>
     </row>
     <row r="94" spans="1:2">
@@ -4578,7 +4578,7 @@
         <v>0.3159672413793103</v>
       </c>
       <c r="B94" t="n">
-        <v>0.3373913466930389</v>
+        <v>0.2110618054866791</v>
       </c>
     </row>
     <row r="95" spans="1:2">
@@ -4586,7 +4586,7 @@
         <v>0.3152591954022989</v>
       </c>
       <c r="B95" t="n">
-        <v>0.2797353267669678</v>
+        <v>0.4186847805976868</v>
       </c>
     </row>
     <row r="96" spans="1:2">
@@ -4594,7 +4594,7 @@
         <v>0.3147252873563219</v>
       </c>
       <c r="B96" t="n">
-        <v>0.423837423324585</v>
+        <v>0.2721921801567078</v>
       </c>
     </row>
     <row r="97" spans="1:2">
@@ -4602,7 +4602,7 @@
         <v>0.3146413793103449</v>
       </c>
       <c r="B97" t="n">
-        <v>0.3735070824623108</v>
+        <v>0.2834298014640808</v>
       </c>
     </row>
     <row r="98" spans="1:2">
@@ -4610,7 +4610,7 @@
         <v>0.3148971264367817</v>
       </c>
       <c r="B98" t="n">
-        <v>0.5403906106948853</v>
+        <v>0.3666580319404602</v>
       </c>
     </row>
     <row r="99" spans="1:2">
@@ -4618,7 +4618,7 @@
         <v>0.3137994252873564</v>
       </c>
       <c r="B99" t="n">
-        <v>0.4289023578166962</v>
+        <v>0.3641664385795593</v>
       </c>
     </row>
     <row r="100" spans="1:2">
@@ -4626,7 +4626,7 @@
         <v>0.3128362068965518</v>
       </c>
       <c r="B100" t="n">
-        <v>0.3039064407348633</v>
+        <v>0.312071681022644</v>
       </c>
     </row>
     <row r="101" spans="1:2">
@@ -4634,7 +4634,7 @@
         <v>0.3126620689655173</v>
       </c>
       <c r="B101" t="n">
-        <v>0.5068072080612183</v>
+        <v>0.4401742815971375</v>
       </c>
     </row>
     <row r="102" spans="1:2">
@@ -4642,7 +4642,7 @@
         <v>0.3118028735632185</v>
       </c>
       <c r="B102" t="n">
-        <v>0.4427756071090698</v>
+        <v>0.4850847125053406</v>
       </c>
     </row>
     <row r="103" spans="1:2">
@@ -4650,7 +4650,7 @@
         <v>0.3109833333333334</v>
       </c>
       <c r="B103" t="n">
-        <v>0.4968598783016205</v>
+        <v>0.429972767829895</v>
       </c>
     </row>
     <row r="104" spans="1:2">
@@ -4658,7 +4658,7 @@
         <v>0.3108379310344828</v>
       </c>
       <c r="B104" t="n">
-        <v>0.487529456615448</v>
+        <v>0.3915513157844543</v>
       </c>
     </row>
     <row r="105" spans="1:2">
@@ -4666,7 +4666,7 @@
         <v>0.3102224137931036</v>
       </c>
       <c r="B105" t="n">
-        <v>0.4417259097099304</v>
+        <v>0.3852428197860718</v>
       </c>
     </row>
     <row r="106" spans="1:2">
@@ -4674,7 +4674,7 @@
         <v>0.3093321839080461</v>
       </c>
       <c r="B106" t="n">
-        <v>0.4006581604480743</v>
+        <v>0.3937467336654663</v>
       </c>
     </row>
     <row r="107" spans="1:2">
@@ -4682,7 +4682,7 @@
         <v>0.3102247126436782</v>
       </c>
       <c r="B107" t="n">
-        <v>0.4526301920413971</v>
+        <v>0.3878880143165588</v>
       </c>
     </row>
     <row r="108" spans="1:2">
@@ -4690,7 +4690,7 @@
         <v>0.3109385057471264</v>
       </c>
       <c r="B108" t="n">
-        <v>0.3876612484455109</v>
+        <v>0.4204656481742859</v>
       </c>
     </row>
     <row r="109" spans="1:2">
@@ -4698,7 +4698,7 @@
         <v>0.3122454022988506</v>
       </c>
       <c r="B109" t="n">
-        <v>0.4058419167995453</v>
+        <v>0.2403543442487717</v>
       </c>
     </row>
     <row r="110" spans="1:2">
@@ -4706,7 +4706,7 @@
         <v>0.3141051724137931</v>
       </c>
       <c r="B110" t="n">
-        <v>0.4798993170261383</v>
+        <v>0.3606384992599487</v>
       </c>
     </row>
     <row r="111" spans="1:2">
@@ -4714,7 +4714,7 @@
         <v>0.3154666666666666</v>
       </c>
       <c r="B111" t="n">
-        <v>0.4193809628486633</v>
+        <v>0.2460225224494934</v>
       </c>
     </row>
     <row r="112" spans="1:2">
@@ -4722,7 +4722,7 @@
         <v>0.3162143678160919</v>
       </c>
       <c r="B112" t="n">
-        <v>0.2620561122894287</v>
+        <v>0.3102189004421234</v>
       </c>
     </row>
     <row r="113" spans="1:2">
@@ -4730,7 +4730,7 @@
         <v>0.3190258620689655</v>
       </c>
       <c r="B113" t="n">
-        <v>0.2901303172111511</v>
+        <v>0.3584998846054077</v>
       </c>
     </row>
     <row r="114" spans="1:2">
@@ -4738,7 +4738,7 @@
         <v>0.3218408045977012</v>
       </c>
       <c r="B114" t="n">
-        <v>0.4259886741638184</v>
+        <v>0.3940102458000183</v>
       </c>
     </row>
     <row r="115" spans="1:2">
@@ -4746,7 +4746,7 @@
         <v>0.3262310344827587</v>
       </c>
       <c r="B115" t="n">
-        <v>0.3553951680660248</v>
+        <v>0.4647770524024963</v>
       </c>
     </row>
     <row r="116" spans="1:2">
@@ -4754,7 +4754,7 @@
         <v>0.331217816091954</v>
       </c>
       <c r="B116" t="n">
-        <v>0.3317345976829529</v>
+        <v>0.3310462236404419</v>
       </c>
     </row>
     <row r="117" spans="1:2">
@@ -4762,7 +4762,7 @@
         <v>0.3382902298850575</v>
       </c>
       <c r="B117" t="n">
-        <v>0.4523971676826477</v>
+        <v>0.3010122776031494</v>
       </c>
     </row>
     <row r="118" spans="1:2">
@@ -4770,7 +4770,7 @@
         <v>0.3475735632183908</v>
       </c>
       <c r="B118" t="n">
-        <v>0.5045717358589172</v>
+        <v>0.3910896182060242</v>
       </c>
     </row>
     <row r="119" spans="1:2">
@@ -4778,7 +4778,7 @@
         <v>0.3560540229885058</v>
       </c>
       <c r="B119" t="n">
-        <v>0.3988152146339417</v>
+        <v>0.3603426814079285</v>
       </c>
     </row>
     <row r="120" spans="1:2">
@@ -4786,7 +4786,7 @@
         <v>0.3633045977011494</v>
       </c>
       <c r="B120" t="n">
-        <v>0.3018155992031097</v>
+        <v>0.3151947259902954</v>
       </c>
     </row>
     <row r="121" spans="1:2">
@@ -4794,7 +4794,7 @@
         <v>0.3694396551724137</v>
       </c>
       <c r="B121" t="n">
-        <v>0.4106104075908661</v>
+        <v>0.311796635389328</v>
       </c>
     </row>
     <row r="122" spans="1:2">
@@ -4802,7 +4802,7 @@
         <v>0.3738183908045976</v>
       </c>
       <c r="B122" t="n">
-        <v>0.2393353283405304</v>
+        <v>0.3464754223823547</v>
       </c>
     </row>
     <row r="123" spans="1:2">
@@ -4810,7 +4810,7 @@
         <v>0.3765758620689654</v>
       </c>
       <c r="B123" t="n">
-        <v>0.4065479040145874</v>
+        <v>0.3276565074920654</v>
       </c>
     </row>
     <row r="124" spans="1:2">
@@ -4818,7 +4818,7 @@
         <v>0.3761597701149424</v>
       </c>
       <c r="B124" t="n">
-        <v>0.388934999704361</v>
+        <v>0.3279677629470825</v>
       </c>
     </row>
     <row r="125" spans="1:2">
@@ -4826,7 +4826,7 @@
         <v>0.3713614942528735</v>
       </c>
       <c r="B125" t="n">
-        <v>0.3441083431243896</v>
+        <v>0.3352498412132263</v>
       </c>
     </row>
     <row r="126" spans="1:2">
@@ -4834,7 +4834,7 @@
         <v>0.3649362068965517</v>
       </c>
       <c r="B126" t="n">
-        <v>0.3437411785125732</v>
+        <v>0.2870702743530273</v>
       </c>
     </row>
     <row r="127" spans="1:2">
@@ -4842,7 +4842,7 @@
         <v>0.3601362068965517</v>
       </c>
       <c r="B127" t="n">
-        <v>0.3231653571128845</v>
+        <v>0.2426847666501999</v>
       </c>
     </row>
     <row r="128" spans="1:2">
@@ -4850,7 +4850,7 @@
         <v>0.3557362068965517</v>
       </c>
       <c r="B128" t="n">
-        <v>0.3688797950744629</v>
+        <v>0.2594132423400879</v>
       </c>
     </row>
     <row r="129" spans="1:2">
@@ -4858,7 +4858,7 @@
         <v>0.3524051724137931</v>
       </c>
       <c r="B129" t="n">
-        <v>0.388251006603241</v>
+        <v>0.1564502269029617</v>
       </c>
     </row>
     <row r="130" spans="1:2">
@@ -4866,7 +4866,7 @@
         <v>0.3501833333333333</v>
       </c>
       <c r="B130" t="n">
-        <v>0.4458997845649719</v>
+        <v>0.3155803680419922</v>
       </c>
     </row>
     <row r="131" spans="1:2">
@@ -4874,7 +4874,7 @@
         <v>0.349837356321839</v>
       </c>
       <c r="B131" t="n">
-        <v>0.2450417280197144</v>
+        <v>0.3077303767204285</v>
       </c>
     </row>
     <row r="132" spans="1:2">
@@ -4882,7 +4882,7 @@
         <v>0.3508114942528736</v>
       </c>
       <c r="B132" t="n">
-        <v>0.4161582887172699</v>
+        <v>0.2545716464519501</v>
       </c>
     </row>
     <row r="133" spans="1:2">
@@ -4890,7 +4890,7 @@
         <v>0.353514367816092</v>
       </c>
       <c r="B133" t="n">
-        <v>0.384013295173645</v>
+        <v>0.2551142275333405</v>
       </c>
     </row>
     <row r="134" spans="1:2">
@@ -4898,7 +4898,7 @@
         <v>0.3559988505747127</v>
       </c>
       <c r="B134" t="n">
-        <v>0.4111099541187286</v>
+        <v>0.3369690179824829</v>
       </c>
     </row>
     <row r="135" spans="1:2">
@@ -4906,7 +4906,7 @@
         <v>0.3574603448275863</v>
       </c>
       <c r="B135" t="n">
-        <v>0.5687199234962463</v>
+        <v>0.3290188908576965</v>
       </c>
     </row>
     <row r="136" spans="1:2">
@@ -4914,7 +4914,7 @@
         <v>0.3585114942528736</v>
       </c>
       <c r="B136" t="n">
-        <v>0.4333871006965637</v>
+        <v>0.2677496075630188</v>
       </c>
     </row>
     <row r="137" spans="1:2">
@@ -4922,7 +4922,7 @@
         <v>0.3587390804597701</v>
       </c>
       <c r="B137" t="n">
-        <v>0.3403860628604889</v>
+        <v>0.3010891675949097</v>
       </c>
     </row>
     <row r="138" spans="1:2">
@@ -4930,7 +4930,7 @@
         <v>0.3584551724137931</v>
       </c>
       <c r="B138" t="n">
-        <v>0.5401365160942078</v>
+        <v>0.3893318772315979</v>
       </c>
     </row>
     <row r="139" spans="1:2">
@@ -4938,7 +4938,7 @@
         <v>0.3602528735632184</v>
       </c>
       <c r="B139" t="n">
-        <v>0.4470372796058655</v>
+        <v>0.3381166756153107</v>
       </c>
     </row>
     <row r="140" spans="1:2">
@@ -4946,7 +4946,7 @@
         <v>0.3619959770114943</v>
       </c>
       <c r="B140" t="n">
-        <v>0.4525675475597382</v>
+        <v>0.2885174155235291</v>
       </c>
     </row>
     <row r="141" spans="1:2">
@@ -4954,7 +4954,7 @@
         <v>0.3647971264367816</v>
       </c>
       <c r="B141" t="n">
-        <v>0.3584712147712708</v>
+        <v>0.2802714407444</v>
       </c>
     </row>
     <row r="142" spans="1:2">
@@ -4962,7 +4962,7 @@
         <v>0.3663063218390805</v>
       </c>
       <c r="B142" t="n">
-        <v>0.3724924325942993</v>
+        <v>0.296411395072937</v>
       </c>
     </row>
     <row r="143" spans="1:2">
@@ -4970,7 +4970,7 @@
         <v>0.3682695402298851</v>
       </c>
       <c r="B143" t="n">
-        <v>0.5142763257026672</v>
+        <v>0.193521574139595</v>
       </c>
     </row>
     <row r="144" spans="1:2">
@@ -4978,7 +4978,7 @@
         <v>0.3684683908045976</v>
       </c>
       <c r="B144" t="n">
-        <v>0.4878082275390625</v>
+        <v>0.3175584673881531</v>
       </c>
     </row>
     <row r="145" spans="1:2">
@@ -4986,7 +4986,7 @@
         <v>0.3667149425287356</v>
       </c>
       <c r="B145" t="n">
-        <v>0.4540104568004608</v>
+        <v>0.3289458155632019</v>
       </c>
     </row>
     <row r="146" spans="1:2">
@@ -4994,7 +4994,7 @@
         <v>0.3618091954022988</v>
       </c>
       <c r="B146" t="n">
-        <v>0.3694227337837219</v>
+        <v>0.3692895174026489</v>
       </c>
     </row>
     <row r="147" spans="1:2">
@@ -5002,7 +5002,7 @@
         <v>0.3539017241379311</v>
       </c>
       <c r="B147" t="n">
-        <v>0.4778323471546173</v>
+        <v>0.4465273022651672</v>
       </c>
     </row>
     <row r="148" spans="1:2">
@@ -5010,7 +5010,7 @@
         <v>0.3472931034482759</v>
       </c>
       <c r="B148" t="n">
-        <v>0.5512542724609375</v>
+        <v>0.4100888967514038</v>
       </c>
     </row>
     <row r="149" spans="1:2">
@@ -5018,7 +5018,7 @@
         <v>0.3399229885057471</v>
       </c>
       <c r="B149" t="n">
-        <v>0.3914004862308502</v>
+        <v>0.4525681138038635</v>
       </c>
     </row>
     <row r="150" spans="1:2">
@@ -5026,7 +5026,7 @@
         <v>0.3330436781609195</v>
       </c>
       <c r="B150" t="n">
-        <v>0.4852302372455597</v>
+        <v>0.3565131425857544</v>
       </c>
     </row>
     <row r="151" spans="1:2">
@@ -5034,7 +5034,7 @@
         <v>0.3287603448275862</v>
       </c>
       <c r="B151" t="n">
-        <v>0.4635675251483917</v>
+        <v>0.5112929344177246</v>
       </c>
     </row>
     <row r="152" spans="1:2">
@@ -5042,7 +5042,7 @@
         <v>0.3274218390804597</v>
       </c>
       <c r="B152" t="n">
-        <v>0.2197405397891998</v>
+        <v>0.3276742994785309</v>
       </c>
     </row>
     <row r="153" spans="1:2">
@@ -5050,7 +5050,7 @@
         <v>0.3305626436781609</v>
       </c>
       <c r="B153" t="n">
-        <v>0.4127499461174011</v>
+        <v>0.3672030568122864</v>
       </c>
     </row>
     <row r="154" spans="1:2">
@@ -5058,7 +5058,7 @@
         <v>0.336785632183908</v>
       </c>
       <c r="B154" t="n">
-        <v>0.4164825975894928</v>
+        <v>0.3468758463859558</v>
       </c>
     </row>
     <row r="155" spans="1:2">
@@ -5066,7 +5066,7 @@
         <v>0.3448701149425287</v>
       </c>
       <c r="B155" t="n">
-        <v>0.5242259502410889</v>
+        <v>0.3203341364860535</v>
       </c>
     </row>
     <row r="156" spans="1:2">
@@ -5074,7 +5074,7 @@
         <v>0.3526103448275861</v>
       </c>
       <c r="B156" t="n">
-        <v>0.5163758397102356</v>
+        <v>0.308449387550354</v>
       </c>
     </row>
     <row r="157" spans="1:2">
@@ -5082,7 +5082,7 @@
         <v>0.3625454022988505</v>
       </c>
       <c r="B157" t="n">
-        <v>0.4300494194030762</v>
+        <v>0.3383484482765198</v>
       </c>
     </row>
     <row r="158" spans="1:2">
@@ -5090,7 +5090,7 @@
         <v>0.3702683908045977</v>
       </c>
       <c r="B158" t="n">
-        <v>0.4215989112854004</v>
+        <v>0.3845481872558594</v>
       </c>
     </row>
     <row r="159" spans="1:2">
@@ -5098,7 +5098,7 @@
         <v>0.3776982758620689</v>
       </c>
       <c r="B159" t="n">
-        <v>0.3257695138454437</v>
+        <v>0.3905333280563354</v>
       </c>
     </row>
     <row r="160" spans="1:2">
@@ -5106,7 +5106,7 @@
         <v>0.3839097701149425</v>
       </c>
       <c r="B160" t="n">
-        <v>0.5881546139717102</v>
+        <v>0.4483648538589478</v>
       </c>
     </row>
     <row r="161" spans="1:2">
@@ -5114,7 +5114,7 @@
         <v>0.3885488505747127</v>
       </c>
       <c r="B161" t="n">
-        <v>0.4066206514835358</v>
+        <v>0.4528155922889709</v>
       </c>
     </row>
     <row r="162" spans="1:2">
@@ -5122,7 +5122,7 @@
         <v>0.3911132183908046</v>
       </c>
       <c r="B162" t="n">
-        <v>0.4068945646286011</v>
+        <v>0.4671034216880798</v>
       </c>
     </row>
     <row r="163" spans="1:2">
@@ -5130,7 +5130,7 @@
         <v>0.3946333333333334</v>
       </c>
       <c r="B163" t="n">
-        <v>0.5592446327209473</v>
+        <v>0.4681586027145386</v>
       </c>
     </row>
     <row r="164" spans="1:2">
@@ -5138,7 +5138,7 @@
         <v>0.3967741379310346</v>
       </c>
       <c r="B164" t="n">
-        <v>0.4384810030460358</v>
+        <v>0.3882657289505005</v>
       </c>
     </row>
     <row r="165" spans="1:2">
@@ -5146,7 +5146,7 @@
         <v>0.3984913793103448</v>
       </c>
       <c r="B165" t="n">
-        <v>0.4282365739345551</v>
+        <v>0.4094827175140381</v>
       </c>
     </row>
     <row r="166" spans="1:2">
@@ -5154,7 +5154,7 @@
         <v>0.4020620689655173</v>
       </c>
       <c r="B166" t="n">
-        <v>0.5430455207824707</v>
+        <v>0.4249061942100525</v>
       </c>
     </row>
     <row r="167" spans="1:2">
@@ -5162,7 +5162,7 @@
         <v>0.4043994252873564</v>
       </c>
       <c r="B167" t="n">
-        <v>0.4428592622280121</v>
+        <v>0.4835015535354614</v>
       </c>
     </row>
     <row r="168" spans="1:2">
@@ -5170,7 +5170,7 @@
         <v>0.4045977011494254</v>
       </c>
       <c r="B168" t="n">
-        <v>0.4183222353458405</v>
+        <v>0.3669551610946655</v>
       </c>
     </row>
     <row r="169" spans="1:2">
@@ -5178,7 +5178,7 @@
         <v>0.4046873563218392</v>
       </c>
       <c r="B169" t="n">
-        <v>0.5184893012046814</v>
+        <v>0.4252902865409851</v>
       </c>
     </row>
     <row r="170" spans="1:2">
@@ -5186,7 +5186,7 @@
         <v>0.4031925287356322</v>
       </c>
       <c r="B170" t="n">
-        <v>0.5061836838722229</v>
+        <v>0.4435604810714722</v>
       </c>
     </row>
     <row r="171" spans="1:2">
@@ -5194,7 +5194,7 @@
         <v>0.4016649425287357</v>
       </c>
       <c r="B171" t="n">
-        <v>0.5554948449134827</v>
+        <v>0.390704870223999</v>
       </c>
     </row>
     <row r="172" spans="1:2">
@@ -5202,7 +5202,7 @@
         <v>0.398296551724138</v>
       </c>
       <c r="B172" t="n">
-        <v>0.5141134858131409</v>
+        <v>0.4009553194046021</v>
       </c>
     </row>
     <row r="173" spans="1:2">
@@ -5210,7 +5210,7 @@
         <v>0.3946706896551724</v>
       </c>
       <c r="B173" t="n">
-        <v>0.6073008179664612</v>
+        <v>0.4298533201217651</v>
       </c>
     </row>
     <row r="174" spans="1:2">
@@ -5218,7 +5218,7 @@
         <v>0.3930637931034483</v>
       </c>
       <c r="B174" t="n">
-        <v>0.4408467710018158</v>
+        <v>0.3783856630325317</v>
       </c>
     </row>
     <row r="175" spans="1:2">
@@ -5226,7 +5226,7 @@
         <v>0.3938948275862069</v>
       </c>
       <c r="B175" t="n">
-        <v>0.4924875497817993</v>
+        <v>0.4682938456535339</v>
       </c>
     </row>
     <row r="176" spans="1:2">
@@ -5234,7 +5234,7 @@
         <v>0.3948137931034482</v>
       </c>
       <c r="B176" t="n">
-        <v>0.5617210268974304</v>
+        <v>0.4403547048568726</v>
       </c>
     </row>
     <row r="177" spans="1:2">
@@ -5242,7 +5242,7 @@
         <v>0.3956241379310345</v>
       </c>
       <c r="B177" t="n">
-        <v>0.5530648827552795</v>
+        <v>0.4667205214500427</v>
       </c>
     </row>
     <row r="178" spans="1:2">
@@ -5250,7 +5250,7 @@
         <v>0.3977988505747126</v>
       </c>
       <c r="B178" t="n">
-        <v>0.3438093066215515</v>
+        <v>0.3551539182662964</v>
       </c>
     </row>
   </sheetData>
